--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="105">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
     <t>2023-08-29</t>
   </si>
   <si>
@@ -118,13 +121,7 @@
     <t>2023-07-17</t>
   </si>
   <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
-    <t>2023-07-11</t>
-  </si>
-  <si>
-    <t>2023-07-10</t>
+    <t>상상인제4호스팩</t>
   </si>
   <si>
     <t>한화플러스제4호스팩</t>
@@ -190,16 +187,7 @@
     <t>버넥트</t>
   </si>
   <si>
-    <t>뷰티스킨</t>
-  </si>
-  <si>
-    <t>SK증권제9호스팩</t>
-  </si>
-  <si>
-    <t>와이랩</t>
-  </si>
-  <si>
-    <t>센서뷰</t>
+    <t>상상인</t>
   </si>
   <si>
     <t>한화</t>
@@ -232,10 +220,7 @@
     <t>미래</t>
   </si>
   <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>삼성</t>
+    <t>2023-09-07</t>
   </si>
   <si>
     <t>2023-09-01</t>
@@ -265,16 +250,7 @@
     <t>2023-07-20</t>
   </si>
   <si>
-    <t>2023-07-18</t>
-  </si>
-  <si>
-    <t>2023-07-14</t>
-  </si>
-  <si>
-    <t>2023-09-07</t>
-  </si>
-  <si>
-    <t>2023-09-04</t>
+    <t>2023-09-14</t>
   </si>
   <si>
     <t>2023-08-30</t>
@@ -286,18 +262,12 @@
     <t>2023-08-11</t>
   </si>
   <si>
-    <t>2023-07-25</t>
-  </si>
-  <si>
-    <t>2023-07-21</t>
-  </si>
-  <si>
-    <t>2023-07-19</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>1010.2 : 1</t>
+  </si>
+  <si>
     <t>753.02 : 1</t>
   </si>
   <si>
@@ -359,18 +329,6 @@
   </si>
   <si>
     <t>1311.65 : 1</t>
-  </si>
-  <si>
-    <t>2316.1 : 1</t>
-  </si>
-  <si>
-    <t>296 : 1</t>
-  </si>
-  <si>
-    <t>1917.16 : 1</t>
-  </si>
-  <si>
-    <t>1568 : 1</t>
   </si>
 </sst>
 </file>
@@ -728,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,25 +759,25 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>9500000</v>
+        <v>9000000</v>
       </c>
       <c r="G2">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -828,34 +786,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="S2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -863,25 +821,25 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>13000000</v>
+        <v>9500000</v>
       </c>
       <c r="G3">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -890,34 +848,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="S3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -925,25 +883,25 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G4">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -952,34 +910,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="S4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -987,25 +945,25 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F5">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -1014,60 +972,60 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="S5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F6">
-        <v>13000000</v>
+        <v>8000000</v>
       </c>
       <c r="G6">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -1076,34 +1034,34 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1111,61 +1069,61 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7">
-        <v>16006620</v>
+        <v>13000000</v>
       </c>
       <c r="G7">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I7">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>10600</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L7">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="S7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1173,61 +1131,61 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F8">
-        <v>17760000</v>
+        <v>16006620</v>
       </c>
       <c r="G8">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I8">
-        <v>5800</v>
+        <v>9200</v>
       </c>
       <c r="J8">
-        <v>6800</v>
+        <v>10600</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L8">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="S8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1235,61 +1193,61 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>80500000</v>
+        <v>17760000</v>
       </c>
       <c r="G9">
-        <v>7000000</v>
+        <v>2220000</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I9">
-        <v>11500</v>
+        <v>5800</v>
       </c>
       <c r="J9">
-        <v>12500</v>
+        <v>6800</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L9">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O9">
-        <v>47.85714285714286</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="S9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1297,61 +1255,61 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>10768600</v>
+        <v>80500000</v>
       </c>
       <c r="G10">
-        <v>468200</v>
+        <v>7000000</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I10">
-        <v>21000</v>
+        <v>11500</v>
       </c>
       <c r="J10">
-        <v>23000</v>
+        <v>12500</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L10">
-        <v>23000</v>
+        <v>11500</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>47.85714285714286</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R10" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="S10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1359,149 +1317,149 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
         <v>80</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
       <c r="F11">
-        <v>18200000</v>
+        <v>10768600</v>
       </c>
       <c r="G11">
-        <v>1400000</v>
+        <v>468200</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I11">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="J11">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L11">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R11" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>13000000</v>
+        <v>18200000</v>
       </c>
       <c r="G12">
-        <v>6500000</v>
+        <v>1400000</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" t="s">
-        <v>104</v>
-      </c>
       <c r="S12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="G13">
-        <v>3000000</v>
+        <v>6500000</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1510,96 +1468,96 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R13" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F14">
-        <v>13000000</v>
+        <v>6000000</v>
       </c>
       <c r="G14">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I14">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L14">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1607,61 +1565,61 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G15">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="S15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1669,61 +1627,61 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16">
-        <v>193750000</v>
+        <v>10000000</v>
       </c>
       <c r="G16">
-        <v>6250000</v>
+        <v>5000000</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I16">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L16">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R16" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="S16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1731,61 +1689,61 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F17">
-        <v>14520000</v>
+        <v>193750000</v>
       </c>
       <c r="G17">
-        <v>1210000</v>
+        <v>6250000</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I17">
-        <v>8500</v>
+        <v>26000</v>
       </c>
       <c r="J17">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L17">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="M17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R17" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="S17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1793,61 +1751,61 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F18">
-        <v>22500000</v>
+        <v>14520000</v>
       </c>
       <c r="G18">
-        <v>900000</v>
+        <v>1210000</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I18">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="J18">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L18">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R18" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="S18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1855,247 +1813,247 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F19">
-        <v>19600000</v>
+        <v>22500000</v>
       </c>
       <c r="G19">
-        <v>1400000</v>
+        <v>900000</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="J19">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L19">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R19" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="S19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>8000000</v>
+        <v>19600000</v>
       </c>
       <c r="G20">
-        <v>4000000</v>
+        <v>1400000</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L20">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R20" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="S20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21">
-        <v>22500000</v>
+        <v>8000000</v>
       </c>
       <c r="G21">
-        <v>900000</v>
+        <v>4000000</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I21">
-        <v>16700</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>20500</v>
+        <v>2000</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L21">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="S21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>31</v>
       </c>
       <c r="F22">
-        <v>30720000</v>
+        <v>22500000</v>
       </c>
       <c r="G22">
-        <v>1920000</v>
+        <v>900000</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22">
-        <v>11500</v>
+        <v>16700</v>
       </c>
       <c r="J22">
-        <v>13600</v>
+        <v>20500</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L22">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="M22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R22" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="S22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2103,247 +2061,61 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="F23">
-        <v>11440000</v>
+        <v>30720000</v>
       </c>
       <c r="G23">
-        <v>440000</v>
+        <v>1920000</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I23">
-        <v>21000</v>
+        <v>11500</v>
       </c>
       <c r="J23">
-        <v>24000</v>
+        <v>13600</v>
       </c>
       <c r="K23" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L23">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N23" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q23" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R23" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="S23" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="T23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24">
-        <v>8000000</v>
-      </c>
-      <c r="G24">
-        <v>4000000</v>
-      </c>
-      <c r="H24" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24">
-        <v>2000</v>
-      </c>
-      <c r="J24">
-        <v>2000</v>
-      </c>
-      <c r="K24" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24">
-        <v>2000</v>
-      </c>
-      <c r="M24" t="s">
-        <v>93</v>
-      </c>
-      <c r="N24" t="s">
-        <v>93</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>93</v>
-      </c>
-      <c r="R24" t="s">
-        <v>116</v>
-      </c>
-      <c r="S24" t="s">
-        <v>93</v>
-      </c>
-      <c r="T24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25">
-        <v>27000000</v>
-      </c>
-      <c r="G25">
-        <v>3000000</v>
-      </c>
-      <c r="H25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25">
-        <v>7000</v>
-      </c>
-      <c r="J25">
-        <v>8000</v>
-      </c>
-      <c r="K25" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25">
-        <v>9000</v>
-      </c>
-      <c r="M25" t="s">
-        <v>93</v>
-      </c>
-      <c r="N25" t="s">
-        <v>93</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>93</v>
-      </c>
-      <c r="R25" t="s">
-        <v>117</v>
-      </c>
-      <c r="S25" t="s">
-        <v>93</v>
-      </c>
-      <c r="T25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26">
-        <v>17550000</v>
-      </c>
-      <c r="G26">
-        <v>3900000</v>
-      </c>
-      <c r="H26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26">
-        <v>2900</v>
-      </c>
-      <c r="J26">
-        <v>3600</v>
-      </c>
-      <c r="K26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26">
-        <v>4500</v>
-      </c>
-      <c r="M26" t="s">
-        <v>93</v>
-      </c>
-      <c r="N26" t="s">
-        <v>93</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>93</v>
-      </c>
-      <c r="R26" t="s">
-        <v>118</v>
-      </c>
-      <c r="S26" t="s">
-        <v>93</v>
-      </c>
-      <c r="T26" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
     <t>2023-09-21</t>
   </si>
   <si>
@@ -109,7 +112,7 @@
     <t>2023-08-10</t>
   </si>
   <si>
-    <t>2023-08-09</t>
+    <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
     <t>두산로보틱스</t>
@@ -157,7 +160,7 @@
     <t>스마트레이더시스템</t>
   </si>
   <si>
-    <t>넥스틸</t>
+    <t>현대차</t>
   </si>
   <si>
     <t>한국, 미래</t>
@@ -193,7 +196,7 @@
     <t>한국</t>
   </si>
   <si>
-    <t>하나</t>
+    <t>2023-10-04</t>
   </si>
   <si>
     <t>2023-09-26</t>
@@ -223,12 +226,12 @@
     <t>2023-08-16</t>
   </si>
   <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
     <t>2023-10-06</t>
   </si>
   <si>
@@ -238,15 +241,15 @@
     <t>2023-09-27</t>
   </si>
   <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
     <t>2023-08-30</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>61.15 : 1</t>
+  </si>
+  <si>
     <t>519.6 : 1</t>
   </si>
   <si>
@@ -290,9 +293,6 @@
   </si>
   <si>
     <t>1366 : 1</t>
-  </si>
-  <si>
-    <t>4.63 : 1</t>
   </si>
 </sst>
 </file>
@@ -732,28 +732,28 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G2">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H2" t="s">
         <v>76</v>
       </c>
       <c r="I2">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="s">
         <v>76</v>
       </c>
       <c r="L2">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="s">
         <v>76</v>
@@ -794,28 +794,28 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G3">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H3" t="s">
         <v>76</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K3" t="s">
         <v>76</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M3" t="s">
         <v>76</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -853,31 +853,31 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G4">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H4" t="s">
         <v>76</v>
       </c>
       <c r="I4">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
         <v>76</v>
       </c>
       <c r="L4">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
         <v>76</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -915,31 +915,31 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G5">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H5" t="s">
         <v>76</v>
       </c>
       <c r="I5">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J5">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K5" t="s">
         <v>76</v>
       </c>
       <c r="L5">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M5" t="s">
         <v>76</v>
@@ -948,7 +948,7 @@
         <v>76</v>
       </c>
       <c r="O5">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P5" t="s">
         <v>76</v>
@@ -977,31 +977,31 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>72</v>
       </c>
       <c r="F6">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G6">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H6" t="s">
         <v>76</v>
       </c>
       <c r="I6">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J6">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K6" t="s">
         <v>76</v>
       </c>
       <c r="L6">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="s">
         <v>76</v>
@@ -1010,7 +1010,7 @@
         <v>76</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P6" t="s">
         <v>76</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -1039,31 +1039,31 @@
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>73</v>
       </c>
       <c r="F7">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G7">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H7" t="s">
         <v>76</v>
       </c>
       <c r="I7">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J7">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K7" t="s">
         <v>76</v>
       </c>
       <c r="L7">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="s">
         <v>76</v>
@@ -1107,10 +1107,10 @@
         <v>74</v>
       </c>
       <c r="F8">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G8">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H8" t="s">
         <v>76</v>
@@ -1119,13 +1119,13 @@
         <v>20000</v>
       </c>
       <c r="J8">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K8" t="s">
         <v>76</v>
       </c>
       <c r="L8">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M8" t="s">
         <v>76</v>
@@ -1134,7 +1134,7 @@
         <v>76</v>
       </c>
       <c r="O8">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
         <v>76</v>
@@ -1163,31 +1163,31 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>9000000</v>
+        <v>26400000</v>
       </c>
       <c r="G9">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H9" t="s">
         <v>76</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K9" t="s">
         <v>76</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="M9" t="s">
         <v>76</v>
@@ -1196,7 +1196,7 @@
         <v>76</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="P9" t="s">
         <v>76</v>
@@ -1228,13 +1228,13 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>9500000</v>
+        <v>9000000</v>
       </c>
       <c r="G10">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H10" t="s">
         <v>76</v>
@@ -1290,13 +1290,13 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F11">
-        <v>13000000</v>
+        <v>9500000</v>
       </c>
       <c r="G11">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G12">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -1408,19 +1408,19 @@
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F13">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G13">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H13" t="s">
         <v>76</v>
@@ -1464,25 +1464,25 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>75</v>
       </c>
       <c r="F14">
-        <v>13000000</v>
+        <v>8000000</v>
       </c>
       <c r="G14">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H14" t="s">
         <v>76</v>
@@ -1532,34 +1532,34 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F15">
-        <v>16006620</v>
+        <v>13000000</v>
       </c>
       <c r="G15">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="H15" t="s">
         <v>76</v>
       </c>
       <c r="I15">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>10600</v>
+        <v>2000</v>
       </c>
       <c r="K15" t="s">
         <v>76</v>
       </c>
       <c r="L15">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="s">
         <v>76</v>
@@ -1594,34 +1594,34 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F16">
-        <v>17760000</v>
+        <v>16006620</v>
       </c>
       <c r="G16">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="H16" t="s">
         <v>76</v>
       </c>
       <c r="I16">
-        <v>5800</v>
+        <v>9200</v>
       </c>
       <c r="J16">
-        <v>6800</v>
+        <v>10600</v>
       </c>
       <c r="K16" t="s">
         <v>76</v>
       </c>
       <c r="L16">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="s">
         <v>76</v>
@@ -1656,34 +1656,34 @@
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
       <c r="F17">
-        <v>80500000</v>
+        <v>17760000</v>
       </c>
       <c r="G17">
-        <v>7000000</v>
+        <v>2220000</v>
       </c>
       <c r="H17" t="s">
         <v>76</v>
       </c>
       <c r="I17">
-        <v>11500</v>
+        <v>5800</v>
       </c>
       <c r="J17">
-        <v>12500</v>
+        <v>6800</v>
       </c>
       <c r="K17" t="s">
         <v>76</v>
       </c>
       <c r="L17">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="s">
         <v>76</v>
@@ -1692,7 +1692,7 @@
         <v>76</v>
       </c>
       <c r="O17">
-        <v>47.85714285714286</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
         <v>76</v>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="89">
   <si>
     <t>청약일</t>
   </si>
@@ -109,9 +109,6 @@
     <t>2023-08-14</t>
   </si>
   <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
     <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>시큐레터</t>
   </si>
   <si>
-    <t>스마트레이더시스템</t>
-  </si>
-  <si>
     <t>현대차</t>
   </si>
   <si>
@@ -223,9 +217,6 @@
     <t>2023-08-18</t>
   </si>
   <si>
-    <t>2023-08-16</t>
-  </si>
-  <si>
     <t>2023-10-13</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
   </si>
   <si>
     <t>1698.41 : 1</t>
-  </si>
-  <si>
-    <t>1366 : 1</t>
   </si>
 </sst>
 </file>
@@ -650,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,16 +711,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>8000000</v>
@@ -741,7 +729,7 @@
         <v>4000000</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -750,34 +738,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -785,16 +773,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>421200000</v>
@@ -803,7 +791,7 @@
         <v>16200000</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I3">
         <v>21000</v>
@@ -812,34 +800,34 @@
         <v>26000</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L3">
         <v>26000</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -847,16 +835,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>36000000</v>
@@ -865,7 +853,7 @@
         <v>18000000</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -874,34 +862,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" t="s">
-        <v>79</v>
-      </c>
       <c r="S4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -909,16 +897,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>18750000</v>
@@ -927,7 +915,7 @@
         <v>1500000</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I5">
         <v>8900</v>
@@ -936,34 +924,34 @@
         <v>11000</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L5">
         <v>12500</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -971,16 +959,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>33600000</v>
@@ -989,7 +977,7 @@
         <v>2240000</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>11500</v>
@@ -998,34 +986,34 @@
         <v>13200</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L6">
         <v>15000</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O6">
         <v>26.78571428571428</v>
       </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1033,16 +1021,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>22120000</v>
@@ -1051,7 +1039,7 @@
         <v>1580000</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I7">
         <v>10500</v>
@@ -1060,34 +1048,34 @@
         <v>12000</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L7">
         <v>14000</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1095,16 +1083,16 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>34500000</v>
@@ -1113,7 +1101,7 @@
         <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I8">
         <v>20000</v>
@@ -1122,34 +1110,34 @@
         <v>23000</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L8">
         <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1157,10 +1145,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -1175,7 +1163,7 @@
         <v>1100000</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I9">
         <v>20000</v>
@@ -1184,34 +1172,34 @@
         <v>24000</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L9">
         <v>24000</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O9">
         <v>18.18181818181818</v>
       </c>
       <c r="P9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1219,13 +1207,13 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1237,7 +1225,7 @@
         <v>4500000</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1246,34 +1234,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1281,16 +1269,16 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11">
         <v>9500000</v>
@@ -1299,7 +1287,7 @@
         <v>4750000</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1308,34 +1296,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1343,13 +1331,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -1361,7 +1349,7 @@
         <v>6500000</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1370,34 +1358,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1405,16 +1393,16 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>10000000</v>
@@ -1423,7 +1411,7 @@
         <v>5000000</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1432,34 +1420,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1467,16 +1455,16 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F14">
         <v>8000000</v>
@@ -1485,7 +1473,7 @@
         <v>4000000</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1494,34 +1482,34 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1529,16 +1517,16 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <v>13000000</v>
@@ -1547,7 +1535,7 @@
         <v>6500000</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -1556,34 +1544,34 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1591,16 +1579,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16">
         <v>16006620</v>
@@ -1609,7 +1597,7 @@
         <v>1333885</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I16">
         <v>9200</v>
@@ -1618,96 +1606,34 @@
         <v>10600</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L16">
         <v>12000</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17">
-        <v>17760000</v>
-      </c>
-      <c r="G17">
-        <v>2220000</v>
-      </c>
-      <c r="H17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17">
-        <v>5800</v>
-      </c>
-      <c r="J17">
-        <v>6800</v>
-      </c>
-      <c r="K17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17">
-        <v>8000</v>
-      </c>
-      <c r="M17" t="s">
-        <v>76</v>
-      </c>
-      <c r="N17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" t="s">
-        <v>92</v>
-      </c>
-      <c r="S17" t="s">
-        <v>76</v>
-      </c>
-      <c r="T17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
   <si>
     <t>청약일</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2023-08-21</t>
   </si>
   <si>
-    <t>2023-08-14</t>
-  </si>
-  <si>
     <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>대신밸런스제15호스팩</t>
   </si>
   <si>
-    <t>시큐레터</t>
-  </si>
-  <si>
     <t>현대차</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>2023-08-24</t>
   </si>
   <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
     <t>2023-10-13</t>
   </si>
   <si>
@@ -278,9 +269,6 @@
   </si>
   <si>
     <t>548.99 : 1</t>
-  </si>
-  <si>
-    <t>1698.41 : 1</t>
   </si>
 </sst>
 </file>
@@ -638,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,16 +699,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>8000000</v>
@@ -729,7 +717,7 @@
         <v>4000000</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -738,34 +726,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -773,16 +761,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>421200000</v>
@@ -791,7 +779,7 @@
         <v>16200000</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>21000</v>
@@ -800,34 +788,34 @@
         <v>26000</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L3">
         <v>26000</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -835,16 +823,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>36000000</v>
@@ -853,7 +841,7 @@
         <v>18000000</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -862,34 +850,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R4" t="s">
-        <v>76</v>
-      </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -897,16 +885,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>18750000</v>
@@ -915,7 +903,7 @@
         <v>1500000</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I5">
         <v>8900</v>
@@ -924,34 +912,34 @@
         <v>11000</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L5">
         <v>12500</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -959,16 +947,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>33600000</v>
@@ -977,7 +965,7 @@
         <v>2240000</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I6">
         <v>11500</v>
@@ -986,34 +974,34 @@
         <v>13200</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L6">
         <v>15000</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O6">
         <v>26.78571428571428</v>
       </c>
       <c r="P6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1021,16 +1009,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>22120000</v>
@@ -1039,7 +1027,7 @@
         <v>1580000</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I7">
         <v>10500</v>
@@ -1048,34 +1036,34 @@
         <v>12000</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L7">
         <v>14000</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1083,16 +1071,16 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>34500000</v>
@@ -1101,7 +1089,7 @@
         <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I8">
         <v>20000</v>
@@ -1110,34 +1098,34 @@
         <v>23000</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L8">
         <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1145,10 +1133,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -1163,7 +1151,7 @@
         <v>1100000</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <v>20000</v>
@@ -1172,34 +1160,34 @@
         <v>24000</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L9">
         <v>24000</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O9">
         <v>18.18181818181818</v>
       </c>
       <c r="P9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1207,13 +1195,13 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1225,7 +1213,7 @@
         <v>4500000</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1234,34 +1222,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1269,16 +1257,16 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11">
         <v>9500000</v>
@@ -1287,7 +1275,7 @@
         <v>4750000</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1296,34 +1284,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1331,13 +1319,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -1349,7 +1337,7 @@
         <v>6500000</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1358,34 +1346,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1393,16 +1381,16 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <v>10000000</v>
@@ -1411,7 +1399,7 @@
         <v>5000000</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1420,34 +1408,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1455,16 +1443,16 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>8000000</v>
@@ -1473,7 +1461,7 @@
         <v>4000000</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1482,34 +1470,34 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1517,16 +1505,16 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <v>13000000</v>
@@ -1535,7 +1523,7 @@
         <v>6500000</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -1544,96 +1532,34 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16">
-        <v>16006620</v>
-      </c>
-      <c r="G16">
-        <v>1333885</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16">
-        <v>9200</v>
-      </c>
-      <c r="J16">
-        <v>10600</v>
-      </c>
-      <c r="K16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16">
-        <v>12000</v>
-      </c>
-      <c r="M16" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" t="s">
-        <v>88</v>
-      </c>
-      <c r="S16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="89">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
     <t>2023-09-25</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>2023-08-21</t>
   </si>
   <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
     <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>대신밸런스제15호스팩</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>현대차</t>
   </si>
   <si>
@@ -166,9 +175,6 @@
     <t>유안타</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>신영</t>
   </si>
   <si>
@@ -184,6 +190,9 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
     <t>2023-10-04</t>
   </si>
   <si>
@@ -208,12 +217,12 @@
     <t>2023-08-24</t>
   </si>
   <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
     <t>2023-10-06</t>
   </si>
   <si>
@@ -227,6 +236,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1415.77 : 1</t>
   </si>
   <si>
     <t>61.15 : 1</t>
@@ -626,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G2">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -761,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G3">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I3">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L3">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -823,185 +835,185 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G4">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G5">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I5">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L5">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F6">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G6">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I6">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J6">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L6">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O6">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1009,123 +1021,123 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G7">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I7">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J7">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L7">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F8">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G8">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I8">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J8">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L8">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1133,61 +1145,61 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="F9">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G9">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I9">
         <v>20000</v>
       </c>
       <c r="J9">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L9">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O9">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1195,61 +1207,61 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>9000000</v>
+        <v>26400000</v>
       </c>
       <c r="G10">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="P10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1257,25 +1269,25 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>9500000</v>
+        <v>9000000</v>
       </c>
       <c r="G11">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1284,34 +1296,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1319,25 +1331,25 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F12">
-        <v>13000000</v>
+        <v>9500000</v>
       </c>
       <c r="G12">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1346,34 +1358,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1381,25 +1393,25 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G13">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1408,34 +1420,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1443,25 +1455,25 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
       <c r="F14">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1470,60 +1482,60 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F15">
-        <v>13000000</v>
+        <v>8000000</v>
       </c>
       <c r="G15">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -1532,34 +1544,96 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16">
+        <v>13000000</v>
+      </c>
+      <c r="G16">
+        <v>6500000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16">
+        <v>2000</v>
+      </c>
+      <c r="J16">
+        <v>2000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16">
+        <v>2000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>2023-08-21</t>
   </si>
   <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
     <t>퓨릿</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -217,18 +226,15 @@
     <t>2023-08-24</t>
   </si>
   <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
     <t>2023-10-18</t>
   </si>
   <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
     <t>2023-10-06</t>
   </si>
   <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
     <t>2023-09-27</t>
   </si>
   <si>
@@ -236,6 +242,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1891.4 : 1</t>
   </si>
   <si>
     <t>1415.77 : 1</t>
@@ -638,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,61 +720,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F2">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G2">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J2">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L2">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -773,61 +782,61 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G3">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -835,61 +844,61 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G4">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L4">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -897,185 +906,185 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G5">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G6">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I6">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L6">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F7">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G7">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I7">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J7">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L7">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O7">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1083,123 +1092,123 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G8">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I8">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J8">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G9">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I9">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J9">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L9">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1207,61 +1216,61 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F10">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G10">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I10">
         <v>20000</v>
       </c>
       <c r="J10">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L10">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O10">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1269,61 +1278,61 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>9000000</v>
+        <v>26400000</v>
       </c>
       <c r="G11">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="P11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1331,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>9500000</v>
+        <v>9000000</v>
       </c>
       <c r="G12">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1358,34 +1367,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1393,25 +1402,25 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F13">
-        <v>13000000</v>
+        <v>9500000</v>
       </c>
       <c r="G13">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1420,34 +1429,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1455,25 +1464,25 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G14">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1482,34 +1491,34 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1517,25 +1526,25 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
       <c r="F15">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -1544,60 +1553,60 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16">
-        <v>13000000</v>
+        <v>8000000</v>
       </c>
       <c r="G16">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I16">
         <v>2000</v>
@@ -1606,34 +1615,96 @@
         <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L16">
         <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>13000000</v>
+      </c>
+      <c r="G17">
+        <v>6500000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <v>2000</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17">
+        <v>2000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="96">
   <si>
     <t>청약일</t>
   </si>
@@ -112,6 +112,9 @@
     <t>2023-08-21</t>
   </si>
   <si>
+    <t>에스엘에스바이오</t>
+  </si>
+  <si>
     <t>신성에스티</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>대신밸런스제15호스팩</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
@@ -226,6 +232,9 @@
     <t>2023-08-24</t>
   </si>
   <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -242,6 +251,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>345.96 : 1</t>
   </si>
   <si>
     <t>1891.4 : 1</t>
@@ -647,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,306 +735,306 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G2">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I2">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J2">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G3">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I3">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J3">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L3">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O3">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F4">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G4">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F5">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G5">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I5">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L5">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G6">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1033,58 +1045,58 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
       <c r="F7">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G7">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I7">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L7">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1095,120 +1107,120 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
       <c r="F8">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G8">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I8">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J8">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L8">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O8">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G9">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I9">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J9">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L9">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1219,208 +1231,208 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G10">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I10">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J10">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L10">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="F11">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G11">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I11">
         <v>20000</v>
       </c>
       <c r="J11">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L11">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O11">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>9000000</v>
+        <v>26400000</v>
       </c>
       <c r="G12">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>9500000</v>
+        <v>9000000</v>
       </c>
       <c r="G13">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1429,60 +1441,60 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
       <c r="F14">
-        <v>13000000</v>
+        <v>9500000</v>
       </c>
       <c r="G14">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1491,60 +1503,60 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G15">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -1553,60 +1565,60 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F16">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I16">
         <v>2000</v>
@@ -1615,34 +1627,34 @@
         <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L16">
         <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="S16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1653,22 +1665,22 @@
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F17">
-        <v>13000000</v>
+        <v>8000000</v>
       </c>
       <c r="G17">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I17">
         <v>2000</v>
@@ -1677,34 +1689,96 @@
         <v>2000</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L17">
         <v>2000</v>
       </c>
       <c r="M17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="S17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18">
+        <v>13000000</v>
+      </c>
+      <c r="G18">
+        <v>6500000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18">
+        <v>2000</v>
+      </c>
+      <c r="M18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>78</v>
+      </c>
+      <c r="R18" t="s">
+        <v>95</v>
+      </c>
+      <c r="S18" t="s">
+        <v>78</v>
+      </c>
+      <c r="T18" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="88">
   <si>
     <t>청약일</t>
   </si>
@@ -109,9 +109,6 @@
     <t>2023-08-22</t>
   </si>
   <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
     <t>에스엘에스바이오</t>
   </si>
   <si>
@@ -157,12 +154,6 @@
     <t>유안타제11호스팩</t>
   </si>
   <si>
-    <t>한국제12호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제15호스팩</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>대신</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>2023-10-13</t>
   </si>
   <si>
@@ -229,9 +217,6 @@
     <t>2023-08-25</t>
   </si>
   <si>
-    <t>2023-08-24</t>
-  </si>
-  <si>
     <t>2023-10-20</t>
   </si>
   <si>
@@ -247,9 +232,6 @@
     <t>2023-09-27</t>
   </si>
   <si>
-    <t>2023-08-30</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -296,12 +278,6 @@
   </si>
   <si>
     <t>296.2 : 1</t>
-  </si>
-  <si>
-    <t>872.19 : 1</t>
-  </si>
-  <si>
-    <t>548.99 : 1</t>
   </si>
 </sst>
 </file>
@@ -659,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,16 +708,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>5390000</v>
@@ -750,7 +726,7 @@
         <v>770000</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I2">
         <v>8200</v>
@@ -759,34 +735,34 @@
         <v>9400</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L2">
         <v>7000</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -794,16 +770,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>52000000</v>
@@ -812,7 +788,7 @@
         <v>2000000</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I3">
         <v>22000</v>
@@ -821,34 +797,34 @@
         <v>25000</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L3">
         <v>26000</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -856,16 +832,16 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>44265900</v>
@@ -874,7 +850,7 @@
         <v>4137000</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I4">
         <v>8800</v>
@@ -883,34 +859,34 @@
         <v>10700</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L4">
         <v>10700</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O4">
         <v>30.21513173797438</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -918,16 +894,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>8000000</v>
@@ -936,7 +912,7 @@
         <v>4000000</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -945,34 +921,34 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -980,13 +956,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -998,7 +974,7 @@
         <v>16200000</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I6">
         <v>21000</v>
@@ -1007,34 +983,34 @@
         <v>26000</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L6">
         <v>26000</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1042,16 +1018,16 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>36000000</v>
@@ -1060,7 +1036,7 @@
         <v>18000000</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1069,34 +1045,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" t="s">
-        <v>84</v>
-      </c>
       <c r="S7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1104,16 +1080,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>18750000</v>
@@ -1122,7 +1098,7 @@
         <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I8">
         <v>8900</v>
@@ -1131,34 +1107,34 @@
         <v>11000</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L8">
         <v>12500</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1166,16 +1142,16 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>33600000</v>
@@ -1184,7 +1160,7 @@
         <v>2240000</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I9">
         <v>11500</v>
@@ -1193,34 +1169,34 @@
         <v>13200</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L9">
         <v>15000</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O9">
         <v>26.78571428571428</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1228,10 +1204,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1246,7 +1222,7 @@
         <v>1580000</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I10">
         <v>10500</v>
@@ -1255,34 +1231,34 @@
         <v>12000</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <v>14000</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1290,16 +1266,16 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>34500000</v>
@@ -1308,7 +1284,7 @@
         <v>1500000</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I11">
         <v>20000</v>
@@ -1317,34 +1293,34 @@
         <v>23000</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L11">
         <v>23000</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1352,10 +1328,10 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1370,7 +1346,7 @@
         <v>1100000</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I12">
         <v>20000</v>
@@ -1379,34 +1355,34 @@
         <v>24000</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L12">
         <v>24000</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O12">
         <v>18.18181818181818</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1414,13 +1390,13 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -1432,7 +1408,7 @@
         <v>4500000</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1441,34 +1417,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="S13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1476,16 +1452,16 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>9500000</v>
@@ -1494,7 +1470,7 @@
         <v>4750000</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1503,34 +1479,34 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="S14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1538,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -1556,7 +1532,7 @@
         <v>6500000</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -1565,34 +1541,34 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="S15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1600,16 +1576,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>10000000</v>
@@ -1618,7 +1594,7 @@
         <v>5000000</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I16">
         <v>2000</v>
@@ -1627,158 +1603,34 @@
         <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L16">
         <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="S16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17">
-        <v>8000000</v>
-      </c>
-      <c r="G17">
-        <v>4000000</v>
-      </c>
-      <c r="H17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17">
-        <v>2000</v>
-      </c>
-      <c r="J17">
-        <v>2000</v>
-      </c>
-      <c r="K17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17">
-        <v>2000</v>
-      </c>
-      <c r="M17" t="s">
-        <v>78</v>
-      </c>
-      <c r="N17" t="s">
-        <v>78</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>78</v>
-      </c>
-      <c r="R17" t="s">
-        <v>94</v>
-      </c>
-      <c r="S17" t="s">
-        <v>78</v>
-      </c>
-      <c r="T17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18">
-        <v>13000000</v>
-      </c>
-      <c r="G18">
-        <v>6500000</v>
-      </c>
-      <c r="H18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18">
-        <v>2000</v>
-      </c>
-      <c r="J18">
-        <v>2000</v>
-      </c>
-      <c r="K18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18">
-        <v>2000</v>
-      </c>
-      <c r="M18" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>78</v>
-      </c>
-      <c r="R18" t="s">
-        <v>95</v>
-      </c>
-      <c r="S18" t="s">
-        <v>78</v>
-      </c>
-      <c r="T18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
   <si>
     <t>청약일</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2023-08-23</t>
   </si>
   <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
     <t>에스엘에스바이오</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>대신밸런스제16호스팩</t>
   </si>
   <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>2023-08-28</t>
   </si>
   <si>
-    <t>2023-08-25</t>
-  </si>
-  <si>
     <t>2023-10-20</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
   </si>
   <si>
     <t>527.68 : 1</t>
-  </si>
-  <si>
-    <t>296.2 : 1</t>
   </si>
 </sst>
 </file>
@@ -635,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,16 +696,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>5390000</v>
@@ -726,7 +714,7 @@
         <v>770000</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>8200</v>
@@ -735,34 +723,34 @@
         <v>9400</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L2">
         <v>7000</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -770,16 +758,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>52000000</v>
@@ -788,7 +776,7 @@
         <v>2000000</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I3">
         <v>22000</v>
@@ -797,34 +785,34 @@
         <v>25000</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L3">
         <v>26000</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -832,16 +820,16 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>44265900</v>
@@ -850,7 +838,7 @@
         <v>4137000</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I4">
         <v>8800</v>
@@ -859,34 +847,34 @@
         <v>10700</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L4">
         <v>10700</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O4">
         <v>30.21513173797438</v>
       </c>
       <c r="P4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" t="s">
-        <v>75</v>
-      </c>
       <c r="S4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -894,16 +882,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>8000000</v>
@@ -912,7 +900,7 @@
         <v>4000000</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -921,34 +909,34 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -956,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -974,7 +962,7 @@
         <v>16200000</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I6">
         <v>21000</v>
@@ -983,34 +971,34 @@
         <v>26000</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L6">
         <v>26000</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1018,16 +1006,16 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>36000000</v>
@@ -1036,7 +1024,7 @@
         <v>18000000</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1045,34 +1033,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1080,16 +1068,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>18750000</v>
@@ -1098,7 +1086,7 @@
         <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I8">
         <v>8900</v>
@@ -1107,34 +1095,34 @@
         <v>11000</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L8">
         <v>12500</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1142,16 +1130,16 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>33600000</v>
@@ -1160,7 +1148,7 @@
         <v>2240000</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I9">
         <v>11500</v>
@@ -1169,34 +1157,34 @@
         <v>13200</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L9">
         <v>15000</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O9">
         <v>26.78571428571428</v>
       </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1204,10 +1192,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1222,7 +1210,7 @@
         <v>1580000</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I10">
         <v>10500</v>
@@ -1231,34 +1219,34 @@
         <v>12000</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L10">
         <v>14000</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1266,16 +1254,16 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>34500000</v>
@@ -1284,7 +1272,7 @@
         <v>1500000</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I11">
         <v>20000</v>
@@ -1293,34 +1281,34 @@
         <v>23000</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L11">
         <v>23000</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1328,10 +1316,10 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1346,7 +1334,7 @@
         <v>1100000</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I12">
         <v>20000</v>
@@ -1355,34 +1343,34 @@
         <v>24000</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L12">
         <v>24000</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O12">
         <v>18.18181818181818</v>
       </c>
       <c r="P12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1390,13 +1378,13 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -1408,7 +1396,7 @@
         <v>4500000</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1417,34 +1405,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1452,16 +1440,16 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14">
         <v>9500000</v>
@@ -1470,7 +1458,7 @@
         <v>4750000</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1479,34 +1467,34 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1514,13 +1502,13 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -1532,7 +1520,7 @@
         <v>6500000</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -1541,96 +1529,34 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16">
-        <v>10000000</v>
-      </c>
-      <c r="G16">
-        <v>5000000</v>
-      </c>
-      <c r="H16" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16">
-        <v>2000</v>
-      </c>
-      <c r="J16">
-        <v>2000</v>
-      </c>
-      <c r="K16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16">
-        <v>2000</v>
-      </c>
-      <c r="M16" t="s">
-        <v>72</v>
-      </c>
-      <c r="N16" t="s">
-        <v>72</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>72</v>
-      </c>
-      <c r="R16" t="s">
-        <v>87</v>
-      </c>
-      <c r="S16" t="s">
-        <v>72</v>
-      </c>
-      <c r="T16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="94">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,18 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
     <t>2023-10-10</t>
   </si>
   <si>
@@ -100,10 +112,19 @@
     <t>2023-09-04</t>
   </si>
   <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>유투바이오</t>
+  </si>
+  <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
+    <t>워트</t>
   </si>
   <si>
     <t>에스엘에스바이오</t>
@@ -142,10 +163,19 @@
     <t>상상인제4호스팩</t>
   </si>
   <si>
-    <t>한화플러스제4호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제16호스팩</t>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>키움</t>
   </si>
   <si>
     <t>하나</t>
@@ -160,12 +190,6 @@
     <t>한국, 미래</t>
   </si>
   <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -178,10 +202,13 @@
     <t>상상인</t>
   </si>
   <si>
-    <t>한화</t>
-  </si>
-  <si>
-    <t>대신</t>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
   </si>
   <si>
     <t>2023-10-13</t>
@@ -202,21 +229,15 @@
     <t>2023-09-07</t>
   </si>
   <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
-    <t>2023-08-28</t>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
   </si>
   <si>
     <t>2023-10-20</t>
   </si>
   <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
     <t>2023-10-06</t>
   </si>
   <si>
@@ -226,6 +247,21 @@
     <t>-</t>
   </si>
   <si>
+    <t>8.1 : 1</t>
+  </si>
+  <si>
+    <t>1506.58 : 1</t>
+  </si>
+  <si>
+    <t>1286.85 : 1</t>
+  </si>
+  <si>
+    <t>1632.34 : 1</t>
+  </si>
+  <si>
+    <t>1781.78 : 1</t>
+  </si>
+  <si>
     <t>345.96 : 1</t>
   </si>
   <si>
@@ -260,12 +296,6 @@
   </si>
   <si>
     <t>1010.2 : 1</t>
-  </si>
-  <si>
-    <t>753.02 : 1</t>
-  </si>
-  <si>
-    <t>527.68 : 1</t>
   </si>
 </sst>
 </file>
@@ -623,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,123 +726,123 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F2">
-        <v>5390000</v>
+        <v>25000000</v>
       </c>
       <c r="G2">
-        <v>770000</v>
+        <v>12500000</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I2">
-        <v>8200</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>9400</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L2">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>52000000</v>
+        <v>17841194</v>
       </c>
       <c r="G3">
-        <v>2000000</v>
+        <v>1049482</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I3">
-        <v>22000</v>
+        <v>12800</v>
       </c>
       <c r="J3">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L3">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -820,61 +850,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F4">
-        <v>44265900</v>
+        <v>4966368</v>
       </c>
       <c r="G4">
-        <v>4137000</v>
+        <v>1128720</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I4">
-        <v>8800</v>
+        <v>3300</v>
       </c>
       <c r="J4">
-        <v>10700</v>
+        <v>3900</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L4">
-        <v>10700</v>
+        <v>4400</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O4">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -882,61 +912,61 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F5">
-        <v>8000000</v>
+        <v>30600000</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -944,61 +974,61 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F6">
-        <v>421200000</v>
+        <v>26000000</v>
       </c>
       <c r="G6">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I6">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="J6">
-        <v>26000</v>
+        <v>5600</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L6">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1006,61 +1036,61 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F7">
-        <v>36000000</v>
+        <v>5390000</v>
       </c>
       <c r="G7">
-        <v>18000000</v>
+        <v>770000</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>8200</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>9400</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1068,371 +1098,371 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F8">
-        <v>18750000</v>
+        <v>52000000</v>
       </c>
       <c r="G8">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I8">
-        <v>8900</v>
+        <v>22000</v>
       </c>
       <c r="J8">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L8">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="S8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>33600000</v>
+        <v>44265900</v>
       </c>
       <c r="G9">
-        <v>2240000</v>
+        <v>4137000</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I9">
-        <v>11500</v>
+        <v>8800</v>
       </c>
       <c r="J9">
-        <v>13200</v>
+        <v>10700</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L9">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O9">
-        <v>26.78571428571428</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="S9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F10">
-        <v>22120000</v>
+        <v>8000000</v>
       </c>
       <c r="G10">
-        <v>1580000</v>
+        <v>4000000</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I10">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L10">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
       <c r="F11">
-        <v>34500000</v>
+        <v>421200000</v>
       </c>
       <c r="G11">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I11">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="J11">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L11">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="S11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F12">
-        <v>26400000</v>
+        <v>36000000</v>
       </c>
       <c r="G12">
-        <v>1100000</v>
+        <v>18000000</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I12">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L12">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O12">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="S12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F13">
-        <v>9000000</v>
+        <v>18750000</v>
       </c>
       <c r="G13">
-        <v>4500000</v>
+        <v>1500000</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>8900</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L13">
-        <v>2000</v>
+        <v>12500</v>
       </c>
       <c r="M13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="S13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1440,61 +1470,61 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F14">
-        <v>9500000</v>
+        <v>33600000</v>
       </c>
       <c r="G14">
-        <v>4750000</v>
+        <v>2240000</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>13200</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L14">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="S14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1502,61 +1532,247 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>13000000</v>
+        <v>22120000</v>
       </c>
       <c r="G15">
-        <v>6500000</v>
+        <v>1580000</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R15" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="S15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>34500000</v>
+      </c>
+      <c r="G16">
+        <v>1500000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>20000</v>
+      </c>
+      <c r="J16">
+        <v>23000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16">
+        <v>23000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" t="s">
+        <v>91</v>
+      </c>
+      <c r="S16" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>26400000</v>
+      </c>
+      <c r="G17">
+        <v>1100000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17">
+        <v>20000</v>
+      </c>
+      <c r="J17">
+        <v>24000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17">
+        <v>24000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="P17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>9000000</v>
+      </c>
+      <c r="G18">
+        <v>4500000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18">
+        <v>2000</v>
+      </c>
+      <c r="M18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" t="s">
+        <v>93</v>
+      </c>
+      <c r="S18" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
   <si>
     <t>청약일</t>
   </si>
@@ -109,9 +109,6 @@
     <t>2023-09-14</t>
   </si>
   <si>
-    <t>2023-09-04</t>
-  </si>
-  <si>
     <t>KB제27호스팩</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
-    <t>상상인제4호스팩</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>신영</t>
   </si>
   <si>
-    <t>상상인</t>
-  </si>
-  <si>
     <t>2023-10-27</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-09-07</t>
-  </si>
-  <si>
     <t>2023-11-03</t>
   </si>
   <si>
@@ -293,9 +281,6 @@
   </si>
   <si>
     <t>619 : 1</t>
-  </si>
-  <si>
-    <t>1010.2 : 1</t>
   </si>
 </sst>
 </file>
@@ -653,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,16 +711,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>25000000</v>
@@ -744,7 +729,7 @@
         <v>12500000</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -753,34 +738,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -788,16 +773,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>17841194</v>
@@ -806,7 +791,7 @@
         <v>1049482</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I3">
         <v>12800</v>
@@ -815,34 +800,34 @@
         <v>14500</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L3">
         <v>17000</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O3">
         <v>9.999980942979489</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -850,16 +835,16 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>4966368</v>
@@ -868,7 +853,7 @@
         <v>1128720</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I4">
         <v>3300</v>
@@ -877,34 +862,34 @@
         <v>3900</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L4">
         <v>4400</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -912,16 +897,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>30600000</v>
@@ -930,7 +915,7 @@
         <v>1800000</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>13000</v>
@@ -939,34 +924,34 @@
         <v>15000</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L5">
         <v>17000</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" t="s">
-        <v>80</v>
-      </c>
       <c r="S5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -974,16 +959,16 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>26000000</v>
@@ -992,7 +977,7 @@
         <v>4000000</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I6">
         <v>5000</v>
@@ -1001,34 +986,34 @@
         <v>5600</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L6">
         <v>6500</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1036,16 +1021,16 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>5390000</v>
@@ -1054,7 +1039,7 @@
         <v>770000</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I7">
         <v>8200</v>
@@ -1063,34 +1048,34 @@
         <v>9400</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L7">
         <v>7000</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1098,16 +1083,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>52000000</v>
@@ -1116,7 +1101,7 @@
         <v>2000000</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I8">
         <v>22000</v>
@@ -1125,34 +1110,34 @@
         <v>25000</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L8">
         <v>26000</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1160,13 +1145,13 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1178,7 +1163,7 @@
         <v>4137000</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I9">
         <v>8800</v>
@@ -1187,34 +1172,34 @@
         <v>10700</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L9">
         <v>10700</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O9">
         <v>30.21513173797438</v>
       </c>
       <c r="P9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1222,16 +1207,16 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>8000000</v>
@@ -1240,7 +1225,7 @@
         <v>4000000</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1249,34 +1234,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1284,13 +1269,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1302,7 +1287,7 @@
         <v>16200000</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I11">
         <v>21000</v>
@@ -1311,34 +1296,34 @@
         <v>26000</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L11">
         <v>26000</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1346,16 +1331,16 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>36000000</v>
@@ -1364,7 +1349,7 @@
         <v>18000000</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1373,34 +1358,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1408,16 +1393,16 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F13">
         <v>18750000</v>
@@ -1426,7 +1411,7 @@
         <v>1500000</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I13">
         <v>8900</v>
@@ -1435,34 +1420,34 @@
         <v>11000</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L13">
         <v>12500</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1470,16 +1455,16 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F14">
         <v>33600000</v>
@@ -1488,7 +1473,7 @@
         <v>2240000</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I14">
         <v>11500</v>
@@ -1497,34 +1482,34 @@
         <v>13200</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L14">
         <v>15000</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O14">
         <v>26.78571428571428</v>
       </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1532,10 +1517,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1550,7 +1535,7 @@
         <v>1580000</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I15">
         <v>10500</v>
@@ -1559,34 +1544,34 @@
         <v>12000</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L15">
         <v>14000</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="S15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1594,16 +1579,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>34500000</v>
@@ -1612,7 +1597,7 @@
         <v>1500000</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I16">
         <v>20000</v>
@@ -1621,34 +1606,34 @@
         <v>23000</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L16">
         <v>23000</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1656,10 +1641,10 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -1674,7 +1659,7 @@
         <v>1100000</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I17">
         <v>20000</v>
@@ -1683,96 +1668,34 @@
         <v>24000</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L17">
         <v>24000</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O17">
         <v>18.18181818181818</v>
       </c>
       <c r="P17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>9000000</v>
-      </c>
-      <c r="G18">
-        <v>4500000</v>
-      </c>
-      <c r="H18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18">
-        <v>2000</v>
-      </c>
-      <c r="J18">
-        <v>2000</v>
-      </c>
-      <c r="K18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18">
-        <v>2000</v>
-      </c>
-      <c r="M18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>76</v>
-      </c>
-      <c r="R18" t="s">
-        <v>93</v>
-      </c>
-      <c r="S18" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
     <t>2023-10-24</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>2023-09-14</t>
   </si>
   <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
     <t>KB제27호스팩</t>
   </si>
   <si>
@@ -193,12 +199,12 @@
     <t>신영</t>
   </si>
   <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
     <t>2023-09-22</t>
   </si>
   <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
     <t>2023-11-03</t>
   </si>
   <si>
@@ -233,6 +242,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>773.94 : 1</t>
   </si>
   <si>
     <t>8.1 : 1</t>
@@ -638,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,61 +723,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G2">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -773,123 +785,123 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G3">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I3">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L3">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O3">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F4">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G4">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J4">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L4">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -897,61 +909,61 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G5">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I5">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J5">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L5">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -959,61 +971,61 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I6">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J6">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L6">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1021,123 +1033,123 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G7">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I7">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J7">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L7">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F8">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G8">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J8">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L8">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1145,61 +1157,61 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
       <c r="F9">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G9">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I9">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J9">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L9">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O9">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1207,61 +1219,61 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G10">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1269,61 +1281,61 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F11">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G11">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L11">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1331,185 +1343,185 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G12">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
       <c r="F13">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G13">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L13">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
       <c r="F14">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G14">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I14">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J14">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L14">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O14">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1517,123 +1529,123 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F15">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G15">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J15">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L15">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G16">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I16">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J16">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L16">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1641,61 +1653,123 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="F17">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G17">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I17">
         <v>20000</v>
       </c>
       <c r="J17">
+        <v>23000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17">
+        <v>23000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>26400000</v>
+      </c>
+      <c r="G18">
+        <v>1100000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18">
+        <v>20000</v>
+      </c>
+      <c r="J18">
         <v>24000</v>
       </c>
-      <c r="K17" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17">
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18">
         <v>24000</v>
       </c>
-      <c r="M17" t="s">
-        <v>72</v>
-      </c>
-      <c r="N17" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17">
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18">
         <v>18.18181818181818</v>
       </c>
-      <c r="P17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>72</v>
-      </c>
-      <c r="R17" t="s">
-        <v>88</v>
-      </c>
-      <c r="S17" t="s">
-        <v>72</v>
-      </c>
-      <c r="T17" t="s">
-        <v>72</v>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>92</v>
+      </c>
+      <c r="S18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="106">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
     <t>2023-10-26</t>
   </si>
   <si>
@@ -112,6 +115,18 @@
     <t>2023-09-14</t>
   </si>
   <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>컨텍</t>
+  </si>
+  <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
     <t>쏘닉스</t>
   </si>
   <si>
@@ -163,12 +178,21 @@
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
+    <t>미래, 삼성</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>IBK</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -199,7 +223,7 @@
     <t>신영</t>
   </si>
   <si>
-    <t>2023-10-31</t>
+    <t>2023-11-03</t>
   </si>
   <si>
     <t>2023-10-27</t>
@@ -223,12 +247,15 @@
     <t>2023-09-22</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-11-07</t>
   </si>
   <si>
-    <t>2023-11-03</t>
-  </si>
-  <si>
     <t>2023-11-02</t>
   </si>
   <si>
@@ -242,6 +269,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>169.95 : 1</t>
+  </si>
+  <si>
+    <t>630.752 : 1</t>
+  </si>
+  <si>
+    <t>9.09 : 1</t>
+  </si>
+  <si>
+    <t>805.12 : 1</t>
   </si>
   <si>
     <t>773.94 : 1</t>
@@ -650,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,929 +762,929 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F2">
-        <v>27000000</v>
+        <v>32000000</v>
       </c>
       <c r="G2">
-        <v>3600000</v>
+        <v>1600000</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I2">
-        <v>5000</v>
+        <v>29800</v>
       </c>
       <c r="J2">
-        <v>7000</v>
+        <v>33500</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L2">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="S2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F3">
-        <v>25000000</v>
+        <v>24960000</v>
       </c>
       <c r="G3">
-        <v>12500000</v>
+        <v>5200000</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F4">
-        <v>17841194</v>
+        <v>46350000</v>
       </c>
       <c r="G4">
-        <v>1049482</v>
+        <v>2060000</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I4">
-        <v>12800</v>
+        <v>20300</v>
       </c>
       <c r="J4">
-        <v>14500</v>
+        <v>22500</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L4">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O4">
-        <v>9.999980942979489</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="S4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F5">
-        <v>4966368</v>
+        <v>15600000</v>
       </c>
       <c r="G5">
-        <v>1128720</v>
+        <v>1200000</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I5">
-        <v>3300</v>
+        <v>9100</v>
       </c>
       <c r="J5">
-        <v>3900</v>
+        <v>11000</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L5">
-        <v>4400</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="S5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F6">
-        <v>30600000</v>
+        <v>27000000</v>
       </c>
       <c r="G6">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I6">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="J6">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L6">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="F7">
-        <v>26000000</v>
+        <v>25000000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>12500000</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I7">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>5600</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L7">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="S7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>5390000</v>
+        <v>17841194</v>
       </c>
       <c r="G8">
-        <v>770000</v>
+        <v>1049482</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I8">
-        <v>8200</v>
+        <v>12800</v>
       </c>
       <c r="J8">
-        <v>9400</v>
+        <v>14500</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L8">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>52000000</v>
+        <v>4966368</v>
       </c>
       <c r="G9">
-        <v>2000000</v>
+        <v>1128720</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I9">
-        <v>22000</v>
+        <v>3300</v>
       </c>
       <c r="J9">
-        <v>25000</v>
+        <v>3900</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L9">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="S9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="F10">
-        <v>44265900</v>
+        <v>30600000</v>
       </c>
       <c r="G10">
-        <v>4137000</v>
+        <v>1800000</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I10">
-        <v>8800</v>
+        <v>13000</v>
       </c>
       <c r="J10">
-        <v>10700</v>
+        <v>15000</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L10">
-        <v>10700</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O10">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="S10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>8000000</v>
+        <v>26000000</v>
       </c>
       <c r="G11">
         <v>4000000</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R11" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="S11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F12">
-        <v>421200000</v>
+        <v>5390000</v>
       </c>
       <c r="G12">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I12">
-        <v>21000</v>
+        <v>8200</v>
       </c>
       <c r="J12">
-        <v>26000</v>
+        <v>9400</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L12">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="S12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F13">
-        <v>36000000</v>
+        <v>52000000</v>
       </c>
       <c r="G13">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L13">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>18750000</v>
+        <v>44265900</v>
       </c>
       <c r="G14">
-        <v>1500000</v>
+        <v>4137000</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I14">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="J14">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L14">
-        <v>12500</v>
+        <v>10700</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="S14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15">
-        <v>33600000</v>
+        <v>8000000</v>
       </c>
       <c r="G15">
-        <v>2240000</v>
+        <v>4000000</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I15">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>13200</v>
+        <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L15">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O15">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R15" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="S15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>22120000</v>
+        <v>421200000</v>
       </c>
       <c r="G16">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I16">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="J16">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L16">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="M16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="S16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1653,123 +1692,371 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
         <v>74</v>
       </c>
       <c r="F17">
-        <v>34500000</v>
+        <v>36000000</v>
       </c>
       <c r="G17">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I17">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L17">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R17" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="S17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>18750000</v>
+      </c>
+      <c r="G18">
+        <v>1500000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18">
+        <v>8900</v>
+      </c>
+      <c r="J18">
+        <v>11000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18">
+        <v>12500</v>
+      </c>
+      <c r="M18" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18" t="s">
+        <v>101</v>
+      </c>
+      <c r="S18" t="s">
+        <v>84</v>
+      </c>
+      <c r="T18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19">
+        <v>33600000</v>
+      </c>
+      <c r="G19">
+        <v>2240000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19">
+        <v>11500</v>
+      </c>
+      <c r="J19">
+        <v>13200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19">
+        <v>15000</v>
+      </c>
+      <c r="M19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19">
+        <v>26.78571428571428</v>
+      </c>
+      <c r="P19" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" t="s">
+        <v>102</v>
+      </c>
+      <c r="S19" t="s">
+        <v>84</v>
+      </c>
+      <c r="T19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>22120000</v>
+      </c>
+      <c r="G20">
+        <v>1580000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20">
+        <v>10500</v>
+      </c>
+      <c r="J20">
+        <v>12000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20">
+        <v>14000</v>
+      </c>
+      <c r="M20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20" t="s">
+        <v>103</v>
+      </c>
+      <c r="S20" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21">
+        <v>34500000</v>
+      </c>
+      <c r="G21">
+        <v>1500000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21">
+        <v>20000</v>
+      </c>
+      <c r="J21">
+        <v>23000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21">
+        <v>23000</v>
+      </c>
+      <c r="M21" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>84</v>
+      </c>
+      <c r="R21" t="s">
+        <v>104</v>
+      </c>
+      <c r="S21" t="s">
+        <v>84</v>
+      </c>
+      <c r="T21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22">
         <v>26400000</v>
       </c>
-      <c r="G18">
+      <c r="G22">
         <v>1100000</v>
       </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18">
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22">
         <v>20000</v>
       </c>
-      <c r="J18">
+      <c r="J22">
         <v>24000</v>
       </c>
-      <c r="K18" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18">
+      <c r="K22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22">
         <v>24000</v>
       </c>
-      <c r="M18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18">
+      <c r="M22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" t="s">
+        <v>84</v>
+      </c>
+      <c r="O22">
         <v>18.18181818181818</v>
       </c>
-      <c r="P18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>75</v>
-      </c>
-      <c r="R18" t="s">
-        <v>92</v>
-      </c>
-      <c r="S18" t="s">
-        <v>75</v>
-      </c>
-      <c r="T18" t="s">
-        <v>75</v>
+      <c r="P22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>84</v>
+      </c>
+      <c r="R22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S22" t="s">
+        <v>84</v>
+      </c>
+      <c r="T22" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="116">
   <si>
     <t>청약일</t>
   </si>
@@ -79,6 +79,12 @@
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
     <t>2023-10-26</t>
   </si>
   <si>
@@ -118,6 +124,15 @@
     <t>큐로셀</t>
   </si>
   <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
     <t>메가터치</t>
   </si>
   <si>
@@ -181,6 +196,15 @@
     <t>미래, 삼성</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -190,15 +214,9 @@
     <t>IBK</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>키움</t>
   </si>
   <si>
@@ -214,9 +232,6 @@
     <t>한국, 미래</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -226,6 +241,12 @@
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
     <t>2023-10-27</t>
   </si>
   <si>
@@ -250,15 +271,15 @@
     <t>2023-11-09</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
     <t>2023-10-20</t>
   </si>
   <si>
@@ -272,6 +293,15 @@
   </si>
   <si>
     <t>169.95 : 1</t>
+  </si>
+  <si>
+    <t>759.88 : 1</t>
+  </si>
+  <si>
+    <t>139.07 : 1</t>
+  </si>
+  <si>
+    <t>1001.234 : 1</t>
   </si>
   <si>
     <t>630.752 : 1</t>
@@ -689,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,16 +792,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F2">
         <v>32000000</v>
@@ -780,7 +810,7 @@
         <v>1600000</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I2">
         <v>29800</v>
@@ -789,406 +819,406 @@
         <v>33500</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L2">
         <v>20000</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F3">
-        <v>24960000</v>
+        <v>65908250</v>
       </c>
       <c r="G3">
-        <v>5200000</v>
+        <v>2636330</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I3">
-        <v>3500</v>
+        <v>19100</v>
       </c>
       <c r="J3">
-        <v>4000</v>
+        <v>21400</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L3">
-        <v>4800</v>
+        <v>25000</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F4">
-        <v>46350000</v>
+        <v>8000000</v>
       </c>
       <c r="G4">
-        <v>2060000</v>
+        <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I4">
-        <v>20300</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L4">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O4">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="S4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F5">
-        <v>15600000</v>
+        <v>12600000</v>
       </c>
       <c r="G5">
-        <v>1200000</v>
+        <v>7000000</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I5">
-        <v>9100</v>
+        <v>1200</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>1500</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L5">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="S5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F6">
-        <v>27000000</v>
+        <v>24960000</v>
       </c>
       <c r="G6">
-        <v>3600000</v>
+        <v>5200000</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I6">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="J6">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L6">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>25000000</v>
+        <v>46350000</v>
       </c>
       <c r="G7">
-        <v>12500000</v>
+        <v>2060000</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>20300</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F8">
-        <v>17841194</v>
+        <v>15600000</v>
       </c>
       <c r="G8">
-        <v>1049482</v>
+        <v>1200000</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I8">
-        <v>12800</v>
+        <v>9100</v>
       </c>
       <c r="J8">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L8">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O8">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1196,61 +1226,61 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>4966368</v>
+        <v>27000000</v>
       </c>
       <c r="G9">
-        <v>1128720</v>
+        <v>3600000</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I9">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="J9">
-        <v>3900</v>
+        <v>7000</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L9">
-        <v>4400</v>
+        <v>7500</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1258,61 +1288,61 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F10">
-        <v>30600000</v>
+        <v>25000000</v>
       </c>
       <c r="G10">
-        <v>1800000</v>
+        <v>12500000</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I10">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L10">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1320,123 +1350,123 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
       <c r="F11">
-        <v>26000000</v>
+        <v>17841194</v>
       </c>
       <c r="G11">
-        <v>4000000</v>
+        <v>1049482</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I11">
-        <v>5000</v>
+        <v>12800</v>
       </c>
       <c r="J11">
-        <v>5600</v>
+        <v>14500</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L11">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="S11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>5390000</v>
+        <v>4966368</v>
       </c>
       <c r="G12">
-        <v>770000</v>
+        <v>1128720</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I12">
-        <v>8200</v>
+        <v>3300</v>
       </c>
       <c r="J12">
-        <v>9400</v>
+        <v>3900</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L12">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="S12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1444,61 +1474,61 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F13">
-        <v>52000000</v>
+        <v>30600000</v>
       </c>
       <c r="G13">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I13">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="J13">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L13">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="S13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1506,61 +1536,61 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>44265900</v>
+        <v>26000000</v>
       </c>
       <c r="G14">
-        <v>4137000</v>
+        <v>4000000</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I14">
-        <v>8800</v>
+        <v>5000</v>
       </c>
       <c r="J14">
-        <v>10700</v>
+        <v>5600</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L14">
-        <v>10700</v>
+        <v>6500</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O14">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="S14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1568,185 +1598,185 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F15">
-        <v>8000000</v>
+        <v>5390000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>770000</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>8200</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>9400</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="S15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F16">
-        <v>421200000</v>
+        <v>52000000</v>
       </c>
       <c r="G16">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I16">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L16">
         <v>26000</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="S16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="F17">
-        <v>36000000</v>
+        <v>44265900</v>
       </c>
       <c r="G17">
-        <v>18000000</v>
+        <v>4137000</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L17">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="S17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1754,247 +1784,247 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F18">
-        <v>18750000</v>
+        <v>8000000</v>
       </c>
       <c r="G18">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I18">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L18">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="S18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="F19">
-        <v>33600000</v>
+        <v>421200000</v>
       </c>
       <c r="G19">
-        <v>2240000</v>
+        <v>16200000</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I19">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="J19">
-        <v>13200</v>
+        <v>26000</v>
       </c>
       <c r="K19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L19">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O19">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R19" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="S19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F20">
-        <v>22120000</v>
+        <v>36000000</v>
       </c>
       <c r="G20">
-        <v>1580000</v>
+        <v>18000000</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I20">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L20">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R20" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="S20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21">
-        <v>34500000</v>
+        <v>18750000</v>
       </c>
       <c r="G21">
         <v>1500000</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I21">
-        <v>20000</v>
+        <v>8900</v>
       </c>
       <c r="J21">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L21">
-        <v>23000</v>
+        <v>12500</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R21" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="S21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2002,61 +2032,247 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22">
+        <v>33600000</v>
+      </c>
+      <c r="G22">
+        <v>2240000</v>
+      </c>
+      <c r="H22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22">
+        <v>11500</v>
+      </c>
+      <c r="J22">
+        <v>13200</v>
+      </c>
+      <c r="K22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22">
+        <v>15000</v>
+      </c>
+      <c r="M22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22">
+        <v>26.78571428571428</v>
+      </c>
+      <c r="P22" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>91</v>
+      </c>
+      <c r="R22" t="s">
+        <v>112</v>
+      </c>
+      <c r="S22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <v>22120000</v>
+      </c>
+      <c r="G23">
+        <v>1580000</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23">
+        <v>10500</v>
+      </c>
+      <c r="J23">
+        <v>12000</v>
+      </c>
+      <c r="K23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23">
+        <v>14000</v>
+      </c>
+      <c r="M23" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" t="s">
+        <v>113</v>
+      </c>
+      <c r="S23" t="s">
+        <v>91</v>
+      </c>
+      <c r="T23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24">
+        <v>34500000</v>
+      </c>
+      <c r="G24">
+        <v>1500000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24">
+        <v>20000</v>
+      </c>
+      <c r="J24">
+        <v>23000</v>
+      </c>
+      <c r="K24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24">
+        <v>23000</v>
+      </c>
+      <c r="M24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>91</v>
+      </c>
+      <c r="R24" t="s">
+        <v>114</v>
+      </c>
+      <c r="S24" t="s">
+        <v>91</v>
+      </c>
+      <c r="T24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
         <v>30</v>
       </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22">
+      <c r="F25">
         <v>26400000</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <v>1100000</v>
       </c>
-      <c r="H22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22">
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25">
         <v>20000</v>
       </c>
-      <c r="J22">
+      <c r="J25">
         <v>24000</v>
       </c>
-      <c r="K22" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22">
+      <c r="K25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25">
         <v>24000</v>
       </c>
-      <c r="M22" t="s">
-        <v>84</v>
-      </c>
-      <c r="N22" t="s">
-        <v>84</v>
-      </c>
-      <c r="O22">
+      <c r="M25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25">
         <v>18.18181818181818</v>
       </c>
-      <c r="P22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>84</v>
-      </c>
-      <c r="R22" t="s">
-        <v>105</v>
-      </c>
-      <c r="S22" t="s">
-        <v>84</v>
-      </c>
-      <c r="T22" t="s">
-        <v>84</v>
+      <c r="P25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>91</v>
+      </c>
+      <c r="R25" t="s">
+        <v>115</v>
+      </c>
+      <c r="S25" t="s">
+        <v>91</v>
+      </c>
+      <c r="T25" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="119">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
     <t>2023-10-31</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>2023-09-14</t>
   </si>
   <si>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
     <t>큐로셀</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -205,9 +214,6 @@
     <t>KB</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>대신</t>
   </si>
   <si>
@@ -238,15 +244,15 @@
     <t>신영</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
     <t>2023-11-03</t>
   </si>
   <si>
     <t>2023-11-07</t>
   </si>
   <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
     <t>2023-10-27</t>
   </si>
   <si>
@@ -268,7 +274,7 @@
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-11-09</t>
+    <t>2023-11-15</t>
   </si>
   <si>
     <t>2023-11-13</t>
@@ -290,6 +296,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1345.6 : 1</t>
   </si>
   <si>
     <t>169.95 : 1</t>
@@ -719,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,61 +801,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F2">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G2">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I2">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J2">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L2">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -854,61 +863,61 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F3">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G3">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I3">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J3">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -916,371 +925,371 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G4">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G5">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I5">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L5">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G6">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I6">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J6">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L6">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F7">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G7">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I7">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J7">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L7">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O7">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F8">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G8">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I8">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J8">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L8">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G9">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I9">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J9">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L9">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1288,61 +1297,61 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F10">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G10">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1350,123 +1359,123 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G11">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I11">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L11">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O11">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G12">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I12">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J12">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L12">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1474,61 +1483,61 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G13">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I13">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J13">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1536,61 +1545,61 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F14">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J14">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1598,123 +1607,123 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G15">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I15">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J15">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L15">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F16">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G16">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I16">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J16">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1722,61 +1731,61 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
         <v>80</v>
       </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
       <c r="F17">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G17">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I17">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J17">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L17">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O17">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1784,61 +1793,61 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F18">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G18">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L18">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1846,61 +1855,61 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F19">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G19">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I19">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L19">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1908,185 +1917,185 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G20">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L20">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
       <c r="F21">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G21">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I21">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L21">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="E22" t="s">
-        <v>89</v>
-      </c>
       <c r="F22">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G22">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I22">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J22">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L22">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O22">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2094,123 +2103,123 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="F23">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G23">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I23">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J23">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L23">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F24">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G24">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I24">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J24">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L24">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2218,61 +2227,123 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F25">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G25">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I25">
         <v>20000</v>
       </c>
       <c r="J25">
+        <v>23000</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25">
+        <v>23000</v>
+      </c>
+      <c r="M25" t="s">
+        <v>93</v>
+      </c>
+      <c r="N25" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>93</v>
+      </c>
+      <c r="R25" t="s">
+        <v>117</v>
+      </c>
+      <c r="S25" t="s">
+        <v>93</v>
+      </c>
+      <c r="T25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <v>26400000</v>
+      </c>
+      <c r="G26">
+        <v>1100000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26">
+        <v>20000</v>
+      </c>
+      <c r="J26">
         <v>24000</v>
       </c>
-      <c r="K25" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25">
+      <c r="K26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26">
         <v>24000</v>
       </c>
-      <c r="M25" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" t="s">
-        <v>91</v>
-      </c>
-      <c r="O25">
+      <c r="M26" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26">
         <v>18.18181818181818</v>
       </c>
-      <c r="P25" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>91</v>
-      </c>
-      <c r="R25" t="s">
-        <v>115</v>
-      </c>
-      <c r="S25" t="s">
-        <v>91</v>
-      </c>
-      <c r="T25" t="s">
-        <v>91</v>
+      <c r="P26" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>93</v>
+      </c>
+      <c r="R26" t="s">
+        <v>118</v>
+      </c>
+      <c r="S26" t="s">
+        <v>93</v>
+      </c>
+      <c r="T26" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
     <t>2023-11-06</t>
   </si>
   <si>
@@ -121,7 +124,7 @@
     <t>2023-09-18</t>
   </si>
   <si>
-    <t>2023-09-14</t>
+    <t>에코프로머티</t>
   </si>
   <si>
     <t>캡스톤파트너스</t>
@@ -196,7 +199,7 @@
     <t>밀리의서재</t>
   </si>
   <si>
-    <t>인스웨이브시스템즈</t>
+    <t>미래</t>
   </si>
   <si>
     <t>NH</t>
@@ -229,9 +232,6 @@
     <t>하나</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>현대차</t>
   </si>
   <si>
@@ -241,7 +241,7 @@
     <t>유안타</t>
   </si>
   <si>
-    <t>신영</t>
+    <t>2023-11-13</t>
   </si>
   <si>
     <t>2023-11-09</t>
@@ -274,12 +274,12 @@
     <t>2023-09-22</t>
   </si>
   <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
@@ -298,6 +298,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>70.04 : 1</t>
+  </si>
+  <si>
     <t>1345.6 : 1</t>
   </si>
   <si>
@@ -368,9 +371,6 @@
   </si>
   <si>
     <t>449.56 : 1</t>
-  </si>
-  <si>
-    <t>619 : 1</t>
   </si>
 </sst>
 </file>
@@ -807,31 +807,31 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>86</v>
       </c>
       <c r="F2">
-        <v>6384000</v>
+        <v>419224960</v>
       </c>
       <c r="G2">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="H2" t="s">
         <v>93</v>
       </c>
       <c r="I2">
-        <v>3200</v>
+        <v>36200</v>
       </c>
       <c r="J2">
-        <v>3600</v>
+        <v>44000</v>
       </c>
       <c r="K2" t="s">
         <v>93</v>
       </c>
       <c r="L2">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="M2" t="s">
         <v>93</v>
@@ -869,31 +869,31 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F3">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G3">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H3" t="s">
         <v>93</v>
       </c>
       <c r="I3">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J3">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K3" t="s">
         <v>93</v>
       </c>
       <c r="L3">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M3" t="s">
         <v>93</v>
@@ -931,31 +931,31 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F4">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G4">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H4" t="s">
         <v>93</v>
       </c>
       <c r="I4">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J4">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K4" t="s">
         <v>93</v>
       </c>
       <c r="L4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="s">
         <v>93</v>
@@ -993,31 +993,31 @@
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F5">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H5" t="s">
         <v>93</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K5" t="s">
         <v>93</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M5" t="s">
         <v>93</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1055,31 +1055,31 @@
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F6">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G6">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H6" t="s">
         <v>93</v>
       </c>
       <c r="I6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="s">
         <v>93</v>
       </c>
       <c r="L6">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="s">
         <v>93</v>
@@ -1108,40 +1108,40 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G7">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H7" t="s">
         <v>93</v>
       </c>
       <c r="I7">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J7">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K7" t="s">
         <v>93</v>
       </c>
       <c r="L7">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M7" t="s">
         <v>93</v>
@@ -1170,40 +1170,40 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F8">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G8">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H8" t="s">
         <v>93</v>
       </c>
       <c r="I8">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J8">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K8" t="s">
         <v>93</v>
       </c>
       <c r="L8">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M8" t="s">
         <v>93</v>
@@ -1212,7 +1212,7 @@
         <v>93</v>
       </c>
       <c r="O8">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
         <v>93</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -1247,25 +1247,25 @@
         <v>76</v>
       </c>
       <c r="F9">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G9">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H9" t="s">
         <v>93</v>
       </c>
       <c r="I9">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J9">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K9" t="s">
         <v>93</v>
       </c>
       <c r="L9">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -1274,7 +1274,7 @@
         <v>93</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P9" t="s">
         <v>93</v>
@@ -1294,40 +1294,40 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G10">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H10" t="s">
         <v>93</v>
       </c>
       <c r="I10">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J10">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K10" t="s">
         <v>93</v>
       </c>
       <c r="L10">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -1362,34 +1362,34 @@
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G11">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H11" t="s">
         <v>93</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K11" t="s">
         <v>93</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M11" t="s">
         <v>93</v>
@@ -1424,34 +1424,34 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F12">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G12">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H12" t="s">
         <v>93</v>
       </c>
       <c r="I12">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="s">
         <v>93</v>
       </c>
       <c r="L12">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
         <v>93</v>
@@ -1460,7 +1460,7 @@
         <v>93</v>
       </c>
       <c r="O12">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
         <v>93</v>
@@ -1480,40 +1480,40 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G13">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H13" t="s">
         <v>93</v>
       </c>
       <c r="I13">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J13">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K13" t="s">
         <v>93</v>
       </c>
       <c r="L13">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -1522,7 +1522,7 @@
         <v>93</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P13" t="s">
         <v>93</v>
@@ -1548,34 +1548,34 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G14">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H14" t="s">
         <v>93</v>
       </c>
       <c r="I14">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J14">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K14" t="s">
         <v>93</v>
       </c>
       <c r="L14">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M14" t="s">
         <v>93</v>
@@ -1610,34 +1610,34 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F15">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H15" t="s">
         <v>93</v>
       </c>
       <c r="I15">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J15">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K15" t="s">
         <v>93</v>
       </c>
       <c r="L15">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="s">
         <v>93</v>
@@ -1675,31 +1675,31 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G16">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H16" t="s">
         <v>93</v>
       </c>
       <c r="I16">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J16">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K16" t="s">
         <v>93</v>
       </c>
       <c r="L16">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M16" t="s">
         <v>93</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
@@ -1740,28 +1740,28 @@
         <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F17">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G17">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H17" t="s">
         <v>93</v>
       </c>
       <c r="I17">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J17">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K17" t="s">
         <v>93</v>
       </c>
       <c r="L17">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M17" t="s">
         <v>93</v>
@@ -1796,34 +1796,34 @@
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F18">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G18">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H18" t="s">
         <v>93</v>
       </c>
       <c r="I18">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J18">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K18" t="s">
         <v>93</v>
       </c>
       <c r="L18">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M18" t="s">
         <v>93</v>
@@ -1832,7 +1832,7 @@
         <v>93</v>
       </c>
       <c r="O18">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P18" t="s">
         <v>93</v>
@@ -1858,34 +1858,34 @@
         <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G19">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K19" t="s">
         <v>93</v>
       </c>
       <c r="L19">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M19" t="s">
         <v>93</v>
@@ -1894,7 +1894,7 @@
         <v>93</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P19" t="s">
         <v>93</v>
@@ -1920,34 +1920,34 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F20">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G20">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H20" t="s">
         <v>93</v>
       </c>
       <c r="I20">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K20" t="s">
         <v>93</v>
       </c>
       <c r="L20">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="s">
         <v>93</v>
@@ -1982,34 +1982,34 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="F21">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G21">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H21" t="s">
         <v>93</v>
       </c>
       <c r="I21">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K21" t="s">
         <v>93</v>
       </c>
       <c r="L21">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M21" t="s">
         <v>93</v>
@@ -2038,13 +2038,13 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
@@ -2053,25 +2053,25 @@
         <v>83</v>
       </c>
       <c r="F22">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G22">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H22" t="s">
         <v>93</v>
       </c>
       <c r="I22">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J22">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K22" t="s">
         <v>93</v>
       </c>
       <c r="L22">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M22" t="s">
         <v>93</v>
@@ -2100,40 +2100,40 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
         <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F23">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G23">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H23" t="s">
         <v>93</v>
       </c>
       <c r="I23">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J23">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K23" t="s">
         <v>93</v>
       </c>
       <c r="L23">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M23" t="s">
         <v>93</v>
@@ -2142,7 +2142,7 @@
         <v>93</v>
       </c>
       <c r="O23">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P23" t="s">
         <v>93</v>
@@ -2168,34 +2168,34 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F24">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G24">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H24" t="s">
         <v>93</v>
       </c>
       <c r="I24">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J24">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K24" t="s">
         <v>93</v>
       </c>
       <c r="L24">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="s">
         <v>93</v>
@@ -2204,7 +2204,7 @@
         <v>93</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P24" t="s">
         <v>93</v>
@@ -2224,40 +2224,40 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="F25">
-        <v>34500000</v>
+        <v>22120000</v>
       </c>
       <c r="G25">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H25" t="s">
         <v>93</v>
       </c>
       <c r="I25">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J25">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K25" t="s">
         <v>93</v>
       </c>
       <c r="L25">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M25" t="s">
         <v>93</v>
@@ -2292,19 +2292,19 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F26">
-        <v>26400000</v>
+        <v>34500000</v>
       </c>
       <c r="G26">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H26" t="s">
         <v>93</v>
@@ -2313,13 +2313,13 @@
         <v>20000</v>
       </c>
       <c r="J26">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K26" t="s">
         <v>93</v>
       </c>
       <c r="L26">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M26" t="s">
         <v>93</v>
@@ -2328,7 +2328,7 @@
         <v>93</v>
       </c>
       <c r="O26">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="P26" t="s">
         <v>93</v>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="116">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
     <t>2023-11-08</t>
   </si>
   <si>
@@ -121,7 +124,7 @@
     <t>2023-09-19</t>
   </si>
   <si>
-    <t>2023-09-18</t>
+    <t>스톰테크</t>
   </si>
   <si>
     <t>에코프로머티</t>
@@ -193,10 +196,7 @@
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
-    <t>밀리의서재</t>
+    <t>하이</t>
   </si>
   <si>
     <t>미래</t>
@@ -238,15 +238,12 @@
     <t>한국, 미래</t>
   </si>
   <si>
-    <t>유안타</t>
+    <t>2023-11-14</t>
   </si>
   <si>
     <t>2023-11-13</t>
   </si>
   <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
     <t>2023-11-03</t>
   </si>
   <si>
@@ -274,15 +271,15 @@
     <t>2023-09-22</t>
   </si>
   <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
     <t>2023-11-17</t>
   </si>
   <si>
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-11-14</t>
-  </si>
-  <si>
     <t>2023-11-10</t>
   </si>
   <si>
@@ -292,12 +289,12 @@
     <t>2023-10-06</t>
   </si>
   <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>499.64 : 1</t>
+  </si>
+  <si>
     <t>70.04 : 1</t>
   </si>
   <si>
@@ -365,12 +362,6 @@
   </si>
   <si>
     <t>657.8 : 1</t>
-  </si>
-  <si>
-    <t>495.59 : 1</t>
-  </si>
-  <si>
-    <t>449.56 : 1</t>
   </si>
 </sst>
 </file>
@@ -728,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,58 +795,58 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2">
-        <v>419224960</v>
+        <v>36850000</v>
       </c>
       <c r="G2">
-        <v>11580800</v>
+        <v>3350000</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2">
-        <v>36200</v>
+        <v>8000</v>
       </c>
       <c r="J2">
-        <v>44000</v>
+        <v>9500</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L2">
-        <v>36200</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -866,58 +857,58 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3">
-        <v>6384000</v>
+        <v>419224960</v>
       </c>
       <c r="G3">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3">
-        <v>3200</v>
+        <v>36200</v>
       </c>
       <c r="J3">
-        <v>3600</v>
+        <v>44000</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L3">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" t="s">
-        <v>95</v>
-      </c>
       <c r="S3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -928,58 +919,58 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F4">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G4">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J4">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L4">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -990,58 +981,58 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G5">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I5">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J5">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L5">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1052,368 +1043,368 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
         <v>75</v>
       </c>
       <c r="F6">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F7">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G7">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I7">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L7">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G8">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J8">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L8">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F9">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G9">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J9">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L9">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O9">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G10">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I10">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J10">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L10">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G11">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J11">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L11">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1427,55 +1418,55 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>77</v>
       </c>
       <c r="F12">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G12">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1486,120 +1477,120 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F13">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G13">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I13">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L13">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O13">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G14">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I14">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J14">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L14">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1610,58 +1601,58 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G15">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I15">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J15">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L15">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1672,58 +1663,58 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F16">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I16">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J16">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L16">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1734,120 +1725,120 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="F17">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G17">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I17">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L17">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F18">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G18">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I18">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J18">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L18">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1861,55 +1852,55 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F19">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G19">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I19">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J19">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L19">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O19">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1920,58 +1911,58 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>8000000</v>
+        <v>44265900</v>
       </c>
       <c r="G20">
-        <v>4000000</v>
+        <v>4137000</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L20">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="M20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1982,58 +1973,58 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F21">
-        <v>421200000</v>
+        <v>8000000</v>
       </c>
       <c r="G21">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I21">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L21">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2044,182 +2035,182 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="F22">
-        <v>36000000</v>
+        <v>421200000</v>
       </c>
       <c r="G22">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I22">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L22">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23">
-        <v>18750000</v>
+        <v>36000000</v>
       </c>
       <c r="G23">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I23">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J23">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L23">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="M23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F24">
-        <v>33600000</v>
+        <v>18750000</v>
       </c>
       <c r="G24">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I24">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J24">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L24">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O24">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2230,120 +2221,58 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F25">
-        <v>22120000</v>
+        <v>33600000</v>
       </c>
       <c r="G25">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I25">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J25">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L25">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="P25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26">
-        <v>34500000</v>
-      </c>
-      <c r="G26">
-        <v>1500000</v>
-      </c>
-      <c r="H26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26">
-        <v>20000</v>
-      </c>
-      <c r="J26">
-        <v>23000</v>
-      </c>
-      <c r="K26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26">
-        <v>23000</v>
-      </c>
-      <c r="M26" t="s">
-        <v>93</v>
-      </c>
-      <c r="N26" t="s">
-        <v>93</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>93</v>
-      </c>
-      <c r="R26" t="s">
-        <v>118</v>
-      </c>
-      <c r="S26" t="s">
-        <v>93</v>
-      </c>
-      <c r="T26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="117">
   <si>
     <t>청약일</t>
   </si>
@@ -79,6 +79,9 @@
     <t>2023-11-09</t>
   </si>
   <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-11-08</t>
   </si>
   <si>
@@ -127,6 +130,12 @@
     <t>스톰테크</t>
   </si>
   <si>
+    <t>에코아이</t>
+  </si>
+  <si>
+    <t>동인기연</t>
+  </si>
+  <si>
     <t>에코프로머티</t>
   </si>
   <si>
@@ -190,21 +199,18 @@
     <t>신한제11호스팩</t>
   </si>
   <si>
-    <t>한싹</t>
-  </si>
-  <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
     <t>하이</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -214,9 +220,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>대신</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
     <t>2023-11-14</t>
   </si>
   <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
     <t>2023-11-13</t>
   </si>
   <si>
@@ -274,27 +280,30 @@
     <t>2023-11-20</t>
   </si>
   <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
     <t>2023-11-17</t>
   </si>
   <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
     <t>2023-10-20</t>
   </si>
   <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>499.64 : 1</t>
   </si>
   <si>
+    <t>19.69 : 1</t>
+  </si>
+  <si>
+    <t>4.043 : 1</t>
+  </si>
+  <si>
     <t>70.04 : 1</t>
   </si>
   <si>
@@ -356,12 +365,6 @@
   </si>
   <si>
     <t>3.18 : 1</t>
-  </si>
-  <si>
-    <t>1437 : 1</t>
-  </si>
-  <si>
-    <t>657.8 : 1</t>
   </si>
 </sst>
 </file>
@@ -792,16 +795,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F2">
         <v>36850000</v>
@@ -810,7 +813,7 @@
         <v>3350000</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2">
         <v>8000</v>
@@ -819,34 +822,34 @@
         <v>9500</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L2">
         <v>11000</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -854,309 +857,309 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F3">
-        <v>419224960</v>
+        <v>72141300</v>
       </c>
       <c r="G3">
-        <v>11580800</v>
+        <v>2079000</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I3">
-        <v>36200</v>
+        <v>28500</v>
       </c>
       <c r="J3">
-        <v>44000</v>
+        <v>34700</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4">
-        <v>6384000</v>
+        <v>44112000</v>
       </c>
       <c r="G4">
-        <v>1596000</v>
+        <v>1470400</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I4">
-        <v>3200</v>
+        <v>33000</v>
       </c>
       <c r="J4">
-        <v>3600</v>
+        <v>37000</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F5">
-        <v>32000000</v>
+        <v>419224960</v>
       </c>
       <c r="G5">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I5">
-        <v>29800</v>
+        <v>36200</v>
       </c>
       <c r="J5">
-        <v>33500</v>
+        <v>44000</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L5">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="M5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6">
-        <v>65908250</v>
+        <v>6384000</v>
       </c>
       <c r="G6">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I6">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J6">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L6">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1164,433 +1167,433 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F8">
-        <v>12600000</v>
+        <v>65908250</v>
       </c>
       <c r="G8">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I8">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J8">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F9">
-        <v>24960000</v>
+        <v>8000000</v>
       </c>
       <c r="G9">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I9">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F10">
-        <v>46350000</v>
+        <v>12600000</v>
       </c>
       <c r="G10">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I10">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J10">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L10">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O10">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>15600000</v>
+        <v>24960000</v>
       </c>
       <c r="G11">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I11">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J11">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L11">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>27000000</v>
+        <v>46350000</v>
       </c>
       <c r="G12">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I12">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J12">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>25000000</v>
+        <v>15600000</v>
       </c>
       <c r="G13">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F14">
-        <v>17841194</v>
+        <v>27000000</v>
       </c>
       <c r="G14">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I14">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J14">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O14">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1598,61 +1601,61 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="F15">
-        <v>4966368</v>
+        <v>25000000</v>
       </c>
       <c r="G15">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I15">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L15">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1660,185 +1663,185 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>30600000</v>
+        <v>17841194</v>
       </c>
       <c r="G16">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I16">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J16">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16">
         <v>17000</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17">
-        <v>26000000</v>
+        <v>4966368</v>
       </c>
       <c r="G17">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J17">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="M17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
         <v>80</v>
       </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
       <c r="F18">
-        <v>5390000</v>
+        <v>30600000</v>
       </c>
       <c r="G18">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J18">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L18">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1846,61 +1849,61 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>52000000</v>
+        <v>26000000</v>
       </c>
       <c r="G19">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J19">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1908,196 +1911,196 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F20">
-        <v>44265900</v>
+        <v>5390000</v>
       </c>
       <c r="G20">
-        <v>4137000</v>
+        <v>770000</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="J20">
-        <v>10700</v>
+        <v>9400</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L20">
-        <v>10700</v>
+        <v>7000</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O20">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21">
-        <v>8000000</v>
+        <v>52000000</v>
       </c>
       <c r="G21">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L21">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>421200000</v>
+        <v>44265900</v>
       </c>
       <c r="G22">
-        <v>16200000</v>
+        <v>4137000</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22">
-        <v>21000</v>
+        <v>8800</v>
       </c>
       <c r="J22">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L22">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
@@ -2106,13 +2109,13 @@
         <v>82</v>
       </c>
       <c r="F23">
-        <v>36000000</v>
+        <v>8000000</v>
       </c>
       <c r="G23">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23">
         <v>2000</v>
@@ -2121,34 +2124,34 @@
         <v>2000</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L23">
         <v>2000</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2156,123 +2159,123 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F24">
-        <v>18750000</v>
+        <v>421200000</v>
       </c>
       <c r="G24">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I24">
-        <v>8900</v>
+        <v>21000</v>
       </c>
       <c r="J24">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L24">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
         <v>84</v>
       </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
       <c r="F25">
-        <v>33600000</v>
+        <v>36000000</v>
       </c>
       <c r="G25">
-        <v>2240000</v>
+        <v>18000000</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I25">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="J25">
-        <v>13200</v>
+        <v>2000</v>
       </c>
       <c r="K25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L25">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O25">
-        <v>26.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="114">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -121,15 +124,15 @@
     <t>2023-09-25</t>
   </si>
   <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
+    <t>그린리소스</t>
   </si>
   <si>
     <t>스톰테크</t>
   </si>
   <si>
+    <t>한선엔지니어링</t>
+  </si>
+  <si>
     <t>에코아이</t>
   </si>
   <si>
@@ -193,21 +196,18 @@
     <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
-    <t>신한제11호스팩</t>
+    <t>NH</t>
   </si>
   <si>
     <t>하이</t>
   </si>
   <si>
+    <t>대신</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>미래</t>
   </si>
   <si>
@@ -220,9 +220,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>대신</t>
-  </si>
-  <si>
     <t>IBK</t>
   </si>
   <si>
@@ -238,7 +235,7 @@
     <t>현대차</t>
   </si>
   <si>
-    <t>한국, 미래</t>
+    <t>2023-11-16</t>
   </si>
   <si>
     <t>2023-11-14</t>
@@ -247,9 +244,6 @@
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
     <t>2023-11-03</t>
   </si>
   <si>
@@ -271,10 +265,7 @@
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-09-26</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
+    <t>2023-11-24</t>
   </si>
   <si>
     <t>2023-11-20</t>
@@ -295,9 +286,15 @@
     <t>-</t>
   </si>
   <si>
+    <t>590.067 : 1</t>
+  </si>
+  <si>
     <t>499.64 : 1</t>
   </si>
   <si>
+    <t>1141.25 : 1</t>
+  </si>
+  <si>
     <t>19.69 : 1</t>
   </si>
   <si>
@@ -359,12 +356,6 @@
   </si>
   <si>
     <t>61.15 : 1</t>
-  </si>
-  <si>
-    <t>519.6 : 1</t>
-  </si>
-  <si>
-    <t>3.18 : 1</t>
   </si>
 </sst>
 </file>
@@ -795,61 +786,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F2">
-        <v>36850000</v>
+        <v>27880000</v>
       </c>
       <c r="G2">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I2">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J2">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L2">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="S2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -857,61 +848,61 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F3">
-        <v>72141300</v>
+        <v>36850000</v>
       </c>
       <c r="G3">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I3">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J3">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L3">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -919,61 +910,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F4">
-        <v>44112000</v>
+        <v>29750000</v>
       </c>
       <c r="G4">
-        <v>1470400</v>
+        <v>4250000</v>
       </c>
       <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4">
+        <v>5200</v>
+      </c>
+      <c r="J4">
+        <v>6000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4">
+        <v>7000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" t="s">
         <v>92</v>
       </c>
-      <c r="I4">
-        <v>33000</v>
-      </c>
-      <c r="J4">
-        <v>37000</v>
-      </c>
-      <c r="K4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4">
-        <v>30000</v>
-      </c>
-      <c r="M4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4">
-        <v>23.28618063112079</v>
-      </c>
-      <c r="P4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" t="s">
-        <v>95</v>
-      </c>
       <c r="S4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -981,309 +972,309 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F5">
-        <v>419224960</v>
+        <v>72141300</v>
       </c>
       <c r="G5">
-        <v>11580800</v>
+        <v>2079000</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I5">
-        <v>36200</v>
+        <v>28500</v>
       </c>
       <c r="J5">
-        <v>44000</v>
+        <v>34700</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L5">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="M5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F6">
-        <v>6384000</v>
+        <v>44112000</v>
       </c>
       <c r="G6">
-        <v>1596000</v>
+        <v>1470400</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I6">
-        <v>3200</v>
+        <v>33000</v>
       </c>
       <c r="J6">
-        <v>3600</v>
+        <v>37000</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L6">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F7">
-        <v>32000000</v>
+        <v>419224960</v>
       </c>
       <c r="G7">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I7">
-        <v>29800</v>
+        <v>36200</v>
       </c>
       <c r="J7">
-        <v>33500</v>
+        <v>44000</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L7">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8">
-        <v>65908250</v>
+        <v>6384000</v>
       </c>
       <c r="G8">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I8">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J8">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L8">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="S8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
       <c r="G9">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1291,433 +1282,433 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>12600000</v>
+        <v>65908250</v>
       </c>
       <c r="G10">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I10">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J10">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L10">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>24960000</v>
+        <v>8000000</v>
       </c>
       <c r="G11">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I11">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L11">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>46350000</v>
+        <v>12600000</v>
       </c>
       <c r="G12">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I12">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J12">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L12">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="M12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O12">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>15600000</v>
+        <v>24960000</v>
       </c>
       <c r="G13">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I13">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J13">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L13">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>27000000</v>
+        <v>46350000</v>
       </c>
       <c r="G14">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J14">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L14">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="M14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>25000000</v>
+        <v>15600000</v>
       </c>
       <c r="G15">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>17841194</v>
+        <v>27000000</v>
       </c>
       <c r="G16">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I16">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J16">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L16">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O16">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1725,61 +1716,61 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F17">
-        <v>4966368</v>
+        <v>25000000</v>
       </c>
       <c r="G17">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I17">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L17">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1787,185 +1778,185 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="F18">
-        <v>30600000</v>
+        <v>17841194</v>
       </c>
       <c r="G18">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I18">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J18">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L18">
         <v>17000</v>
       </c>
       <c r="M18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>26000000</v>
+        <v>4966368</v>
       </c>
       <c r="G19">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I19">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J19">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L19">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="M19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F20">
-        <v>5390000</v>
+        <v>30600000</v>
       </c>
       <c r="G20">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I20">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J20">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L20">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1973,61 +1964,61 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>52000000</v>
+        <v>26000000</v>
       </c>
       <c r="G21">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I21">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J21">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L21">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="M21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2035,211 +2026,211 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F22">
-        <v>44265900</v>
+        <v>5390000</v>
       </c>
       <c r="G22">
-        <v>4137000</v>
+        <v>770000</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I22">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="J22">
-        <v>10700</v>
+        <v>9400</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L22">
-        <v>10700</v>
+        <v>7000</v>
       </c>
       <c r="M22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O22">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F23">
-        <v>8000000</v>
+        <v>52000000</v>
       </c>
       <c r="G23">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I23">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L23">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24">
-        <v>421200000</v>
+        <v>44265900</v>
       </c>
       <c r="G24">
-        <v>16200000</v>
+        <v>4137000</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I24">
-        <v>21000</v>
+        <v>8800</v>
       </c>
       <c r="J24">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L24">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>30.21513173797438</v>
       </c>
       <c r="P24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F25">
-        <v>36000000</v>
+        <v>8000000</v>
       </c>
       <c r="G25">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="H25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I25">
         <v>2000</v>
@@ -2248,34 +2239,34 @@
         <v>2000</v>
       </c>
       <c r="K25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L25">
         <v>2000</v>
       </c>
       <c r="M25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="117">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
     <t>2023-11-13</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
     <t>그린리소스</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -208,9 +217,6 @@
     <t>KB</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -235,7 +241,7 @@
     <t>현대차</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2023-11-21</t>
   </si>
   <si>
     <t>2023-11-14</t>
@@ -265,15 +271,15 @@
     <t>2023-10-04</t>
   </si>
   <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
     <t>2023-11-24</t>
   </si>
   <si>
     <t>2023-11-20</t>
   </si>
   <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
     <t>2023-11-22</t>
   </si>
   <si>
@@ -284,6 +290,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1356 : 1</t>
   </si>
   <si>
     <t>590.067 : 1</t>
@@ -713,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,61 +795,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2">
-        <v>27880000</v>
+        <v>39396000</v>
       </c>
       <c r="G2">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I2">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J2">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>40.01421464108032</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -848,309 +857,309 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F3">
-        <v>36850000</v>
+        <v>27880000</v>
       </c>
       <c r="G3">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I3">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J3">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L3">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F4">
-        <v>29750000</v>
+        <v>36850000</v>
       </c>
       <c r="G4">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I4">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J4">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5">
-        <v>72141300</v>
+        <v>29750000</v>
       </c>
       <c r="G5">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I5">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J5">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L5">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F6">
-        <v>44112000</v>
+        <v>72141300</v>
       </c>
       <c r="G6">
-        <v>1470400</v>
+        <v>2079000</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I6">
-        <v>33000</v>
+        <v>28500</v>
       </c>
       <c r="J6">
-        <v>37000</v>
+        <v>34700</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L6">
-        <v>30000</v>
+        <v>34700</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O6">
-        <v>23.28618063112079</v>
+        <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7">
-        <v>419224960</v>
+        <v>44112000</v>
       </c>
       <c r="G7">
-        <v>11580800</v>
+        <v>1470400</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I7">
-        <v>36200</v>
+        <v>33000</v>
       </c>
       <c r="J7">
-        <v>44000</v>
+        <v>37000</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1158,61 +1167,61 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F8">
-        <v>6384000</v>
+        <v>419224960</v>
       </c>
       <c r="G8">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I8">
-        <v>3200</v>
+        <v>36200</v>
       </c>
       <c r="J8">
-        <v>3600</v>
+        <v>44000</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L8">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1220,61 +1229,61 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="F9">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G9">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I9">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J9">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L9">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1282,61 +1291,61 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G10">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I10">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J10">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L10">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1344,371 +1353,371 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G11">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G12">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I12">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L12">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>76</v>
       </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
       <c r="F13">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G13">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I13">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J13">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L13">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G14">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I14">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J14">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L14">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O14">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G15">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I15">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J15">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L15">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F16">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G16">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I16">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J16">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1716,61 +1725,61 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F17">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G17">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L17">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1778,123 +1787,123 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F18">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G18">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I18">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L18">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O18">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G19">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I19">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J19">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L19">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1902,61 +1911,61 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="F20">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G20">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I20">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J20">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L20">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1964,61 +1973,61 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F21">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G21">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I21">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J21">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L21">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2026,123 +2035,123 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="F22">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G22">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I22">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J22">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L22">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F23">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G23">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I23">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J23">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L23">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2150,61 +2159,61 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
         <v>81</v>
       </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
       <c r="F24">
-        <v>44265900</v>
+        <v>52000000</v>
       </c>
       <c r="G24">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I24">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="J24">
-        <v>10700</v>
+        <v>25000</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L24">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="M24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O24">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2212,61 +2221,123 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>44265900</v>
+      </c>
+      <c r="G25">
+        <v>4137000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25">
+        <v>8800</v>
+      </c>
+      <c r="J25">
+        <v>10700</v>
+      </c>
+      <c r="K25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25">
+        <v>10700</v>
+      </c>
+      <c r="M25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25">
+        <v>30.21513173797438</v>
+      </c>
+      <c r="P25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>91</v>
+      </c>
+      <c r="R25" t="s">
+        <v>115</v>
+      </c>
+      <c r="S25" t="s">
+        <v>91</v>
+      </c>
+      <c r="T25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
         <v>82</v>
       </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25">
+      <c r="F26">
         <v>8000000</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>4000000</v>
       </c>
-      <c r="H25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25">
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26">
         <v>2000</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>2000</v>
       </c>
-      <c r="K25" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25">
+      <c r="K26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26">
         <v>2000</v>
       </c>
-      <c r="M25" t="s">
-        <v>89</v>
-      </c>
-      <c r="N25" t="s">
-        <v>89</v>
-      </c>
-      <c r="O25">
+      <c r="M26" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26">
         <v>0</v>
       </c>
-      <c r="P25" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>89</v>
-      </c>
-      <c r="R25" t="s">
-        <v>113</v>
-      </c>
-      <c r="S25" t="s">
-        <v>89</v>
-      </c>
-      <c r="T25" t="s">
-        <v>89</v>
+      <c r="P26" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>91</v>
+      </c>
+      <c r="R26" t="s">
+        <v>116</v>
+      </c>
+      <c r="S26" t="s">
+        <v>91</v>
+      </c>
+      <c r="T26" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="122">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
     <t>2023-11-16</t>
   </si>
   <si>
@@ -127,6 +130,12 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>에이텀</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
     <t>에이에스텍</t>
   </si>
   <si>
@@ -202,12 +211,15 @@
     <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>하이</t>
   </si>
   <si>
@@ -235,13 +247,10 @@
     <t>키움</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>현대차</t>
   </si>
   <si>
-    <t>2023-11-21</t>
+    <t>2023-11-24</t>
   </si>
   <si>
     <t>2023-11-14</t>
@@ -271,12 +280,12 @@
     <t>2023-10-04</t>
   </si>
   <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
     <t>2023-11-28</t>
   </si>
   <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
     <t>2023-11-20</t>
   </si>
   <si>
@@ -290,6 +299,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1622 : 1</t>
+  </si>
+  <si>
+    <t>146.76 : 1</t>
   </si>
   <si>
     <t>1356 : 1</t>
@@ -722,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,247 +810,247 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F2">
-        <v>39396000</v>
+        <v>11700000</v>
       </c>
       <c r="G2">
-        <v>1407000</v>
+        <v>650000</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I2">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="J2">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L2">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O2">
-        <v>40.01421464108032</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F3">
-        <v>27880000</v>
+        <v>16000000</v>
       </c>
       <c r="G3">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L3">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4">
-        <v>36850000</v>
+        <v>39396000</v>
       </c>
       <c r="G4">
-        <v>3350000</v>
+        <v>1407000</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I4">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="J4">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L4">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>40.01421464108032</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F5">
-        <v>29750000</v>
+        <v>27880000</v>
       </c>
       <c r="G5">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I5">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="J5">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L5">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1043,61 +1058,61 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>72141300</v>
+        <v>36850000</v>
       </c>
       <c r="G6">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I6">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J6">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L6">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1105,61 +1120,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F7">
-        <v>44112000</v>
+        <v>29750000</v>
       </c>
       <c r="G7">
-        <v>1470400</v>
+        <v>4250000</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I7">
-        <v>33000</v>
+        <v>5200</v>
       </c>
       <c r="J7">
-        <v>37000</v>
+        <v>6000</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L7">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O7">
-        <v>23.28618063112079</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1167,309 +1182,309 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>419224960</v>
+        <v>72141300</v>
       </c>
       <c r="G8">
-        <v>11580800</v>
+        <v>2079000</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I8">
-        <v>36200</v>
+        <v>28500</v>
       </c>
       <c r="J8">
-        <v>44000</v>
+        <v>34700</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L8">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F9">
-        <v>6384000</v>
+        <v>44112000</v>
       </c>
       <c r="G9">
-        <v>1596000</v>
+        <v>1470400</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I9">
-        <v>3200</v>
+        <v>33000</v>
       </c>
       <c r="J9">
-        <v>3600</v>
+        <v>37000</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L9">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F10">
-        <v>32000000</v>
+        <v>419224960</v>
       </c>
       <c r="G10">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I10">
-        <v>29800</v>
+        <v>36200</v>
       </c>
       <c r="J10">
-        <v>33500</v>
+        <v>44000</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L10">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>65908250</v>
+        <v>6384000</v>
       </c>
       <c r="G11">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I11">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J11">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L11">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
       <c r="G12">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1477,433 +1492,433 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>12600000</v>
+        <v>65908250</v>
       </c>
       <c r="G13">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I13">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J13">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L13">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14">
-        <v>24960000</v>
+        <v>8000000</v>
       </c>
       <c r="G14">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I14">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L14">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F15">
-        <v>46350000</v>
+        <v>12600000</v>
       </c>
       <c r="G15">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I15">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J15">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L15">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O15">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="S15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>15600000</v>
+        <v>24960000</v>
       </c>
       <c r="G16">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I16">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J16">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L16">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F17">
-        <v>27000000</v>
+        <v>46350000</v>
       </c>
       <c r="G17">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I17">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J17">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L17">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="M17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>25000000</v>
+        <v>15600000</v>
       </c>
       <c r="G18">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L18">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F19">
-        <v>17841194</v>
+        <v>27000000</v>
       </c>
       <c r="G19">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I19">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J19">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L19">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O19">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1911,61 +1926,61 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F20">
-        <v>4966368</v>
+        <v>25000000</v>
       </c>
       <c r="G20">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I20">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L20">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1973,185 +1988,185 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>30600000</v>
+        <v>17841194</v>
       </c>
       <c r="G21">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I21">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J21">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L21">
         <v>17000</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22">
-        <v>26000000</v>
+        <v>4966368</v>
       </c>
       <c r="G22">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I22">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J22">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L22">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="S22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F23">
-        <v>5390000</v>
+        <v>30600000</v>
       </c>
       <c r="G23">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I23">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J23">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L23">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2159,61 +2174,61 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="F24">
-        <v>52000000</v>
+        <v>26000000</v>
       </c>
       <c r="G24">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I24">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J24">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L24">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2221,123 +2236,247 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F25">
-        <v>44265900</v>
+        <v>5390000</v>
       </c>
       <c r="G25">
-        <v>4137000</v>
+        <v>770000</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I25">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="J25">
-        <v>10700</v>
+        <v>9400</v>
       </c>
       <c r="K25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L25">
-        <v>10700</v>
+        <v>7000</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O25">
-        <v>30.21513173797438</v>
+        <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="S25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
         <v>84</v>
       </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
       <c r="F26">
-        <v>8000000</v>
+        <v>52000000</v>
       </c>
       <c r="G26">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I26">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L26">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T26" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27">
+        <v>44265900</v>
+      </c>
+      <c r="G27">
+        <v>4137000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27">
+        <v>8800</v>
+      </c>
+      <c r="J27">
+        <v>10700</v>
+      </c>
+      <c r="K27" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27">
+        <v>10700</v>
+      </c>
+      <c r="M27" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O27">
+        <v>30.21513173797438</v>
+      </c>
+      <c r="P27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>94</v>
+      </c>
+      <c r="R27" t="s">
+        <v>120</v>
+      </c>
+      <c r="S27" t="s">
+        <v>94</v>
+      </c>
+      <c r="T27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28">
+        <v>8000000</v>
+      </c>
+      <c r="G28">
+        <v>4000000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28">
+        <v>2000</v>
+      </c>
+      <c r="J28">
+        <v>2000</v>
+      </c>
+      <c r="K28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28">
+        <v>2000</v>
+      </c>
+      <c r="M28" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" t="s">
+        <v>94</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>94</v>
+      </c>
+      <c r="R28" t="s">
+        <v>121</v>
+      </c>
+      <c r="S28" t="s">
+        <v>94</v>
+      </c>
+      <c r="T28" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="117">
   <si>
     <t>청약일</t>
   </si>
@@ -127,9 +127,6 @@
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
     <t>에이텀</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>퓨릿</t>
   </si>
   <si>
-    <t>에이치엠씨제6호스팩</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
     <t>키움</t>
   </si>
   <si>
-    <t>현대차</t>
-  </si>
-  <si>
     <t>2023-11-24</t>
   </si>
   <si>
@@ -277,9 +268,6 @@
     <t>2023-10-11</t>
   </si>
   <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
     <t>2023-12-01</t>
   </si>
   <si>
@@ -377,9 +365,6 @@
   </si>
   <si>
     <t>1415.77 : 1</t>
-  </si>
-  <si>
-    <t>61.15 : 1</t>
   </si>
 </sst>
 </file>
@@ -737,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,16 +795,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F2">
         <v>11700000</v>
@@ -828,7 +813,7 @@
         <v>650000</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I2">
         <v>23000</v>
@@ -837,34 +822,34 @@
         <v>30000</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L2">
         <v>18000</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -872,16 +857,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>16000000</v>
@@ -890,7 +875,7 @@
         <v>8000000</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -899,34 +884,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -934,16 +919,16 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <v>39396000</v>
@@ -952,7 +937,7 @@
         <v>1407000</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I4">
         <v>21000</v>
@@ -961,34 +946,34 @@
         <v>25000</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L4">
         <v>28000</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O4">
         <v>40.01421464108032</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -996,16 +981,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <v>27880000</v>
@@ -1014,7 +999,7 @@
         <v>1640000</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I5">
         <v>11000</v>
@@ -1023,34 +1008,34 @@
         <v>14000</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L5">
         <v>17000</v>
       </c>
       <c r="M5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" t="s">
         <v>94</v>
       </c>
-      <c r="Q5" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" t="s">
-        <v>98</v>
-      </c>
       <c r="S5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1058,16 +1043,16 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <v>36850000</v>
@@ -1076,7 +1061,7 @@
         <v>3350000</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I6">
         <v>8000</v>
@@ -1085,34 +1070,34 @@
         <v>9500</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L6">
         <v>11000</v>
       </c>
       <c r="M6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1120,16 +1105,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7">
         <v>29750000</v>
@@ -1138,7 +1123,7 @@
         <v>4250000</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I7">
         <v>5200</v>
@@ -1147,34 +1132,34 @@
         <v>6000</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L7">
         <v>7000</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1182,13 +1167,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1200,7 +1185,7 @@
         <v>2079000</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I8">
         <v>28500</v>
@@ -1209,34 +1194,34 @@
         <v>34700</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L8">
         <v>34700</v>
       </c>
       <c r="M8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1244,16 +1229,16 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F9">
         <v>44112000</v>
@@ -1262,7 +1247,7 @@
         <v>1470400</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I9">
         <v>33000</v>
@@ -1271,34 +1256,34 @@
         <v>37000</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L9">
         <v>30000</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O9">
         <v>23.28618063112079</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1306,16 +1291,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F10">
         <v>419224960</v>
@@ -1324,7 +1309,7 @@
         <v>11580800</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I10">
         <v>36200</v>
@@ -1333,34 +1318,34 @@
         <v>44000</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L10">
         <v>36200</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1368,16 +1353,16 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>6384000</v>
@@ -1386,7 +1371,7 @@
         <v>1596000</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I11">
         <v>3200</v>
@@ -1395,34 +1380,34 @@
         <v>3600</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L11">
         <v>4000</v>
       </c>
       <c r="M11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1430,13 +1415,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1448,7 +1433,7 @@
         <v>1600000</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I12">
         <v>29800</v>
@@ -1457,34 +1442,34 @@
         <v>33500</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L12">
         <v>20000</v>
       </c>
       <c r="M12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="S12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1492,13 +1477,13 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -1510,7 +1495,7 @@
         <v>2636330</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I13">
         <v>19100</v>
@@ -1519,34 +1504,34 @@
         <v>21400</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L13">
         <v>25000</v>
       </c>
       <c r="M13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1554,10 +1539,10 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1572,7 +1557,7 @@
         <v>4000000</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1581,34 +1566,34 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="S14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1616,16 +1601,16 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F15">
         <v>12600000</v>
@@ -1634,7 +1619,7 @@
         <v>7000000</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I15">
         <v>1200</v>
@@ -1643,34 +1628,34 @@
         <v>1500</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L15">
         <v>1800</v>
       </c>
       <c r="M15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="S15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1678,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -1696,7 +1681,7 @@
         <v>5200000</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I16">
         <v>3500</v>
@@ -1705,34 +1690,34 @@
         <v>4000</v>
       </c>
       <c r="K16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L16">
         <v>4800</v>
       </c>
       <c r="M16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1740,13 +1725,13 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
@@ -1758,7 +1743,7 @@
         <v>2060000</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I17">
         <v>20300</v>
@@ -1767,34 +1752,34 @@
         <v>22500</v>
       </c>
       <c r="K17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L17">
         <v>22500</v>
       </c>
       <c r="M17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O17">
         <v>2.912621359223301</v>
       </c>
       <c r="P17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="S17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1802,13 +1787,13 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -1820,7 +1805,7 @@
         <v>1200000</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I18">
         <v>9100</v>
@@ -1829,34 +1814,34 @@
         <v>11000</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L18">
         <v>13000</v>
       </c>
       <c r="M18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1864,16 +1849,16 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F19">
         <v>27000000</v>
@@ -1882,7 +1867,7 @@
         <v>3600000</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I19">
         <v>5000</v>
@@ -1891,34 +1876,34 @@
         <v>7000</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L19">
         <v>7500</v>
       </c>
       <c r="M19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1926,16 +1911,16 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20">
         <v>25000000</v>
@@ -1944,7 +1929,7 @@
         <v>12500000</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I20">
         <v>2000</v>
@@ -1953,34 +1938,34 @@
         <v>2000</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L20">
         <v>2000</v>
       </c>
       <c r="M20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1988,10 +1973,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -2006,7 +1991,7 @@
         <v>1049482</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I21">
         <v>12800</v>
@@ -2015,34 +2000,34 @@
         <v>14500</v>
       </c>
       <c r="K21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L21">
         <v>17000</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O21">
         <v>9.999980942979489</v>
       </c>
       <c r="P21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2050,10 +2035,10 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -2068,7 +2053,7 @@
         <v>1128720</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I22">
         <v>3300</v>
@@ -2077,34 +2062,34 @@
         <v>3900</v>
       </c>
       <c r="K22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L22">
         <v>4400</v>
       </c>
       <c r="M22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2112,16 +2097,16 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F23">
         <v>30600000</v>
@@ -2130,7 +2115,7 @@
         <v>1800000</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I23">
         <v>13000</v>
@@ -2139,34 +2124,34 @@
         <v>15000</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L23">
         <v>17000</v>
       </c>
       <c r="M23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="S23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2174,13 +2159,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
@@ -2192,7 +2177,7 @@
         <v>4000000</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I24">
         <v>5000</v>
@@ -2201,34 +2186,34 @@
         <v>5600</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L24">
         <v>6500</v>
       </c>
       <c r="M24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2236,16 +2221,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F25">
         <v>5390000</v>
@@ -2254,7 +2239,7 @@
         <v>770000</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I25">
         <v>8200</v>
@@ -2263,34 +2248,34 @@
         <v>9400</v>
       </c>
       <c r="K25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L25">
         <v>7000</v>
       </c>
       <c r="M25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="S25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2298,16 +2283,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F26">
         <v>52000000</v>
@@ -2316,7 +2301,7 @@
         <v>2000000</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I26">
         <v>22000</v>
@@ -2325,34 +2310,34 @@
         <v>25000</v>
       </c>
       <c r="K26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L26">
         <v>26000</v>
       </c>
       <c r="M26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2360,13 +2345,13 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
@@ -2378,7 +2363,7 @@
         <v>4137000</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I27">
         <v>8800</v>
@@ -2387,96 +2372,34 @@
         <v>10700</v>
       </c>
       <c r="K27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L27">
         <v>10700</v>
       </c>
       <c r="M27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O27">
         <v>30.21513173797438</v>
       </c>
       <c r="P27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="S27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28">
-        <v>8000000</v>
-      </c>
-      <c r="G28">
-        <v>4000000</v>
-      </c>
-      <c r="H28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28">
-        <v>2000</v>
-      </c>
-      <c r="J28">
-        <v>2000</v>
-      </c>
-      <c r="K28" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28">
-        <v>2000</v>
-      </c>
-      <c r="M28" t="s">
-        <v>94</v>
-      </c>
-      <c r="N28" t="s">
-        <v>94</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>94</v>
-      </c>
-      <c r="R28" t="s">
-        <v>121</v>
-      </c>
-      <c r="S28" t="s">
-        <v>94</v>
-      </c>
-      <c r="T28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="121">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
     <t>2023-11-21</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t>2023-10-05</t>
   </si>
   <si>
+    <t>삼성스팩9호</t>
+  </si>
+  <si>
     <t>에이텀</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
     <t>퓨릿</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
     <t>하나</t>
   </si>
   <si>
@@ -226,9 +235,6 @@
     <t>미래, 삼성</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>한국</t>
   </si>
   <si>
@@ -241,6 +247,9 @@
     <t>키움</t>
   </si>
   <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
     <t>2023-11-24</t>
   </si>
   <si>
@@ -268,12 +277,12 @@
     <t>2023-10-11</t>
   </si>
   <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
     <t>2023-12-01</t>
   </si>
   <si>
-    <t>2023-11-28</t>
-  </si>
-  <si>
     <t>2023-11-20</t>
   </si>
   <si>
@@ -287,6 +296,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>217.87 : 1</t>
   </si>
   <si>
     <t>1622 : 1</t>
@@ -722,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,123 +807,123 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F2">
-        <v>11700000</v>
+        <v>20000000</v>
       </c>
       <c r="G2">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I2">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L2">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="S2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F3">
-        <v>16000000</v>
+        <v>11700000</v>
       </c>
       <c r="G3">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -919,61 +931,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F4">
-        <v>39396000</v>
+        <v>16000000</v>
       </c>
       <c r="G4">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I4">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L4">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O4">
-        <v>40.01421464108032</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -981,61 +993,61 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5">
-        <v>27880000</v>
+        <v>39396000</v>
       </c>
       <c r="G5">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I5">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J5">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L5">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>40.01421464108032</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1043,309 +1055,309 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F6">
-        <v>36850000</v>
+        <v>27880000</v>
       </c>
       <c r="G6">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I6">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J6">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L6">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="S6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F7">
-        <v>29750000</v>
+        <v>36850000</v>
       </c>
       <c r="G7">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I7">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J7">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L7">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F8">
-        <v>72141300</v>
+        <v>29750000</v>
       </c>
       <c r="G8">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I8">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J8">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L8">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>44112000</v>
+        <v>72141300</v>
       </c>
       <c r="G9">
-        <v>1470400</v>
+        <v>2079000</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I9">
-        <v>33000</v>
+        <v>28500</v>
       </c>
       <c r="J9">
-        <v>37000</v>
+        <v>34700</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L9">
-        <v>30000</v>
+        <v>34700</v>
       </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O9">
-        <v>23.28618063112079</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10">
-        <v>419224960</v>
+        <v>44112000</v>
       </c>
       <c r="G10">
-        <v>11580800</v>
+        <v>1470400</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I10">
-        <v>36200</v>
+        <v>33000</v>
       </c>
       <c r="J10">
-        <v>44000</v>
+        <v>37000</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L10">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1353,61 +1365,61 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F11">
-        <v>6384000</v>
+        <v>419224960</v>
       </c>
       <c r="G11">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I11">
-        <v>3200</v>
+        <v>36200</v>
       </c>
       <c r="J11">
-        <v>3600</v>
+        <v>44000</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L11">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1415,61 +1427,61 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F12">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G12">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I12">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J12">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L12">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1477,61 +1489,61 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G13">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I13">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J13">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L13">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1539,371 +1551,371 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L14">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G15">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I15">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L15">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F16">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G16">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I16">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J16">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="S16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F17">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G17">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I17">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J17">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L17">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O17">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="S17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G18">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I18">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J18">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L18">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="F19">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G19">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I19">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J19">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L19">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="S19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1911,61 +1923,61 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F20">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G20">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L20">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1973,123 +1985,123 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F21">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G21">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I21">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L21">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O21">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G22">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I22">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J22">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L22">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2097,61 +2109,61 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F23">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G23">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I23">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J23">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L23">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="S23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2159,61 +2171,61 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F24">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G24">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I24">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J24">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L24">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2221,123 +2233,123 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="F25">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G25">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I25">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J25">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L25">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F26">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G26">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I26">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J26">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L26">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="S26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2345,61 +2357,123 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F27">
+        <v>52000000</v>
+      </c>
+      <c r="G27">
+        <v>2000000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27">
+        <v>22000</v>
+      </c>
+      <c r="J27">
+        <v>25000</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27">
+        <v>26000</v>
+      </c>
+      <c r="M27" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>93</v>
+      </c>
+      <c r="R27" t="s">
+        <v>119</v>
+      </c>
+      <c r="S27" t="s">
+        <v>93</v>
+      </c>
+      <c r="T27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28">
         <v>44265900</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>4137000</v>
       </c>
-      <c r="H27" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27">
+      <c r="H28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28">
         <v>8800</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>10700</v>
       </c>
-      <c r="K27" t="s">
-        <v>90</v>
-      </c>
-      <c r="L27">
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28">
         <v>10700</v>
       </c>
-      <c r="M27" t="s">
-        <v>90</v>
-      </c>
-      <c r="N27" t="s">
-        <v>90</v>
-      </c>
-      <c r="O27">
+      <c r="M28" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28" t="s">
+        <v>93</v>
+      </c>
+      <c r="O28">
         <v>30.21513173797438</v>
       </c>
-      <c r="P27" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>90</v>
-      </c>
-      <c r="R27" t="s">
-        <v>116</v>
-      </c>
-      <c r="S27" t="s">
-        <v>90</v>
-      </c>
-      <c r="T27" t="s">
-        <v>90</v>
+      <c r="P28" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>93</v>
+      </c>
+      <c r="R28" t="s">
+        <v>120</v>
+      </c>
+      <c r="S28" t="s">
+        <v>93</v>
+      </c>
+      <c r="T28" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="128">
   <si>
     <t>청약일</t>
   </si>
@@ -130,6 +130,12 @@
     <t>2023-10-05</t>
   </si>
   <si>
+    <t>교보15호스팩</t>
+  </si>
+  <si>
+    <t>와이바이오로직스</t>
+  </si>
+  <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
@@ -211,6 +217,12 @@
     <t>퓨릿</t>
   </si>
   <si>
+    <t>교보</t>
+  </si>
+  <si>
+    <t>유안타</t>
+  </si>
+  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -277,6 +289,9 @@
     <t>2023-10-11</t>
   </si>
   <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
     <t>2023-12-04</t>
   </si>
   <si>
@@ -296,6 +311,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>494 : 1</t>
+  </si>
+  <si>
+    <t>834.9 : 1</t>
   </si>
   <si>
     <t>217.87 : 1</t>
@@ -734,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,22 +831,22 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F2">
-        <v>20000000</v>
+        <v>7000000</v>
       </c>
       <c r="G2">
-        <v>10000000</v>
+        <v>3500000</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -834,122 +855,122 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="S2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F3">
-        <v>11700000</v>
+        <v>13500000</v>
       </c>
       <c r="G3">
-        <v>650000</v>
+        <v>1500000</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I3">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="J3">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L3">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="S3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F4">
-        <v>16000000</v>
+        <v>20000000</v>
       </c>
       <c r="G4">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -958,220 +979,220 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="S4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F5">
-        <v>39396000</v>
+        <v>11700000</v>
       </c>
       <c r="G5">
-        <v>1407000</v>
+        <v>650000</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I5">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="J5">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L5">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O5">
-        <v>40.01421464108032</v>
+        <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="S5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F6">
-        <v>27880000</v>
+        <v>16000000</v>
       </c>
       <c r="G6">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I6">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L6">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F7">
-        <v>36850000</v>
+        <v>39396000</v>
       </c>
       <c r="G7">
-        <v>3350000</v>
+        <v>1407000</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I7">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="J7">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L7">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>40.01421464108032</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="S7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1182,311 +1203,311 @@
         <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F8">
-        <v>29750000</v>
+        <v>27880000</v>
       </c>
       <c r="G8">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I8">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="J8">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L8">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="F9">
-        <v>72141300</v>
+        <v>36850000</v>
       </c>
       <c r="G9">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I9">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J9">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L9">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>44112000</v>
+        <v>29750000</v>
       </c>
       <c r="G10">
-        <v>1470400</v>
+        <v>4250000</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I10">
-        <v>33000</v>
+        <v>5200</v>
       </c>
       <c r="J10">
-        <v>37000</v>
+        <v>6000</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L10">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O10">
-        <v>23.28618063112079</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>419224960</v>
+        <v>72141300</v>
       </c>
       <c r="G11">
-        <v>11580800</v>
+        <v>2079000</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I11">
-        <v>36200</v>
+        <v>28500</v>
       </c>
       <c r="J11">
-        <v>44000</v>
+        <v>34700</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L11">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="M11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F12">
-        <v>6384000</v>
+        <v>44112000</v>
       </c>
       <c r="G12">
-        <v>1596000</v>
+        <v>1470400</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I12">
-        <v>3200</v>
+        <v>33000</v>
       </c>
       <c r="J12">
-        <v>3600</v>
+        <v>37000</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L12">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="S12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -1495,365 +1516,365 @@
         <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F13">
-        <v>32000000</v>
+        <v>419224960</v>
       </c>
       <c r="G13">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I13">
-        <v>29800</v>
+        <v>36200</v>
       </c>
       <c r="J13">
-        <v>33500</v>
+        <v>44000</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L13">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="S13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F14">
-        <v>65908250</v>
+        <v>6384000</v>
       </c>
       <c r="G14">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I14">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J14">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L14">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="S14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="S15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>12600000</v>
+        <v>65908250</v>
       </c>
       <c r="G16">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I16">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J16">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L16">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="M16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="S16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17">
-        <v>24960000</v>
+        <v>8000000</v>
       </c>
       <c r="G17">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I17">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L17">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="S17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F18">
-        <v>46350000</v>
+        <v>12600000</v>
       </c>
       <c r="G18">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I18">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J18">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L18">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O18">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R18" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="S18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1864,249 +1885,249 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>15600000</v>
+        <v>24960000</v>
       </c>
       <c r="G19">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I19">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J19">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L19">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="M19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="S19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F20">
-        <v>27000000</v>
+        <v>46350000</v>
       </c>
       <c r="G20">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I20">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J20">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L20">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="M20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="S20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F21">
-        <v>25000000</v>
+        <v>15600000</v>
       </c>
       <c r="G21">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I21">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L21">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="S21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="F22">
-        <v>17841194</v>
+        <v>27000000</v>
       </c>
       <c r="G22">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I22">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J22">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L22">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O22">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="S22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -2115,365 +2136,489 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="F23">
-        <v>4966368</v>
+        <v>25000000</v>
       </c>
       <c r="G23">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I23">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J23">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L23">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="M23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R23" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="F24">
-        <v>30600000</v>
+        <v>17841194</v>
       </c>
       <c r="G24">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I24">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J24">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L24">
         <v>17000</v>
       </c>
       <c r="M24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R24" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="S24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F25">
-        <v>26000000</v>
+        <v>4966368</v>
       </c>
       <c r="G25">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I25">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J25">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L25">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="M25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="S25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F26">
-        <v>5390000</v>
+        <v>30600000</v>
       </c>
       <c r="G26">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I26">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J26">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L26">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="F27">
-        <v>52000000</v>
+        <v>26000000</v>
       </c>
       <c r="G27">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I27">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J27">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L27">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="M27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R27" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="S27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="T27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28">
+        <v>5390000</v>
+      </c>
+      <c r="G28">
+        <v>770000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28">
+        <v>8200</v>
+      </c>
+      <c r="J28">
+        <v>9400</v>
+      </c>
+      <c r="K28" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28">
+        <v>7000</v>
+      </c>
+      <c r="M28" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>98</v>
+      </c>
+      <c r="R28" t="s">
+        <v>125</v>
+      </c>
+      <c r="S28" t="s">
+        <v>98</v>
+      </c>
+      <c r="T28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29">
+        <v>52000000</v>
+      </c>
+      <c r="G29">
+        <v>2000000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29">
+        <v>22000</v>
+      </c>
+      <c r="J29">
+        <v>25000</v>
+      </c>
+      <c r="K29" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29">
+        <v>26000</v>
+      </c>
+      <c r="M29" t="s">
+        <v>98</v>
+      </c>
+      <c r="N29" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>98</v>
+      </c>
+      <c r="R29" t="s">
+        <v>126</v>
+      </c>
+      <c r="S29" t="s">
+        <v>98</v>
+      </c>
+      <c r="T29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
         <v>34</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>44265900</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <v>4137000</v>
       </c>
-      <c r="H28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28">
+      <c r="H30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30">
         <v>8800</v>
       </c>
-      <c r="J28">
+      <c r="J30">
         <v>10700</v>
       </c>
-      <c r="K28" t="s">
-        <v>93</v>
-      </c>
-      <c r="L28">
+      <c r="K30" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30">
         <v>10700</v>
       </c>
-      <c r="M28" t="s">
-        <v>93</v>
-      </c>
-      <c r="N28" t="s">
-        <v>93</v>
-      </c>
-      <c r="O28">
+      <c r="M30" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30">
         <v>30.21513173797438</v>
       </c>
-      <c r="P28" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>93</v>
-      </c>
-      <c r="R28" t="s">
-        <v>120</v>
-      </c>
-      <c r="S28" t="s">
-        <v>93</v>
-      </c>
-      <c r="T28" t="s">
-        <v>93</v>
+      <c r="P30" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S30" t="s">
+        <v>98</v>
+      </c>
+      <c r="T30" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="134">
   <si>
     <t>청약일</t>
   </si>
@@ -79,6 +79,9 @@
     <t>2023-11-23</t>
   </si>
   <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
     <t>2023-11-21</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>교보15호스팩</t>
   </si>
   <si>
+    <t>케이엔에스</t>
+  </si>
+  <si>
     <t>와이바이오로직스</t>
   </si>
   <si>
@@ -220,6 +226,9 @@
     <t>교보</t>
   </si>
   <si>
+    <t>신영</t>
+  </si>
+  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -262,6 +271,9 @@
     <t>2023-11-28</t>
   </si>
   <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
     <t>2023-11-24</t>
   </si>
   <si>
@@ -292,6 +304,9 @@
     <t>2023-12-05</t>
   </si>
   <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
     <t>2023-12-04</t>
   </si>
   <si>
@@ -314,6 +329,9 @@
   </si>
   <si>
     <t>494 : 1</t>
+  </si>
+  <si>
+    <t>1450.7 : 1</t>
   </si>
   <si>
     <t>834.9 : 1</t>
@@ -755,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,16 +846,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -846,7 +864,7 @@
         <v>3500000</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -855,96 +873,96 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="S2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F3">
-        <v>13500000</v>
+        <v>17250000</v>
       </c>
       <c r="G3">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I3">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="J3">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L3">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -952,185 +970,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F4">
-        <v>20000000</v>
+        <v>13500000</v>
       </c>
       <c r="G4">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F5">
-        <v>11700000</v>
+        <v>20000000</v>
       </c>
       <c r="G5">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I5">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L5">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F6">
-        <v>16000000</v>
+        <v>11700000</v>
       </c>
       <c r="G6">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="S6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1138,61 +1156,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F7">
-        <v>39396000</v>
+        <v>16000000</v>
       </c>
       <c r="G7">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I7">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L7">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O7">
-        <v>40.01421464108032</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="S7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1200,61 +1218,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F8">
-        <v>27880000</v>
+        <v>39396000</v>
       </c>
       <c r="G8">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I8">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J8">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L8">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>40.01421464108032</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="S8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1262,309 +1280,309 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <v>36850000</v>
+        <v>27880000</v>
       </c>
       <c r="G9">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I9">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J9">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L9">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="S9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F10">
-        <v>29750000</v>
+        <v>36850000</v>
       </c>
       <c r="G10">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I10">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J10">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L10">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="S10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="F11">
-        <v>72141300</v>
+        <v>29750000</v>
       </c>
       <c r="G11">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I11">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J11">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L11">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>44112000</v>
+        <v>72141300</v>
       </c>
       <c r="G12">
-        <v>1470400</v>
+        <v>2079000</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I12">
-        <v>33000</v>
+        <v>28500</v>
       </c>
       <c r="J12">
-        <v>37000</v>
+        <v>34700</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L12">
-        <v>30000</v>
+        <v>34700</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O12">
-        <v>23.28618063112079</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="S12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>419224960</v>
+        <v>44112000</v>
       </c>
       <c r="G13">
-        <v>11580800</v>
+        <v>1470400</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I13">
-        <v>36200</v>
+        <v>33000</v>
       </c>
       <c r="J13">
-        <v>44000</v>
+        <v>37000</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L13">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="S13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1572,61 +1590,61 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F14">
-        <v>6384000</v>
+        <v>419224960</v>
       </c>
       <c r="G14">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I14">
-        <v>3200</v>
+        <v>36200</v>
       </c>
       <c r="J14">
-        <v>3600</v>
+        <v>44000</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L14">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="S14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1634,61 +1652,61 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F15">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G15">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I15">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J15">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L15">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="S15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1696,61 +1714,61 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G16">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I16">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J16">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L16">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="S16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1758,371 +1776,371 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G17">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L17">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="S17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G18">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I18">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L18">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F19">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G19">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I19">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J19">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L19">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="S19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G20">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I20">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J20">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L20">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O20">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="S20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G21">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I21">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J21">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L21">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R21" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="S21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F22">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G22">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I22">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J22">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L22">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="S22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2130,61 +2148,61 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F23">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G23">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I23">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L23">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="S23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2192,123 +2210,123 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F24">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G24">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I24">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J24">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L24">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O24">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="S24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G25">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I25">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J25">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L25">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="S25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2316,61 +2334,61 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G26">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I26">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J26">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L26">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="S26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2378,61 +2396,61 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="F27">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G27">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I27">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J27">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L27">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="S27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2440,123 +2458,123 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="F28">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G28">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I28">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J28">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L28">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="S28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F29">
-        <v>52000000</v>
+        <v>5390000</v>
       </c>
       <c r="G29">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I29">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J29">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L29">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R29" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="S29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2564,61 +2582,123 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F30">
+        <v>52000000</v>
+      </c>
+      <c r="G30">
+        <v>2000000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30">
+        <v>22000</v>
+      </c>
+      <c r="J30">
+        <v>25000</v>
+      </c>
+      <c r="K30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30">
+        <v>26000</v>
+      </c>
+      <c r="M30" t="s">
+        <v>103</v>
+      </c>
+      <c r="N30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>103</v>
+      </c>
+      <c r="R30" t="s">
+        <v>132</v>
+      </c>
+      <c r="S30" t="s">
+        <v>103</v>
+      </c>
+      <c r="T30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31">
         <v>44265900</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>4137000</v>
       </c>
-      <c r="H30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30">
+      <c r="H31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31">
         <v>8800</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>10700</v>
       </c>
-      <c r="K30" t="s">
-        <v>98</v>
-      </c>
-      <c r="L30">
+      <c r="K31" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31">
         <v>10700</v>
       </c>
-      <c r="M30" t="s">
-        <v>98</v>
-      </c>
-      <c r="N30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O30">
+      <c r="M31" t="s">
+        <v>103</v>
+      </c>
+      <c r="N31" t="s">
+        <v>103</v>
+      </c>
+      <c r="O31">
         <v>30.21513173797438</v>
       </c>
-      <c r="P30" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>98</v>
-      </c>
-      <c r="R30" t="s">
-        <v>127</v>
-      </c>
-      <c r="S30" t="s">
-        <v>98</v>
-      </c>
-      <c r="T30" t="s">
-        <v>98</v>
+      <c r="P31" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>103</v>
+      </c>
+      <c r="R31" t="s">
+        <v>133</v>
+      </c>
+      <c r="S31" t="s">
+        <v>103</v>
+      </c>
+      <c r="T31" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="130">
   <si>
     <t>청약일</t>
   </si>
@@ -130,9 +130,6 @@
     <t>2023-10-10</t>
   </si>
   <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>신성에스티</t>
   </si>
   <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
     <t>교보</t>
   </si>
   <si>
@@ -298,9 +292,6 @@
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
     <t>2023-12-05</t>
   </si>
   <si>
@@ -413,9 +404,6 @@
   </si>
   <si>
     <t>1891.4 : 1</t>
-  </si>
-  <si>
-    <t>1415.77 : 1</t>
   </si>
 </sst>
 </file>
@@ -773,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,16 +834,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -864,7 +852,7 @@
         <v>3500000</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -873,34 +861,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -908,16 +896,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3">
         <v>17250000</v>
@@ -926,7 +914,7 @@
         <v>750000</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I3">
         <v>19000</v>
@@ -935,34 +923,34 @@
         <v>22000</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>23000</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -970,16 +958,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>13500000</v>
@@ -988,7 +976,7 @@
         <v>1500000</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I4">
         <v>9000</v>
@@ -997,34 +985,34 @@
         <v>11000</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L4">
         <v>9000</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R4" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R4" t="s">
-        <v>106</v>
-      </c>
       <c r="S4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1032,16 +1020,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F5">
         <v>20000000</v>
@@ -1050,7 +1038,7 @@
         <v>10000000</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -1059,34 +1047,34 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1094,16 +1082,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6">
         <v>11700000</v>
@@ -1112,7 +1100,7 @@
         <v>650000</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I6">
         <v>23000</v>
@@ -1121,34 +1109,34 @@
         <v>30000</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L6">
         <v>18000</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1156,16 +1144,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7">
         <v>16000000</v>
@@ -1174,7 +1162,7 @@
         <v>8000000</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1183,34 +1171,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1218,16 +1206,16 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>39396000</v>
@@ -1236,7 +1224,7 @@
         <v>1407000</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I8">
         <v>21000</v>
@@ -1245,34 +1233,34 @@
         <v>25000</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>28000</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O8">
         <v>40.01421464108032</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1280,16 +1268,16 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <v>27880000</v>
@@ -1298,7 +1286,7 @@
         <v>1640000</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <v>11000</v>
@@ -1307,34 +1295,34 @@
         <v>14000</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L9">
         <v>17000</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1342,16 +1330,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F10">
         <v>36850000</v>
@@ -1360,7 +1348,7 @@
         <v>3350000</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I10">
         <v>8000</v>
@@ -1369,34 +1357,34 @@
         <v>9500</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L10">
         <v>11000</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1404,16 +1392,16 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11">
         <v>29750000</v>
@@ -1422,7 +1410,7 @@
         <v>4250000</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>5200</v>
@@ -1431,34 +1419,34 @@
         <v>6000</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L11">
         <v>7000</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1466,13 +1454,13 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -1484,7 +1472,7 @@
         <v>2079000</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I12">
         <v>28500</v>
@@ -1493,34 +1481,34 @@
         <v>34700</v>
       </c>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L12">
         <v>34700</v>
       </c>
       <c r="M12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1528,16 +1516,16 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F13">
         <v>44112000</v>
@@ -1546,7 +1534,7 @@
         <v>1470400</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I13">
         <v>33000</v>
@@ -1555,34 +1543,34 @@
         <v>37000</v>
       </c>
       <c r="K13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L13">
         <v>30000</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O13">
         <v>23.28618063112079</v>
       </c>
       <c r="P13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1590,16 +1578,16 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F14">
         <v>419224960</v>
@@ -1608,7 +1596,7 @@
         <v>11580800</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I14">
         <v>36200</v>
@@ -1617,34 +1605,34 @@
         <v>44000</v>
       </c>
       <c r="K14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L14">
         <v>36200</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1652,16 +1640,16 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15">
         <v>6384000</v>
@@ -1670,7 +1658,7 @@
         <v>1596000</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>3200</v>
@@ -1679,34 +1667,34 @@
         <v>3600</v>
       </c>
       <c r="K15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L15">
         <v>4000</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1714,13 +1702,13 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -1732,7 +1720,7 @@
         <v>1600000</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I16">
         <v>29800</v>
@@ -1741,34 +1729,34 @@
         <v>33500</v>
       </c>
       <c r="K16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L16">
         <v>20000</v>
       </c>
       <c r="M16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1776,13 +1764,13 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
@@ -1794,7 +1782,7 @@
         <v>2636330</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I17">
         <v>19100</v>
@@ -1803,34 +1791,34 @@
         <v>21400</v>
       </c>
       <c r="K17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L17">
         <v>25000</v>
       </c>
       <c r="M17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1838,10 +1826,10 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -1856,7 +1844,7 @@
         <v>4000000</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>2000</v>
@@ -1865,34 +1853,34 @@
         <v>2000</v>
       </c>
       <c r="K18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L18">
         <v>2000</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1900,16 +1888,16 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19">
         <v>12600000</v>
@@ -1918,7 +1906,7 @@
         <v>7000000</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I19">
         <v>1200</v>
@@ -1927,34 +1915,34 @@
         <v>1500</v>
       </c>
       <c r="K19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L19">
         <v>1800</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1962,13 +1950,13 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -1980,7 +1968,7 @@
         <v>5200000</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>3500</v>
@@ -1989,34 +1977,34 @@
         <v>4000</v>
       </c>
       <c r="K20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L20">
         <v>4800</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2024,13 +2012,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
@@ -2042,7 +2030,7 @@
         <v>2060000</v>
       </c>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <v>20300</v>
@@ -2051,34 +2039,34 @@
         <v>22500</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L21">
         <v>22500</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O21">
         <v>2.912621359223301</v>
       </c>
       <c r="P21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2086,13 +2074,13 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
@@ -2104,7 +2092,7 @@
         <v>1200000</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I22">
         <v>9100</v>
@@ -2113,34 +2101,34 @@
         <v>11000</v>
       </c>
       <c r="K22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L22">
         <v>13000</v>
       </c>
       <c r="M22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="S22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2148,16 +2136,16 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F23">
         <v>27000000</v>
@@ -2166,7 +2154,7 @@
         <v>3600000</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>5000</v>
@@ -2175,34 +2163,34 @@
         <v>7000</v>
       </c>
       <c r="K23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L23">
         <v>7500</v>
       </c>
       <c r="M23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2210,16 +2198,16 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24">
         <v>25000000</v>
@@ -2228,7 +2216,7 @@
         <v>12500000</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I24">
         <v>2000</v>
@@ -2237,34 +2225,34 @@
         <v>2000</v>
       </c>
       <c r="K24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L24">
         <v>2000</v>
       </c>
       <c r="M24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2272,10 +2260,10 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
@@ -2290,7 +2278,7 @@
         <v>1049482</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I25">
         <v>12800</v>
@@ -2299,34 +2287,34 @@
         <v>14500</v>
       </c>
       <c r="K25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L25">
         <v>17000</v>
       </c>
       <c r="M25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O25">
         <v>9.999980942979489</v>
       </c>
       <c r="P25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2334,10 +2322,10 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -2352,7 +2340,7 @@
         <v>1128720</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>3300</v>
@@ -2361,34 +2349,34 @@
         <v>3900</v>
       </c>
       <c r="K26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L26">
         <v>4400</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2396,16 +2384,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27">
         <v>30600000</v>
@@ -2414,7 +2402,7 @@
         <v>1800000</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>13000</v>
@@ -2423,34 +2411,34 @@
         <v>15000</v>
       </c>
       <c r="K27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L27">
         <v>17000</v>
       </c>
       <c r="M27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2458,13 +2446,13 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
         <v>32</v>
@@ -2476,7 +2464,7 @@
         <v>4000000</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I28">
         <v>5000</v>
@@ -2485,34 +2473,34 @@
         <v>5600</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L28">
         <v>6500</v>
       </c>
       <c r="M28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2520,16 +2508,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F29">
         <v>5390000</v>
@@ -2538,7 +2526,7 @@
         <v>770000</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I29">
         <v>8200</v>
@@ -2547,34 +2535,34 @@
         <v>9400</v>
       </c>
       <c r="K29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L29">
         <v>7000</v>
       </c>
       <c r="M29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2582,16 +2570,16 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F30">
         <v>52000000</v>
@@ -2600,7 +2588,7 @@
         <v>2000000</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>22000</v>
@@ -2609,96 +2597,34 @@
         <v>25000</v>
       </c>
       <c r="K30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L30">
         <v>26000</v>
       </c>
       <c r="M30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31">
-        <v>44265900</v>
-      </c>
-      <c r="G31">
-        <v>4137000</v>
-      </c>
-      <c r="H31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31">
-        <v>8800</v>
-      </c>
-      <c r="J31">
-        <v>10700</v>
-      </c>
-      <c r="K31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31">
-        <v>10700</v>
-      </c>
-      <c r="M31" t="s">
-        <v>103</v>
-      </c>
-      <c r="N31" t="s">
-        <v>103</v>
-      </c>
-      <c r="O31">
-        <v>30.21513173797438</v>
-      </c>
-      <c r="P31" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>103</v>
-      </c>
-      <c r="R31" t="s">
-        <v>133</v>
-      </c>
-      <c r="S31" t="s">
-        <v>103</v>
-      </c>
-      <c r="T31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="127">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
     <t>2023-11-23</t>
   </si>
   <si>
@@ -127,7 +130,7 @@
     <t>2023-10-16</t>
   </si>
   <si>
-    <t>2023-10-10</t>
+    <t>LS머트리얼즈</t>
   </si>
   <si>
     <t>교보15호스팩</t>
@@ -211,10 +214,7 @@
     <t>워트</t>
   </si>
   <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
+    <t>키움, KB</t>
   </si>
   <si>
     <t>교보</t>
@@ -262,6 +262,9 @@
     <t>키움</t>
   </si>
   <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
     <t>2023-11-28</t>
   </si>
   <si>
@@ -289,21 +292,15 @@
     <t>2023-10-19</t>
   </si>
   <si>
-    <t>2023-10-13</t>
+    <t>2023-12-12</t>
   </si>
   <si>
     <t>2023-12-05</t>
   </si>
   <si>
-    <t>2023-12-06</t>
-  </si>
-  <si>
     <t>2023-12-04</t>
   </si>
   <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
     <t>2023-11-20</t>
   </si>
   <si>
@@ -313,12 +310,12 @@
     <t>2023-11-17</t>
   </si>
   <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>1164.5 : 1</t>
+  </si>
+  <si>
     <t>494 : 1</t>
   </si>
   <si>
@@ -398,12 +395,6 @@
   </si>
   <si>
     <t>1781.78 : 1</t>
-  </si>
-  <si>
-    <t>345.96 : 1</t>
-  </si>
-  <si>
-    <t>1891.4 : 1</t>
   </si>
 </sst>
 </file>
@@ -761,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,7 +828,7 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
@@ -846,49 +837,49 @@
         <v>92</v>
       </c>
       <c r="F2">
-        <v>7000000</v>
+        <v>87750000</v>
       </c>
       <c r="G2">
-        <v>3500000</v>
+        <v>14625000</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -899,7 +890,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>83</v>
@@ -908,297 +899,297 @@
         <v>93</v>
       </c>
       <c r="F3">
-        <v>17250000</v>
+        <v>7000000</v>
       </c>
       <c r="G3">
-        <v>750000</v>
+        <v>3500000</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I3">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L3">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" t="s">
-        <v>100</v>
-      </c>
-      <c r="R3" t="s">
-        <v>102</v>
-      </c>
       <c r="S3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
         <v>82</v>
       </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
       <c r="F4">
-        <v>13500000</v>
+        <v>17250000</v>
       </c>
       <c r="G4">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L4">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5">
-        <v>20000000</v>
+        <v>13500000</v>
       </c>
       <c r="G5">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6">
-        <v>11700000</v>
+        <v>20000000</v>
       </c>
       <c r="G6">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L6">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>16000000</v>
+        <v>11700000</v>
       </c>
       <c r="G7">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1209,58 +1200,58 @@
         <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>39396000</v>
+        <v>16000000</v>
       </c>
       <c r="G8">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I8">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L8">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O8">
-        <v>40.01421464108032</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1271,58 +1262,58 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9">
-        <v>27880000</v>
+        <v>39396000</v>
       </c>
       <c r="G9">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I9">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J9">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L9">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>40.01421464108032</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1333,306 +1324,306 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
         <v>85</v>
       </c>
-      <c r="E10" t="s">
-        <v>96</v>
-      </c>
       <c r="F10">
-        <v>36850000</v>
+        <v>27880000</v>
       </c>
       <c r="G10">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I10">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J10">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L10">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F11">
-        <v>29750000</v>
+        <v>36850000</v>
       </c>
       <c r="G11">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I11">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J11">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L11">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="F12">
-        <v>72141300</v>
+        <v>29750000</v>
       </c>
       <c r="G12">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I12">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J12">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L12">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>44112000</v>
+        <v>72141300</v>
       </c>
       <c r="G13">
-        <v>1470400</v>
+        <v>2079000</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13">
-        <v>33000</v>
+        <v>28500</v>
       </c>
       <c r="J13">
-        <v>37000</v>
+        <v>34700</v>
       </c>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L13">
-        <v>30000</v>
+        <v>34700</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O13">
-        <v>23.28618063112079</v>
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14">
-        <v>419224960</v>
+        <v>44112000</v>
       </c>
       <c r="G14">
-        <v>11580800</v>
+        <v>1470400</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I14">
-        <v>36200</v>
+        <v>33000</v>
       </c>
       <c r="J14">
-        <v>44000</v>
+        <v>37000</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L14">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="M14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1643,58 +1634,58 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F15">
-        <v>6384000</v>
+        <v>419224960</v>
       </c>
       <c r="G15">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15">
-        <v>3200</v>
+        <v>36200</v>
       </c>
       <c r="J15">
-        <v>3600</v>
+        <v>44000</v>
       </c>
       <c r="K15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L15">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="M15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1705,58 +1696,58 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>87</v>
       </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
       <c r="F16">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G16">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J16">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L16">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1767,58 +1758,58 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
         <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G17">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I17">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J17">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L17">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1829,368 +1820,368 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G18">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L18">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G19">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I19">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L19">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F20">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G20">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I20">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J20">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L20">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G21">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I21">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J21">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L21">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O21">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G22">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I22">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J22">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L22">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="F23">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G23">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I23">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J23">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L23">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2204,55 +2195,55 @@
         <v>76</v>
       </c>
       <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
         <v>89</v>
       </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
       <c r="F24">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G24">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I24">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L24">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2263,120 +2254,120 @@
         <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F25">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G25">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I25">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J25">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L25">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O25">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G26">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I26">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J26">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L26">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2387,58 +2378,58 @@
         <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="F27">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G27">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I27">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J27">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L27">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2449,58 +2440,58 @@
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
         <v>90</v>
       </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
       <c r="F28">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G28">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I28">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J28">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L28">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2511,120 +2502,58 @@
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="F29">
-        <v>5390000</v>
+        <v>26000000</v>
       </c>
       <c r="G29">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I29">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J29">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L29">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30">
-        <v>52000000</v>
-      </c>
-      <c r="G30">
-        <v>2000000</v>
-      </c>
-      <c r="H30" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30">
-        <v>22000</v>
-      </c>
-      <c r="J30">
-        <v>25000</v>
-      </c>
-      <c r="K30" t="s">
-        <v>100</v>
-      </c>
-      <c r="L30">
-        <v>26000</v>
-      </c>
-      <c r="M30" t="s">
-        <v>100</v>
-      </c>
-      <c r="N30" t="s">
-        <v>100</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>100</v>
-      </c>
-      <c r="R30" t="s">
-        <v>129</v>
-      </c>
-      <c r="S30" t="s">
-        <v>100</v>
-      </c>
-      <c r="T30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="131">
   <si>
     <t>청약일</t>
   </si>
@@ -79,6 +79,9 @@
     <t>2023-12-01</t>
   </si>
   <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
     <t>2023-11-23</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>LS머트리얼즈</t>
   </si>
   <si>
+    <t>블루엠텍</t>
+  </si>
+  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
     <t>키움, KB</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
     <t>교보</t>
   </si>
   <si>
@@ -229,9 +238,6 @@
     <t>삼성</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -265,6 +271,9 @@
     <t>2023-12-06</t>
   </si>
   <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
     <t>2023-11-28</t>
   </si>
   <si>
@@ -295,12 +304,12 @@
     <t>2023-12-12</t>
   </si>
   <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
     <t>2023-12-05</t>
   </si>
   <si>
-    <t>2023-12-04</t>
-  </si>
-  <si>
     <t>2023-11-20</t>
   </si>
   <si>
@@ -314,6 +323,9 @@
   </si>
   <si>
     <t>1164.5 : 1</t>
+  </si>
+  <si>
+    <t>799.82 : 1</t>
   </si>
   <si>
     <t>494 : 1</t>
@@ -752,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -825,16 +837,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F2">
         <v>87750000</v>
@@ -843,7 +855,7 @@
         <v>14625000</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I2">
         <v>4400</v>
@@ -852,34 +864,34 @@
         <v>5500</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L2">
         <v>6000</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O2">
         <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -887,61 +899,61 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F3">
-        <v>7000000</v>
+        <v>26600000</v>
       </c>
       <c r="G3">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -949,309 +961,309 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F4">
-        <v>17250000</v>
+        <v>7000000</v>
       </c>
       <c r="G4">
-        <v>750000</v>
+        <v>3500000</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I4">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L4">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F5">
-        <v>13500000</v>
+        <v>17250000</v>
       </c>
       <c r="G5">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I5">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L5">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F6">
-        <v>20000000</v>
+        <v>13500000</v>
       </c>
       <c r="G6">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>11700000</v>
+        <v>20000000</v>
       </c>
       <c r="G7">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I7">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L7">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
       <c r="F8">
-        <v>16000000</v>
+        <v>11700000</v>
       </c>
       <c r="G8">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L8">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="S8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1259,61 +1271,61 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>39396000</v>
+        <v>16000000</v>
       </c>
       <c r="G9">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I9">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L9">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O9">
-        <v>40.01421464108032</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="S9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1321,61 +1333,61 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10">
-        <v>27880000</v>
+        <v>39396000</v>
       </c>
       <c r="G10">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I10">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J10">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L10">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>40.01421464108032</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1383,309 +1395,309 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>36850000</v>
+        <v>27880000</v>
       </c>
       <c r="G11">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I11">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J11">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L11">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F12">
-        <v>29750000</v>
+        <v>36850000</v>
       </c>
       <c r="G12">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I12">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J12">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L12">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="F13">
-        <v>72141300</v>
+        <v>29750000</v>
       </c>
       <c r="G13">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I13">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J13">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L13">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>44112000</v>
+        <v>72141300</v>
       </c>
       <c r="G14">
-        <v>1470400</v>
+        <v>2079000</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I14">
-        <v>33000</v>
+        <v>28500</v>
       </c>
       <c r="J14">
-        <v>37000</v>
+        <v>34700</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L14">
-        <v>30000</v>
+        <v>34700</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O14">
-        <v>23.28618063112079</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F15">
-        <v>419224960</v>
+        <v>44112000</v>
       </c>
       <c r="G15">
-        <v>11580800</v>
+        <v>1470400</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I15">
-        <v>36200</v>
+        <v>33000</v>
       </c>
       <c r="J15">
-        <v>44000</v>
+        <v>37000</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L15">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="M15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="S15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1693,61 +1705,61 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F16">
-        <v>6384000</v>
+        <v>419224960</v>
       </c>
       <c r="G16">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I16">
-        <v>3200</v>
+        <v>36200</v>
       </c>
       <c r="J16">
-        <v>3600</v>
+        <v>44000</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L16">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="M16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1755,61 +1767,61 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F17">
-        <v>32000000</v>
+        <v>6384000</v>
       </c>
       <c r="G17">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I17">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J17">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1817,61 +1829,61 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F18">
-        <v>65908250</v>
+        <v>32000000</v>
       </c>
       <c r="G18">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I18">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J18">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L18">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="S18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1879,371 +1891,371 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>8000000</v>
+        <v>65908250</v>
       </c>
       <c r="G19">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L19">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>12600000</v>
+        <v>8000000</v>
       </c>
       <c r="G20">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I20">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L20">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="S20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="F21">
-        <v>24960000</v>
+        <v>12600000</v>
       </c>
       <c r="G21">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I21">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J21">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L21">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="S21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F22">
-        <v>46350000</v>
+        <v>24960000</v>
       </c>
       <c r="G22">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I22">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J22">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L22">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="M22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O22">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F23">
-        <v>15600000</v>
+        <v>46350000</v>
       </c>
       <c r="G23">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I23">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J23">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L23">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="F24">
-        <v>27000000</v>
+        <v>15600000</v>
       </c>
       <c r="G24">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I24">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J24">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L24">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2251,61 +2263,61 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F25">
-        <v>25000000</v>
+        <v>27000000</v>
       </c>
       <c r="G25">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I25">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J25">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L25">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2313,123 +2325,123 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="F26">
-        <v>17841194</v>
+        <v>25000000</v>
       </c>
       <c r="G26">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I26">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J26">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L26">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O26">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27">
-        <v>4966368</v>
+        <v>17841194</v>
       </c>
       <c r="G27">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I27">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J27">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L27">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="M27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>9.999980942979489</v>
       </c>
       <c r="P27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2437,61 +2449,61 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="F28">
-        <v>30600000</v>
+        <v>4966368</v>
       </c>
       <c r="G28">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I28">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J28">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L28">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="M28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2499,61 +2511,123 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="F29">
-        <v>26000000</v>
+        <v>30600000</v>
       </c>
       <c r="G29">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I29">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J29">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L29">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="S29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T29" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>26000000</v>
+      </c>
+      <c r="G30">
+        <v>4000000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30">
+        <v>5000</v>
+      </c>
+      <c r="J30">
+        <v>5600</v>
+      </c>
+      <c r="K30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30">
+        <v>6500</v>
+      </c>
+      <c r="M30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>101</v>
+      </c>
+      <c r="R30" t="s">
+        <v>130</v>
+      </c>
+      <c r="S30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T30" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="126">
   <si>
     <t>청약일</t>
   </si>
@@ -130,9 +130,6 @@
     <t>2023-10-18</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t>LS머트리얼즈</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>퀄리타스반도체</t>
   </si>
   <si>
-    <t>워트</t>
-  </si>
-  <si>
     <t>키움, KB</t>
   </si>
   <si>
@@ -265,9 +259,6 @@
     <t>신한</t>
   </si>
   <si>
-    <t>키움</t>
-  </si>
-  <si>
     <t>2023-12-06</t>
   </si>
   <si>
@@ -298,9 +289,6 @@
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -404,9 +392,6 @@
   </si>
   <si>
     <t>1632.34 : 1</t>
-  </si>
-  <si>
-    <t>1781.78 : 1</t>
   </si>
 </sst>
 </file>
@@ -764,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,16 +822,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F2">
         <v>87750000</v>
@@ -855,7 +840,7 @@
         <v>14625000</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I2">
         <v>4400</v>
@@ -864,34 +849,34 @@
         <v>5500</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L2">
         <v>6000</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O2">
         <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -899,16 +884,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>26600000</v>
@@ -917,7 +902,7 @@
         <v>1400000</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I3">
         <v>15000</v>
@@ -926,34 +911,34 @@
         <v>19000</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L3">
         <v>19000</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -961,16 +946,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F4">
         <v>7000000</v>
@@ -979,7 +964,7 @@
         <v>3500000</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -988,34 +973,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1023,16 +1008,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>17250000</v>
@@ -1041,7 +1026,7 @@
         <v>750000</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I5">
         <v>19000</v>
@@ -1050,34 +1035,34 @@
         <v>22000</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L5">
         <v>23000</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" t="s">
         <v>101</v>
       </c>
-      <c r="Q5" t="s">
-        <v>101</v>
-      </c>
-      <c r="R5" t="s">
-        <v>105</v>
-      </c>
       <c r="S5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1085,16 +1070,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F6">
         <v>13500000</v>
@@ -1103,7 +1088,7 @@
         <v>1500000</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I6">
         <v>9000</v>
@@ -1112,34 +1097,34 @@
         <v>11000</v>
       </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L6">
         <v>9000</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1147,13 +1132,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -1165,7 +1150,7 @@
         <v>10000000</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1174,34 +1159,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="S7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1209,13 +1194,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1227,7 +1212,7 @@
         <v>650000</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I8">
         <v>23000</v>
@@ -1236,34 +1221,34 @@
         <v>30000</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L8">
         <v>18000</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="S8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1271,13 +1256,13 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1289,7 +1274,7 @@
         <v>8000000</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1298,34 +1283,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1333,16 +1318,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F10">
         <v>39396000</v>
@@ -1351,7 +1336,7 @@
         <v>1407000</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I10">
         <v>21000</v>
@@ -1360,34 +1345,34 @@
         <v>25000</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L10">
         <v>28000</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O10">
         <v>40.01421464108032</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="S10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1395,16 +1380,16 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <v>27880000</v>
@@ -1413,7 +1398,7 @@
         <v>1640000</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I11">
         <v>11000</v>
@@ -1422,34 +1407,34 @@
         <v>14000</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L11">
         <v>17000</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1457,16 +1442,16 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F12">
         <v>36850000</v>
@@ -1475,7 +1460,7 @@
         <v>3350000</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I12">
         <v>8000</v>
@@ -1484,34 +1469,34 @@
         <v>9500</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L12">
         <v>11000</v>
       </c>
       <c r="M12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1519,16 +1504,16 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <v>29750000</v>
@@ -1537,7 +1522,7 @@
         <v>4250000</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I13">
         <v>5200</v>
@@ -1546,34 +1531,34 @@
         <v>6000</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L13">
         <v>7000</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1581,13 +1566,13 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -1599,7 +1584,7 @@
         <v>2079000</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I14">
         <v>28500</v>
@@ -1608,34 +1593,34 @@
         <v>34700</v>
       </c>
       <c r="K14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L14">
         <v>34700</v>
       </c>
       <c r="M14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1643,16 +1628,16 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F15">
         <v>44112000</v>
@@ -1661,7 +1646,7 @@
         <v>1470400</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>33000</v>
@@ -1670,34 +1655,34 @@
         <v>37000</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L15">
         <v>30000</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O15">
         <v>23.28618063112079</v>
       </c>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1705,16 +1690,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F16">
         <v>419224960</v>
@@ -1723,7 +1708,7 @@
         <v>11580800</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I16">
         <v>36200</v>
@@ -1732,34 +1717,34 @@
         <v>44000</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L16">
         <v>36200</v>
       </c>
       <c r="M16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="S16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1767,16 +1752,16 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17">
         <v>6384000</v>
@@ -1785,7 +1770,7 @@
         <v>1596000</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I17">
         <v>3200</v>
@@ -1794,34 +1779,34 @@
         <v>3600</v>
       </c>
       <c r="K17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L17">
         <v>4000</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1829,13 +1814,13 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
@@ -1847,7 +1832,7 @@
         <v>1600000</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I18">
         <v>29800</v>
@@ -1856,34 +1841,34 @@
         <v>33500</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L18">
         <v>20000</v>
       </c>
       <c r="M18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="S18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1891,13 +1876,13 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
@@ -1909,7 +1894,7 @@
         <v>2636330</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I19">
         <v>19100</v>
@@ -1918,34 +1903,34 @@
         <v>21400</v>
       </c>
       <c r="K19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L19">
         <v>25000</v>
       </c>
       <c r="M19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1953,10 +1938,10 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -1971,7 +1956,7 @@
         <v>4000000</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I20">
         <v>2000</v>
@@ -1980,34 +1965,34 @@
         <v>2000</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L20">
         <v>2000</v>
       </c>
       <c r="M20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="S20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2015,16 +2000,16 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F21">
         <v>12600000</v>
@@ -2033,7 +2018,7 @@
         <v>7000000</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I21">
         <v>1200</v>
@@ -2042,34 +2027,34 @@
         <v>1500</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L21">
         <v>1800</v>
       </c>
       <c r="M21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2077,13 +2062,13 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -2095,7 +2080,7 @@
         <v>5200000</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I22">
         <v>3500</v>
@@ -2104,34 +2089,34 @@
         <v>4000</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L22">
         <v>4800</v>
       </c>
       <c r="M22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2139,13 +2124,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -2157,7 +2142,7 @@
         <v>2060000</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I23">
         <v>20300</v>
@@ -2166,34 +2151,34 @@
         <v>22500</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L23">
         <v>22500</v>
       </c>
       <c r="M23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O23">
         <v>2.912621359223301</v>
       </c>
       <c r="P23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="S23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2201,13 +2186,13 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
@@ -2219,7 +2204,7 @@
         <v>1200000</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I24">
         <v>9100</v>
@@ -2228,34 +2213,34 @@
         <v>11000</v>
       </c>
       <c r="K24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L24">
         <v>13000</v>
       </c>
       <c r="M24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2263,16 +2248,16 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F25">
         <v>27000000</v>
@@ -2281,7 +2266,7 @@
         <v>3600000</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I25">
         <v>5000</v>
@@ -2290,34 +2275,34 @@
         <v>7000</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L25">
         <v>7500</v>
       </c>
       <c r="M25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2325,16 +2310,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F26">
         <v>25000000</v>
@@ -2343,7 +2328,7 @@
         <v>12500000</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I26">
         <v>2000</v>
@@ -2352,34 +2337,34 @@
         <v>2000</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L26">
         <v>2000</v>
       </c>
       <c r="M26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2387,10 +2372,10 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
@@ -2405,7 +2390,7 @@
         <v>1049482</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I27">
         <v>12800</v>
@@ -2414,34 +2399,34 @@
         <v>14500</v>
       </c>
       <c r="K27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L27">
         <v>17000</v>
       </c>
       <c r="M27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O27">
         <v>9.999980942979489</v>
       </c>
       <c r="P27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="S27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2449,10 +2434,10 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -2467,7 +2452,7 @@
         <v>1128720</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I28">
         <v>3300</v>
@@ -2476,34 +2461,34 @@
         <v>3900</v>
       </c>
       <c r="K28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L28">
         <v>4400</v>
       </c>
       <c r="M28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2511,16 +2496,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F29">
         <v>30600000</v>
@@ -2529,7 +2514,7 @@
         <v>1800000</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I29">
         <v>13000</v>
@@ -2538,96 +2523,34 @@
         <v>15000</v>
       </c>
       <c r="K29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L29">
         <v>17000</v>
       </c>
       <c r="M29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30">
-        <v>26000000</v>
-      </c>
-      <c r="G30">
-        <v>4000000</v>
-      </c>
-      <c r="H30" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30">
-        <v>5000</v>
-      </c>
-      <c r="J30">
-        <v>5600</v>
-      </c>
-      <c r="K30" t="s">
-        <v>101</v>
-      </c>
-      <c r="L30">
-        <v>6500</v>
-      </c>
-      <c r="M30" t="s">
-        <v>101</v>
-      </c>
-      <c r="N30" t="s">
-        <v>101</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>101</v>
-      </c>
-      <c r="R30" t="s">
-        <v>130</v>
-      </c>
-      <c r="S30" t="s">
-        <v>101</v>
-      </c>
-      <c r="T30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="135">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,15 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
     <t>2023-12-01</t>
   </si>
   <si>
@@ -127,7 +136,13 @@
     <t>2023-10-23</t>
   </si>
   <si>
-    <t>2023-10-18</t>
+    <t>DS단석</t>
+  </si>
+  <si>
+    <t>하나30호스팩</t>
+  </si>
+  <si>
+    <t>IBKS제23호스팩</t>
   </si>
   <si>
     <t>LS머트리얼즈</t>
@@ -211,15 +226,18 @@
     <t>유투바이오</t>
   </si>
   <si>
-    <t>퀄리타스반도체</t>
+    <t>KB, NH</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>IBK</t>
   </si>
   <si>
     <t>키움, KB</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>교보</t>
   </si>
   <si>
@@ -253,12 +271,18 @@
     <t>한국</t>
   </si>
   <si>
-    <t>IBK</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
     <t>2023-12-06</t>
   </si>
   <si>
@@ -289,10 +313,7 @@
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-12-12</t>
-  </si>
-  <si>
-    <t>2023-12-13</t>
+    <t>2023-12-22</t>
   </si>
   <si>
     <t>2023-12-05</t>
@@ -310,6 +331,15 @@
     <t>-</t>
   </si>
   <si>
+    <t>982.9 : 1</t>
+  </si>
+  <si>
+    <t>458.37 : 1</t>
+  </si>
+  <si>
+    <t>1312.74 : 1</t>
+  </si>
+  <si>
     <t>1164.5 : 1</t>
   </si>
   <si>
@@ -389,9 +419,6 @@
   </si>
   <si>
     <t>1286.85 : 1</t>
-  </si>
-  <si>
-    <t>1632.34 : 1</t>
   </si>
 </sst>
 </file>
@@ -749,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,61 +849,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F2">
-        <v>87750000</v>
+        <v>122000000</v>
       </c>
       <c r="G2">
-        <v>14625000</v>
+        <v>1220000</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I2">
-        <v>4400</v>
+        <v>79000</v>
       </c>
       <c r="J2">
-        <v>5500</v>
+        <v>89000</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L2">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O2">
-        <v>40</v>
+        <v>34.42622950819672</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -884,61 +911,61 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F3">
-        <v>26600000</v>
+        <v>14000000</v>
       </c>
       <c r="G3">
-        <v>1400000</v>
+        <v>7000000</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I3">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L3">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="S3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -946,25 +973,25 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F4">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
       <c r="G4">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -973,34 +1000,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1008,149 +1035,149 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>17250000</v>
+        <v>87750000</v>
       </c>
       <c r="G5">
-        <v>750000</v>
+        <v>14625000</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I5">
-        <v>19000</v>
+        <v>4400</v>
       </c>
       <c r="J5">
-        <v>22000</v>
+        <v>5500</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L5">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="S5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>13500000</v>
+        <v>26600000</v>
       </c>
       <c r="G6">
-        <v>1500000</v>
+        <v>1400000</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I6">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L6">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="S6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>20000000</v>
+        <v>7000000</v>
       </c>
       <c r="G7">
-        <v>10000000</v>
+        <v>3500000</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1159,158 +1186,158 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="F8">
-        <v>11700000</v>
+        <v>17250000</v>
       </c>
       <c r="G8">
-        <v>650000</v>
+        <v>750000</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I8">
+        <v>19000</v>
+      </c>
+      <c r="J8">
+        <v>22000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8">
         <v>23000</v>
       </c>
-      <c r="J8">
-        <v>30000</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8">
-        <v>18000</v>
-      </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="S8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>16000000</v>
+        <v>13500000</v>
       </c>
       <c r="G9">
-        <v>8000000</v>
+        <v>1500000</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1318,123 +1345,123 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
       <c r="F10">
-        <v>39396000</v>
+        <v>20000000</v>
       </c>
       <c r="G10">
-        <v>1407000</v>
+        <v>10000000</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I10">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L10">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O10">
-        <v>40.01421464108032</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="S10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>27880000</v>
+        <v>11700000</v>
       </c>
       <c r="G11">
-        <v>1640000</v>
+        <v>650000</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I11">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="J11">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L11">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="S11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1442,247 +1469,247 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>36850000</v>
+        <v>16000000</v>
       </c>
       <c r="G12">
-        <v>3350000</v>
+        <v>8000000</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I12">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>9500</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L12">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="S12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F13">
-        <v>29750000</v>
+        <v>39396000</v>
       </c>
       <c r="G13">
-        <v>4250000</v>
+        <v>1407000</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I13">
-        <v>5200</v>
+        <v>21000</v>
       </c>
       <c r="J13">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L13">
-        <v>7000</v>
+        <v>28000</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>40.01421464108032</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="S13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F14">
-        <v>72141300</v>
+        <v>27880000</v>
       </c>
       <c r="G14">
-        <v>2079000</v>
+        <v>1640000</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I14">
-        <v>28500</v>
+        <v>11000</v>
       </c>
       <c r="J14">
-        <v>34700</v>
+        <v>14000</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L14">
-        <v>34700</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R14" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="S14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F15">
-        <v>44112000</v>
+        <v>36850000</v>
       </c>
       <c r="G15">
-        <v>1470400</v>
+        <v>3350000</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I15">
-        <v>33000</v>
+        <v>8000</v>
       </c>
       <c r="J15">
-        <v>37000</v>
+        <v>9500</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L15">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O15">
-        <v>23.28618063112079</v>
+        <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R15" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="S15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1690,185 +1717,185 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>419224960</v>
+        <v>29750000</v>
       </c>
       <c r="G16">
-        <v>11580800</v>
+        <v>4250000</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I16">
-        <v>36200</v>
+        <v>5200</v>
       </c>
       <c r="J16">
-        <v>44000</v>
+        <v>6000</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L16">
-        <v>36200</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="S16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
       <c r="F17">
-        <v>6384000</v>
+        <v>72141300</v>
       </c>
       <c r="G17">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I17">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J17">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L17">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R17" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="S17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F18">
-        <v>32000000</v>
+        <v>44112000</v>
       </c>
       <c r="G18">
-        <v>1600000</v>
+        <v>1470400</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I18">
-        <v>29800</v>
+        <v>33000</v>
       </c>
       <c r="J18">
-        <v>33500</v>
+        <v>37000</v>
       </c>
       <c r="K18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L18">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>23.28618063112079</v>
       </c>
       <c r="P18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R18" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="S18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1876,61 +1903,61 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="F19">
-        <v>65908250</v>
+        <v>419224960</v>
       </c>
       <c r="G19">
-        <v>2636330</v>
+        <v>11580800</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I19">
-        <v>19100</v>
+        <v>36200</v>
       </c>
       <c r="J19">
-        <v>21400</v>
+        <v>44000</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L19">
-        <v>25000</v>
+        <v>36200</v>
       </c>
       <c r="M19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R19" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="S19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1938,7 +1965,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>78</v>
@@ -1947,300 +1974,300 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="F20">
-        <v>8000000</v>
+        <v>6384000</v>
       </c>
       <c r="G20">
-        <v>4000000</v>
+        <v>1596000</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L20">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="S20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
         <v>30</v>
       </c>
-      <c r="E21" t="s">
-        <v>86</v>
-      </c>
       <c r="F21">
-        <v>12600000</v>
+        <v>32000000</v>
       </c>
       <c r="G21">
-        <v>7000000</v>
+        <v>1600000</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I21">
-        <v>1200</v>
+        <v>29800</v>
       </c>
       <c r="J21">
-        <v>1500</v>
+        <v>33500</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L21">
-        <v>1800</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22">
-        <v>24960000</v>
+        <v>65908250</v>
       </c>
       <c r="G22">
-        <v>5200000</v>
+        <v>2636330</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I22">
-        <v>3500</v>
+        <v>19100</v>
       </c>
       <c r="J22">
-        <v>4000</v>
+        <v>21400</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L22">
-        <v>4800</v>
+        <v>25000</v>
       </c>
       <c r="M22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R22" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="S22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23">
-        <v>46350000</v>
+        <v>8000000</v>
       </c>
       <c r="G23">
-        <v>2060000</v>
+        <v>4000000</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I23">
-        <v>20300</v>
+        <v>2000</v>
       </c>
       <c r="J23">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L23">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="M23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O23">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F24">
-        <v>15600000</v>
+        <v>12600000</v>
       </c>
       <c r="G24">
-        <v>1200000</v>
+        <v>7000000</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I24">
-        <v>9100</v>
+        <v>1200</v>
       </c>
       <c r="J24">
-        <v>11000</v>
+        <v>1500</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L24">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="M24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R24" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="S24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2248,309 +2275,433 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" t="s">
-        <v>89</v>
-      </c>
       <c r="F25">
-        <v>27000000</v>
+        <v>24960000</v>
       </c>
       <c r="G25">
-        <v>3600000</v>
+        <v>5200000</v>
       </c>
       <c r="H25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I25">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="J25">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L25">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="M25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R25" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="S25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>25000000</v>
+        <v>46350000</v>
       </c>
       <c r="G26">
-        <v>12500000</v>
+        <v>2060000</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I26">
-        <v>2000</v>
+        <v>20300</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="K26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L26">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="M26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="P26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R26" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="S26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <v>17841194</v>
+        <v>15600000</v>
       </c>
       <c r="G27">
-        <v>1049482</v>
+        <v>1200000</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I27">
-        <v>12800</v>
+        <v>9100</v>
       </c>
       <c r="J27">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="K27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L27">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O27">
-        <v>9.999980942979489</v>
+        <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R27" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="S27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F28">
-        <v>4966368</v>
+        <v>27000000</v>
       </c>
       <c r="G28">
-        <v>1128720</v>
+        <v>3600000</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I28">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="J28">
-        <v>3900</v>
+        <v>7000</v>
       </c>
       <c r="K28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L28">
-        <v>4400</v>
+        <v>7500</v>
       </c>
       <c r="M28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R28" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="S28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F29">
-        <v>30600000</v>
+        <v>25000000</v>
       </c>
       <c r="G29">
-        <v>1800000</v>
+        <v>12500000</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I29">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J29">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L29">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R29" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="S29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T29" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>17841194</v>
+      </c>
+      <c r="G30">
+        <v>1049482</v>
+      </c>
+      <c r="H30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30">
+        <v>12800</v>
+      </c>
+      <c r="J30">
+        <v>14500</v>
+      </c>
+      <c r="K30" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30">
+        <v>17000</v>
+      </c>
+      <c r="M30" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O30">
+        <v>9.999980942979489</v>
+      </c>
+      <c r="P30" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>104</v>
+      </c>
+      <c r="R30" t="s">
+        <v>133</v>
+      </c>
+      <c r="S30" t="s">
+        <v>104</v>
+      </c>
+      <c r="T30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>4966368</v>
+      </c>
+      <c r="G31">
+        <v>1128720</v>
+      </c>
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31">
+        <v>3300</v>
+      </c>
+      <c r="J31">
+        <v>3900</v>
+      </c>
+      <c r="K31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L31">
+        <v>4400</v>
+      </c>
+      <c r="M31" t="s">
+        <v>104</v>
+      </c>
+      <c r="N31" t="s">
+        <v>104</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>104</v>
+      </c>
+      <c r="R31" t="s">
+        <v>134</v>
+      </c>
+      <c r="S31" t="s">
+        <v>104</v>
+      </c>
+      <c r="T31" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="125">
   <si>
     <t>청약일</t>
   </si>
@@ -130,12 +130,6 @@
     <t>2023-10-26</t>
   </si>
   <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
     <t>DS단석</t>
   </si>
   <si>
@@ -217,15 +211,6 @@
     <t>쏘닉스</t>
   </si>
   <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>유투바이오</t>
-  </si>
-  <si>
     <t>KB, NH</t>
   </si>
   <si>
@@ -271,9 +256,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>신한</t>
-  </si>
-  <si>
     <t>2023-12-19</t>
   </si>
   <si>
@@ -310,9 +292,6 @@
     <t>2023-11-07</t>
   </si>
   <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
     <t>2023-12-22</t>
   </si>
   <si>
@@ -410,15 +389,6 @@
   </si>
   <si>
     <t>773.94 : 1</t>
-  </si>
-  <si>
-    <t>8.1 : 1</t>
-  </si>
-  <si>
-    <t>1506.58 : 1</t>
-  </si>
-  <si>
-    <t>1286.85 : 1</t>
   </si>
 </sst>
 </file>
@@ -776,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -849,16 +819,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>122000000</v>
@@ -867,7 +837,7 @@
         <v>1220000</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I2">
         <v>79000</v>
@@ -876,34 +846,34 @@
         <v>89000</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L2">
         <v>100000</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O2">
         <v>34.42622950819672</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -911,16 +881,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>14000000</v>
@@ -929,7 +899,7 @@
         <v>7000000</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -938,34 +908,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="S3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -973,16 +943,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>8000000</v>
@@ -991,7 +961,7 @@
         <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -1000,34 +970,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="S4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1035,13 +1005,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -1053,7 +1023,7 @@
         <v>14625000</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I5">
         <v>4400</v>
@@ -1062,34 +1032,34 @@
         <v>5500</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L5">
         <v>6000</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O5">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="S5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1097,13 +1067,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1115,7 +1085,7 @@
         <v>1400000</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I6">
         <v>15000</v>
@@ -1124,34 +1094,34 @@
         <v>19000</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L6">
         <v>19000</v>
       </c>
       <c r="M6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="S6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1159,16 +1129,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F7">
         <v>7000000</v>
@@ -1177,7 +1147,7 @@
         <v>3500000</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1186,34 +1156,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1221,16 +1191,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <v>17250000</v>
@@ -1239,7 +1209,7 @@
         <v>750000</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I8">
         <v>19000</v>
@@ -1248,34 +1218,34 @@
         <v>22000</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L8">
         <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" t="s">
-        <v>104</v>
-      </c>
-      <c r="R8" t="s">
-        <v>111</v>
-      </c>
       <c r="S8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1283,16 +1253,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F9">
         <v>13500000</v>
@@ -1301,7 +1271,7 @@
         <v>1500000</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I9">
         <v>9000</v>
@@ -1310,34 +1280,34 @@
         <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L9">
         <v>9000</v>
       </c>
       <c r="M9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="S9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1345,13 +1315,13 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1363,7 +1333,7 @@
         <v>10000000</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1372,34 +1342,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="S10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1407,13 +1377,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -1425,7 +1395,7 @@
         <v>650000</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I11">
         <v>23000</v>
@@ -1434,34 +1404,34 @@
         <v>30000</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L11">
         <v>18000</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="S11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1469,13 +1439,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1487,7 +1457,7 @@
         <v>8000000</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1496,34 +1466,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1531,16 +1501,16 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <v>39396000</v>
@@ -1549,7 +1519,7 @@
         <v>1407000</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I13">
         <v>21000</v>
@@ -1558,34 +1528,34 @@
         <v>25000</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L13">
         <v>28000</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O13">
         <v>40.01421464108032</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="S13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1593,16 +1563,16 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F14">
         <v>27880000</v>
@@ -1611,7 +1581,7 @@
         <v>1640000</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I14">
         <v>11000</v>
@@ -1620,34 +1590,34 @@
         <v>14000</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L14">
         <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="S14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1655,16 +1625,16 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
         <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>101</v>
       </c>
       <c r="F15">
         <v>36850000</v>
@@ -1673,7 +1643,7 @@
         <v>3350000</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>8000</v>
@@ -1682,34 +1652,34 @@
         <v>9500</v>
       </c>
       <c r="K15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L15">
         <v>11000</v>
       </c>
       <c r="M15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1717,16 +1687,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F16">
         <v>29750000</v>
@@ -1735,7 +1705,7 @@
         <v>4250000</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I16">
         <v>5200</v>
@@ -1744,34 +1714,34 @@
         <v>6000</v>
       </c>
       <c r="K16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L16">
         <v>7000</v>
       </c>
       <c r="M16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="S16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1779,13 +1749,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -1797,7 +1767,7 @@
         <v>2079000</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I17">
         <v>28500</v>
@@ -1806,34 +1776,34 @@
         <v>34700</v>
       </c>
       <c r="K17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L17">
         <v>34700</v>
       </c>
       <c r="M17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="S17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1841,16 +1811,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F18">
         <v>44112000</v>
@@ -1859,7 +1829,7 @@
         <v>1470400</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I18">
         <v>33000</v>
@@ -1868,34 +1838,34 @@
         <v>37000</v>
       </c>
       <c r="K18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L18">
         <v>30000</v>
       </c>
       <c r="M18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O18">
         <v>23.28618063112079</v>
       </c>
       <c r="P18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="S18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1903,16 +1873,16 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F19">
         <v>419224960</v>
@@ -1921,7 +1891,7 @@
         <v>11580800</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I19">
         <v>36200</v>
@@ -1930,34 +1900,34 @@
         <v>44000</v>
       </c>
       <c r="K19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L19">
         <v>36200</v>
       </c>
       <c r="M19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="S19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1965,16 +1935,16 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F20">
         <v>6384000</v>
@@ -1983,7 +1953,7 @@
         <v>1596000</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I20">
         <v>3200</v>
@@ -1992,34 +1962,34 @@
         <v>3600</v>
       </c>
       <c r="K20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L20">
         <v>4000</v>
       </c>
       <c r="M20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="S20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2027,13 +1997,13 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
@@ -2045,7 +2015,7 @@
         <v>1600000</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I21">
         <v>29800</v>
@@ -2054,34 +2024,34 @@
         <v>33500</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L21">
         <v>20000</v>
       </c>
       <c r="M21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="S21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2089,13 +2059,13 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -2107,7 +2077,7 @@
         <v>2636330</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I22">
         <v>19100</v>
@@ -2116,34 +2086,34 @@
         <v>21400</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L22">
         <v>25000</v>
       </c>
       <c r="M22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="S22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2151,10 +2121,10 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2169,7 +2139,7 @@
         <v>4000000</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I23">
         <v>2000</v>
@@ -2178,34 +2148,34 @@
         <v>2000</v>
       </c>
       <c r="K23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L23">
         <v>2000</v>
       </c>
       <c r="M23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R23" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="S23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2213,16 +2183,16 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F24">
         <v>12600000</v>
@@ -2231,7 +2201,7 @@
         <v>7000000</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I24">
         <v>1200</v>
@@ -2240,34 +2210,34 @@
         <v>1500</v>
       </c>
       <c r="K24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L24">
         <v>1800</v>
       </c>
       <c r="M24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R24" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="S24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2275,13 +2245,13 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
         <v>31</v>
@@ -2293,7 +2263,7 @@
         <v>5200000</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I25">
         <v>3500</v>
@@ -2302,34 +2272,34 @@
         <v>4000</v>
       </c>
       <c r="K25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L25">
         <v>4800</v>
       </c>
       <c r="M25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R25" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="S25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2337,13 +2307,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
@@ -2355,7 +2325,7 @@
         <v>2060000</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I26">
         <v>20300</v>
@@ -2364,34 +2334,34 @@
         <v>22500</v>
       </c>
       <c r="K26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L26">
         <v>22500</v>
       </c>
       <c r="M26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O26">
         <v>2.912621359223301</v>
       </c>
       <c r="P26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R26" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2399,13 +2369,13 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
@@ -2417,7 +2387,7 @@
         <v>1200000</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I27">
         <v>9100</v>
@@ -2426,34 +2396,34 @@
         <v>11000</v>
       </c>
       <c r="K27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L27">
         <v>13000</v>
       </c>
       <c r="M27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R27" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="S27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2461,16 +2431,16 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F28">
         <v>27000000</v>
@@ -2479,7 +2449,7 @@
         <v>3600000</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I28">
         <v>5000</v>
@@ -2488,220 +2458,34 @@
         <v>7000</v>
       </c>
       <c r="K28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L28">
         <v>7500</v>
       </c>
       <c r="M28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R28" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="S28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29">
-        <v>25000000</v>
-      </c>
-      <c r="G29">
-        <v>12500000</v>
-      </c>
-      <c r="H29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29">
-        <v>2000</v>
-      </c>
-      <c r="J29">
-        <v>2000</v>
-      </c>
-      <c r="K29" t="s">
-        <v>104</v>
-      </c>
-      <c r="L29">
-        <v>2000</v>
-      </c>
-      <c r="M29" t="s">
-        <v>104</v>
-      </c>
-      <c r="N29" t="s">
-        <v>104</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>104</v>
-      </c>
-      <c r="R29" t="s">
-        <v>132</v>
-      </c>
-      <c r="S29" t="s">
-        <v>104</v>
-      </c>
-      <c r="T29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30">
-        <v>17841194</v>
-      </c>
-      <c r="G30">
-        <v>1049482</v>
-      </c>
-      <c r="H30" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30">
-        <v>12800</v>
-      </c>
-      <c r="J30">
-        <v>14500</v>
-      </c>
-      <c r="K30" t="s">
-        <v>104</v>
-      </c>
-      <c r="L30">
-        <v>17000</v>
-      </c>
-      <c r="M30" t="s">
-        <v>104</v>
-      </c>
-      <c r="N30" t="s">
-        <v>104</v>
-      </c>
-      <c r="O30">
-        <v>9.999980942979489</v>
-      </c>
-      <c r="P30" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>104</v>
-      </c>
-      <c r="R30" t="s">
-        <v>133</v>
-      </c>
-      <c r="S30" t="s">
-        <v>104</v>
-      </c>
-      <c r="T30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31">
-        <v>4966368</v>
-      </c>
-      <c r="G31">
-        <v>1128720</v>
-      </c>
-      <c r="H31" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31">
-        <v>3300</v>
-      </c>
-      <c r="J31">
-        <v>3900</v>
-      </c>
-      <c r="K31" t="s">
-        <v>104</v>
-      </c>
-      <c r="L31">
-        <v>4400</v>
-      </c>
-      <c r="M31" t="s">
-        <v>104</v>
-      </c>
-      <c r="N31" t="s">
-        <v>104</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>104</v>
-      </c>
-      <c r="R31" t="s">
-        <v>134</v>
-      </c>
-      <c r="S31" t="s">
-        <v>104</v>
-      </c>
-      <c r="T31" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="122">
   <si>
     <t>청약일</t>
   </si>
@@ -127,9 +127,6 @@
     <t>2023-11-01</t>
   </si>
   <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
     <t>DS단석</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>비아이매트릭스</t>
   </si>
   <si>
-    <t>쏘닉스</t>
-  </si>
-  <si>
     <t>KB, NH</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
   </si>
   <si>
     <t>805.12 : 1</t>
-  </si>
-  <si>
-    <t>773.94 : 1</t>
   </si>
 </sst>
 </file>
@@ -746,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,16 +810,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2">
         <v>122000000</v>
@@ -837,7 +828,7 @@
         <v>1220000</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I2">
         <v>79000</v>
@@ -846,34 +837,34 @@
         <v>89000</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L2">
         <v>100000</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O2">
         <v>34.42622950819672</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -881,16 +872,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>14000000</v>
@@ -899,7 +890,7 @@
         <v>7000000</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -908,34 +899,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R3" t="s">
-        <v>99</v>
-      </c>
       <c r="S3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -943,16 +934,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <v>8000000</v>
@@ -961,7 +952,7 @@
         <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -970,34 +961,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1005,13 +996,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -1023,7 +1014,7 @@
         <v>14625000</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>4400</v>
@@ -1032,34 +1023,34 @@
         <v>5500</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L5">
         <v>6000</v>
       </c>
       <c r="M5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O5">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1067,13 +1058,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1085,7 +1076,7 @@
         <v>1400000</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I6">
         <v>15000</v>
@@ -1094,34 +1085,34 @@
         <v>19000</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L6">
         <v>19000</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1129,16 +1120,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7">
         <v>7000000</v>
@@ -1147,7 +1138,7 @@
         <v>3500000</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1156,34 +1147,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1191,16 +1182,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>17250000</v>
@@ -1209,7 +1200,7 @@
         <v>750000</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I8">
         <v>19000</v>
@@ -1218,34 +1209,34 @@
         <v>22000</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L8">
         <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1253,16 +1244,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9">
         <v>13500000</v>
@@ -1271,7 +1262,7 @@
         <v>1500000</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I9">
         <v>9000</v>
@@ -1280,34 +1271,34 @@
         <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L9">
         <v>9000</v>
       </c>
       <c r="M9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1315,13 +1306,13 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1333,7 +1324,7 @@
         <v>10000000</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1342,34 +1333,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1377,13 +1368,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -1395,7 +1386,7 @@
         <v>650000</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I11">
         <v>23000</v>
@@ -1404,34 +1395,34 @@
         <v>30000</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L11">
         <v>18000</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1439,13 +1430,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1457,7 +1448,7 @@
         <v>8000000</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1466,34 +1457,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1501,16 +1492,16 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>39396000</v>
@@ -1519,7 +1510,7 @@
         <v>1407000</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I13">
         <v>21000</v>
@@ -1528,34 +1519,34 @@
         <v>25000</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L13">
         <v>28000</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O13">
         <v>40.01421464108032</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1563,16 +1554,16 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14">
         <v>27880000</v>
@@ -1581,7 +1572,7 @@
         <v>1640000</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I14">
         <v>11000</v>
@@ -1590,34 +1581,34 @@
         <v>14000</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L14">
         <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1625,16 +1616,16 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15">
         <v>36850000</v>
@@ -1643,7 +1634,7 @@
         <v>3350000</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I15">
         <v>8000</v>
@@ -1652,34 +1643,34 @@
         <v>9500</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L15">
         <v>11000</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1687,16 +1678,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16">
         <v>29750000</v>
@@ -1705,7 +1696,7 @@
         <v>4250000</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I16">
         <v>5200</v>
@@ -1714,34 +1705,34 @@
         <v>6000</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L16">
         <v>7000</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1749,13 +1740,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -1767,7 +1758,7 @@
         <v>2079000</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I17">
         <v>28500</v>
@@ -1776,34 +1767,34 @@
         <v>34700</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L17">
         <v>34700</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1811,16 +1802,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>44112000</v>
@@ -1829,7 +1820,7 @@
         <v>1470400</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I18">
         <v>33000</v>
@@ -1838,34 +1829,34 @@
         <v>37000</v>
       </c>
       <c r="K18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L18">
         <v>30000</v>
       </c>
       <c r="M18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O18">
         <v>23.28618063112079</v>
       </c>
       <c r="P18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1873,16 +1864,16 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19">
         <v>419224960</v>
@@ -1891,7 +1882,7 @@
         <v>11580800</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I19">
         <v>36200</v>
@@ -1900,34 +1891,34 @@
         <v>44000</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L19">
         <v>36200</v>
       </c>
       <c r="M19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1935,16 +1926,16 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20">
         <v>6384000</v>
@@ -1953,7 +1944,7 @@
         <v>1596000</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I20">
         <v>3200</v>
@@ -1962,34 +1953,34 @@
         <v>3600</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L20">
         <v>4000</v>
       </c>
       <c r="M20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1997,13 +1988,13 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
@@ -2015,7 +2006,7 @@
         <v>1600000</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I21">
         <v>29800</v>
@@ -2024,34 +2015,34 @@
         <v>33500</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L21">
         <v>20000</v>
       </c>
       <c r="M21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2059,13 +2050,13 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -2077,7 +2068,7 @@
         <v>2636330</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I22">
         <v>19100</v>
@@ -2086,34 +2077,34 @@
         <v>21400</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L22">
         <v>25000</v>
       </c>
       <c r="M22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2121,10 +2112,10 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2139,7 +2130,7 @@
         <v>4000000</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I23">
         <v>2000</v>
@@ -2148,34 +2139,34 @@
         <v>2000</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L23">
         <v>2000</v>
       </c>
       <c r="M23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2183,16 +2174,16 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24">
         <v>12600000</v>
@@ -2201,7 +2192,7 @@
         <v>7000000</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I24">
         <v>1200</v>
@@ -2210,34 +2201,34 @@
         <v>1500</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L24">
         <v>1800</v>
       </c>
       <c r="M24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2245,13 +2236,13 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
         <v>31</v>
@@ -2263,7 +2254,7 @@
         <v>5200000</v>
       </c>
       <c r="H25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I25">
         <v>3500</v>
@@ -2272,34 +2263,34 @@
         <v>4000</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L25">
         <v>4800</v>
       </c>
       <c r="M25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2307,13 +2298,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
@@ -2325,7 +2316,7 @@
         <v>2060000</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I26">
         <v>20300</v>
@@ -2334,34 +2325,34 @@
         <v>22500</v>
       </c>
       <c r="K26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L26">
         <v>22500</v>
       </c>
       <c r="M26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O26">
         <v>2.912621359223301</v>
       </c>
       <c r="P26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2369,13 +2360,13 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
@@ -2387,7 +2378,7 @@
         <v>1200000</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I27">
         <v>9100</v>
@@ -2396,96 +2387,34 @@
         <v>11000</v>
       </c>
       <c r="K27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L27">
         <v>13000</v>
       </c>
       <c r="M27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28">
-        <v>27000000</v>
-      </c>
-      <c r="G28">
-        <v>3600000</v>
-      </c>
-      <c r="H28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28">
-        <v>5000</v>
-      </c>
-      <c r="J28">
-        <v>7000</v>
-      </c>
-      <c r="K28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28">
-        <v>7500</v>
-      </c>
-      <c r="M28" t="s">
-        <v>97</v>
-      </c>
-      <c r="N28" t="s">
-        <v>97</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>97</v>
-      </c>
-      <c r="R28" t="s">
-        <v>124</v>
-      </c>
-      <c r="S28" t="s">
-        <v>97</v>
-      </c>
-      <c r="T28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="116">
   <si>
     <t>청약일</t>
   </si>
@@ -196,15 +196,6 @@
     <t>에스와이스틸텍</t>
   </si>
   <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>컨텍</t>
-  </si>
-  <si>
-    <t>비아이매트릭스</t>
-  </si>
-  <si>
     <t>KB, NH</t>
   </si>
   <si>
@@ -371,15 +362,6 @@
   </si>
   <si>
     <t>1001.234 : 1</t>
-  </si>
-  <si>
-    <t>630.752 : 1</t>
-  </si>
-  <si>
-    <t>9.09 : 1</t>
-  </si>
-  <si>
-    <t>805.12 : 1</t>
   </si>
 </sst>
 </file>
@@ -737,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -813,13 +795,13 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2">
         <v>122000000</v>
@@ -828,7 +810,7 @@
         <v>1220000</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I2">
         <v>79000</v>
@@ -837,34 +819,34 @@
         <v>89000</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L2">
         <v>100000</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O2">
         <v>34.42622950819672</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -875,13 +857,13 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F3">
         <v>14000000</v>
@@ -890,7 +872,7 @@
         <v>7000000</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -899,34 +881,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -937,13 +919,13 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4">
         <v>8000000</v>
@@ -952,7 +934,7 @@
         <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -961,34 +943,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" t="s">
-        <v>98</v>
-      </c>
       <c r="S4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -999,10 +981,10 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -1014,7 +996,7 @@
         <v>14625000</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I5">
         <v>4400</v>
@@ -1023,34 +1005,34 @@
         <v>5500</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L5">
         <v>6000</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O5">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="S5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1061,10 +1043,10 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1076,7 +1058,7 @@
         <v>1400000</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I6">
         <v>15000</v>
@@ -1085,34 +1067,34 @@
         <v>19000</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L6">
         <v>19000</v>
       </c>
       <c r="M6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1123,13 +1105,13 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F7">
         <v>7000000</v>
@@ -1138,7 +1120,7 @@
         <v>3500000</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1147,34 +1129,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1185,13 +1167,13 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <v>17250000</v>
@@ -1200,7 +1182,7 @@
         <v>750000</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I8">
         <v>19000</v>
@@ -1209,34 +1191,34 @@
         <v>22000</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L8">
         <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1247,13 +1229,13 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9">
         <v>13500000</v>
@@ -1262,7 +1244,7 @@
         <v>1500000</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I9">
         <v>9000</v>
@@ -1271,34 +1253,34 @@
         <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L9">
         <v>9000</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1309,10 +1291,10 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1324,7 +1306,7 @@
         <v>10000000</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1333,34 +1315,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1371,10 +1353,10 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -1386,7 +1368,7 @@
         <v>650000</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I11">
         <v>23000</v>
@@ -1395,34 +1377,34 @@
         <v>30000</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L11">
         <v>18000</v>
       </c>
       <c r="M11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1433,10 +1415,10 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1448,7 +1430,7 @@
         <v>8000000</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1457,34 +1439,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1495,13 +1477,13 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13">
         <v>39396000</v>
@@ -1510,7 +1492,7 @@
         <v>1407000</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I13">
         <v>21000</v>
@@ -1519,34 +1501,34 @@
         <v>25000</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L13">
         <v>28000</v>
       </c>
       <c r="M13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O13">
         <v>40.01421464108032</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1557,13 +1539,13 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14">
         <v>27880000</v>
@@ -1572,7 +1554,7 @@
         <v>1640000</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I14">
         <v>11000</v>
@@ -1581,34 +1563,34 @@
         <v>14000</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L14">
         <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1619,13 +1601,13 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15">
         <v>36850000</v>
@@ -1634,7 +1616,7 @@
         <v>3350000</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I15">
         <v>8000</v>
@@ -1643,34 +1625,34 @@
         <v>9500</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L15">
         <v>11000</v>
       </c>
       <c r="M15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1681,13 +1663,13 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>29750000</v>
@@ -1696,7 +1678,7 @@
         <v>4250000</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I16">
         <v>5200</v>
@@ -1705,34 +1687,34 @@
         <v>6000</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L16">
         <v>7000</v>
       </c>
       <c r="M16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1743,10 +1725,10 @@
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -1758,7 +1740,7 @@
         <v>2079000</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I17">
         <v>28500</v>
@@ -1767,34 +1749,34 @@
         <v>34700</v>
       </c>
       <c r="K17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L17">
         <v>34700</v>
       </c>
       <c r="M17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1805,13 +1787,13 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F18">
         <v>44112000</v>
@@ -1820,7 +1802,7 @@
         <v>1470400</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I18">
         <v>33000</v>
@@ -1829,34 +1811,34 @@
         <v>37000</v>
       </c>
       <c r="K18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L18">
         <v>30000</v>
       </c>
       <c r="M18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O18">
         <v>23.28618063112079</v>
       </c>
       <c r="P18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1867,13 +1849,13 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F19">
         <v>419224960</v>
@@ -1882,7 +1864,7 @@
         <v>11580800</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I19">
         <v>36200</v>
@@ -1891,34 +1873,34 @@
         <v>44000</v>
       </c>
       <c r="K19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L19">
         <v>36200</v>
       </c>
       <c r="M19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1929,13 +1911,13 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F20">
         <v>6384000</v>
@@ -1944,7 +1926,7 @@
         <v>1596000</v>
       </c>
       <c r="H20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I20">
         <v>3200</v>
@@ -1953,34 +1935,34 @@
         <v>3600</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L20">
         <v>4000</v>
       </c>
       <c r="M20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1991,10 +1973,10 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
@@ -2006,7 +1988,7 @@
         <v>1600000</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I21">
         <v>29800</v>
@@ -2015,34 +1997,34 @@
         <v>33500</v>
       </c>
       <c r="K21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L21">
         <v>20000</v>
       </c>
       <c r="M21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2053,10 +2035,10 @@
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -2068,7 +2050,7 @@
         <v>2636330</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I22">
         <v>19100</v>
@@ -2077,34 +2059,34 @@
         <v>21400</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L22">
         <v>25000</v>
       </c>
       <c r="M22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2115,7 +2097,7 @@
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2130,7 +2112,7 @@
         <v>4000000</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I23">
         <v>2000</v>
@@ -2139,34 +2121,34 @@
         <v>2000</v>
       </c>
       <c r="K23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L23">
         <v>2000</v>
       </c>
       <c r="M23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2177,13 +2159,13 @@
         <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F24">
         <v>12600000</v>
@@ -2192,7 +2174,7 @@
         <v>7000000</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I24">
         <v>1200</v>
@@ -2201,220 +2183,34 @@
         <v>1500</v>
       </c>
       <c r="K24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L24">
         <v>1800</v>
       </c>
       <c r="M24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25">
-        <v>24960000</v>
-      </c>
-      <c r="G25">
-        <v>5200000</v>
-      </c>
-      <c r="H25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25">
-        <v>3500</v>
-      </c>
-      <c r="J25">
-        <v>4000</v>
-      </c>
-      <c r="K25" t="s">
-        <v>95</v>
-      </c>
-      <c r="L25">
-        <v>4800</v>
-      </c>
-      <c r="M25" t="s">
-        <v>95</v>
-      </c>
-      <c r="N25" t="s">
-        <v>95</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>95</v>
-      </c>
-      <c r="R25" t="s">
-        <v>119</v>
-      </c>
-      <c r="S25" t="s">
-        <v>95</v>
-      </c>
-      <c r="T25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26">
-        <v>46350000</v>
-      </c>
-      <c r="G26">
-        <v>2060000</v>
-      </c>
-      <c r="H26" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26">
-        <v>20300</v>
-      </c>
-      <c r="J26">
-        <v>22500</v>
-      </c>
-      <c r="K26" t="s">
-        <v>95</v>
-      </c>
-      <c r="L26">
-        <v>22500</v>
-      </c>
-      <c r="M26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" t="s">
-        <v>95</v>
-      </c>
-      <c r="O26">
-        <v>2.912621359223301</v>
-      </c>
-      <c r="P26" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>95</v>
-      </c>
-      <c r="R26" t="s">
-        <v>120</v>
-      </c>
-      <c r="S26" t="s">
-        <v>95</v>
-      </c>
-      <c r="T26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27">
-        <v>15600000</v>
-      </c>
-      <c r="G27">
-        <v>1200000</v>
-      </c>
-      <c r="H27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I27">
-        <v>9100</v>
-      </c>
-      <c r="J27">
-        <v>11000</v>
-      </c>
-      <c r="K27" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27">
-        <v>13000</v>
-      </c>
-      <c r="M27" t="s">
-        <v>95</v>
-      </c>
-      <c r="N27" t="s">
-        <v>95</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>95</v>
-      </c>
-      <c r="R27" t="s">
-        <v>121</v>
-      </c>
-      <c r="S27" t="s">
-        <v>95</v>
-      </c>
-      <c r="T27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="110">
   <si>
     <t>청약일</t>
   </si>
@@ -124,9 +124,6 @@
     <t>2023-11-02</t>
   </si>
   <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
     <t>DS단석</t>
   </si>
   <si>
@@ -190,12 +187,6 @@
     <t>에이직랜드</t>
   </si>
   <si>
-    <t>한국제13호스팩</t>
-  </si>
-  <si>
-    <t>에스와이스틸텍</t>
-  </si>
-  <si>
     <t>KB, NH</t>
   </si>
   <si>
@@ -238,9 +229,6 @@
     <t>미래, 삼성</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>2023-12-19</t>
   </si>
   <si>
@@ -356,12 +344,6 @@
   </si>
   <si>
     <t>759.88 : 1</t>
-  </si>
-  <si>
-    <t>139.07 : 1</t>
-  </si>
-  <si>
-    <t>1001.234 : 1</t>
   </si>
 </sst>
 </file>
@@ -719,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,16 +774,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F2">
         <v>122000000</v>
@@ -810,7 +792,7 @@
         <v>1220000</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I2">
         <v>79000</v>
@@ -819,34 +801,34 @@
         <v>89000</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L2">
         <v>100000</v>
       </c>
       <c r="M2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O2">
         <v>34.42622950819672</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -854,16 +836,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F3">
         <v>14000000</v>
@@ -872,7 +854,7 @@
         <v>7000000</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -881,34 +863,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="S3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -916,16 +898,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4">
         <v>8000000</v>
@@ -934,7 +916,7 @@
         <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -943,34 +925,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -978,13 +960,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -996,7 +978,7 @@
         <v>14625000</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I5">
         <v>4400</v>
@@ -1005,34 +987,34 @@
         <v>5500</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L5">
         <v>6000</v>
       </c>
       <c r="M5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O5">
         <v>40</v>
       </c>
       <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" t="s">
         <v>92</v>
       </c>
-      <c r="Q5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R5" t="s">
-        <v>96</v>
-      </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1040,13 +1022,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1058,7 +1040,7 @@
         <v>1400000</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I6">
         <v>15000</v>
@@ -1067,34 +1049,34 @@
         <v>19000</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L6">
         <v>19000</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="S6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1102,16 +1084,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F7">
         <v>7000000</v>
@@ -1120,7 +1102,7 @@
         <v>3500000</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1129,34 +1111,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1164,16 +1146,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>17250000</v>
@@ -1182,7 +1164,7 @@
         <v>750000</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I8">
         <v>19000</v>
@@ -1191,34 +1173,34 @@
         <v>22000</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L8">
         <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1226,16 +1208,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <v>13500000</v>
@@ -1244,7 +1226,7 @@
         <v>1500000</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I9">
         <v>9000</v>
@@ -1253,34 +1235,34 @@
         <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L9">
         <v>9000</v>
       </c>
       <c r="M9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1288,13 +1270,13 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1306,7 +1288,7 @@
         <v>10000000</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1315,34 +1297,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1350,13 +1332,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -1368,7 +1350,7 @@
         <v>650000</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I11">
         <v>23000</v>
@@ -1377,34 +1359,34 @@
         <v>30000</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L11">
         <v>18000</v>
       </c>
       <c r="M11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1412,13 +1394,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1430,7 +1412,7 @@
         <v>8000000</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1439,34 +1421,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1474,16 +1456,16 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F13">
         <v>39396000</v>
@@ -1492,7 +1474,7 @@
         <v>1407000</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I13">
         <v>21000</v>
@@ -1501,34 +1483,34 @@
         <v>25000</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L13">
         <v>28000</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O13">
         <v>40.01421464108032</v>
       </c>
       <c r="P13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1536,16 +1518,16 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>27880000</v>
@@ -1554,7 +1536,7 @@
         <v>1640000</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I14">
         <v>11000</v>
@@ -1563,34 +1545,34 @@
         <v>14000</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L14">
         <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="S14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1598,16 +1580,16 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F15">
         <v>36850000</v>
@@ -1616,7 +1598,7 @@
         <v>3350000</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I15">
         <v>8000</v>
@@ -1625,34 +1607,34 @@
         <v>9500</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L15">
         <v>11000</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1660,16 +1642,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <v>29750000</v>
@@ -1678,7 +1660,7 @@
         <v>4250000</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I16">
         <v>5200</v>
@@ -1687,34 +1669,34 @@
         <v>6000</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L16">
         <v>7000</v>
       </c>
       <c r="M16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="S16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1722,13 +1704,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -1740,7 +1722,7 @@
         <v>2079000</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I17">
         <v>28500</v>
@@ -1749,34 +1731,34 @@
         <v>34700</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L17">
         <v>34700</v>
       </c>
       <c r="M17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="S17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1784,16 +1766,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F18">
         <v>44112000</v>
@@ -1802,7 +1784,7 @@
         <v>1470400</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I18">
         <v>33000</v>
@@ -1811,34 +1793,34 @@
         <v>37000</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L18">
         <v>30000</v>
       </c>
       <c r="M18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O18">
         <v>23.28618063112079</v>
       </c>
       <c r="P18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1846,16 +1828,16 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F19">
         <v>419224960</v>
@@ -1864,7 +1846,7 @@
         <v>11580800</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I19">
         <v>36200</v>
@@ -1873,34 +1855,34 @@
         <v>44000</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L19">
         <v>36200</v>
       </c>
       <c r="M19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="S19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1908,16 +1890,16 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F20">
         <v>6384000</v>
@@ -1926,7 +1908,7 @@
         <v>1596000</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I20">
         <v>3200</v>
@@ -1935,34 +1917,34 @@
         <v>3600</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L20">
         <v>4000</v>
       </c>
       <c r="M20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1970,13 +1952,13 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
@@ -1988,7 +1970,7 @@
         <v>1600000</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I21">
         <v>29800</v>
@@ -1997,34 +1979,34 @@
         <v>33500</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L21">
         <v>20000</v>
       </c>
       <c r="M21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2032,13 +2014,13 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -2050,7 +2032,7 @@
         <v>2636330</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I22">
         <v>19100</v>
@@ -2059,158 +2041,34 @@
         <v>21400</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L22">
         <v>25000</v>
       </c>
       <c r="M22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23">
-        <v>8000000</v>
-      </c>
-      <c r="G23">
-        <v>4000000</v>
-      </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23">
-        <v>2000</v>
-      </c>
-      <c r="J23">
-        <v>2000</v>
-      </c>
-      <c r="K23" t="s">
-        <v>92</v>
-      </c>
-      <c r="L23">
-        <v>2000</v>
-      </c>
-      <c r="M23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>92</v>
-      </c>
-      <c r="R23" t="s">
-        <v>114</v>
-      </c>
-      <c r="S23" t="s">
-        <v>92</v>
-      </c>
-      <c r="T23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24">
-        <v>12600000</v>
-      </c>
-      <c r="G24">
-        <v>7000000</v>
-      </c>
-      <c r="H24" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24">
-        <v>1200</v>
-      </c>
-      <c r="J24">
-        <v>1500</v>
-      </c>
-      <c r="K24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24">
-        <v>1800</v>
-      </c>
-      <c r="M24" t="s">
-        <v>92</v>
-      </c>
-      <c r="N24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>92</v>
-      </c>
-      <c r="R24" t="s">
-        <v>115</v>
-      </c>
-      <c r="S24" t="s">
-        <v>92</v>
-      </c>
-      <c r="T24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="106">
   <si>
     <t>청약일</t>
   </si>
@@ -121,9 +121,6 @@
     <t>2023-10-31</t>
   </si>
   <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
     <t>DS단석</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>큐로셀</t>
   </si>
   <si>
-    <t>에이직랜드</t>
-  </si>
-  <si>
     <t>KB, NH</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>2023-11-03</t>
   </si>
   <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
     <t>2023-12-22</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
   </si>
   <si>
     <t>169.95 : 1</t>
-  </si>
-  <si>
-    <t>759.88 : 1</t>
   </si>
 </sst>
 </file>
@@ -701,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +762,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>122000000</v>
@@ -792,7 +780,7 @@
         <v>1220000</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>79000</v>
@@ -801,34 +789,34 @@
         <v>89000</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L2">
         <v>100000</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O2">
         <v>34.42622950819672</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -836,16 +824,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>14000000</v>
@@ -854,7 +842,7 @@
         <v>7000000</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -863,34 +851,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -898,16 +886,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>8000000</v>
@@ -916,7 +904,7 @@
         <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -925,34 +913,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" t="s">
-        <v>88</v>
-      </c>
-      <c r="R4" t="s">
-        <v>91</v>
-      </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -960,13 +948,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -978,7 +966,7 @@
         <v>14625000</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>4400</v>
@@ -987,34 +975,34 @@
         <v>5500</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L5">
         <v>6000</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O5">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1022,13 +1010,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1040,7 +1028,7 @@
         <v>1400000</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>15000</v>
@@ -1049,34 +1037,34 @@
         <v>19000</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L6">
         <v>19000</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1084,16 +1072,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <v>7000000</v>
@@ -1102,7 +1090,7 @@
         <v>3500000</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1111,34 +1099,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1146,16 +1134,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>17250000</v>
@@ -1164,7 +1152,7 @@
         <v>750000</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>19000</v>
@@ -1173,34 +1161,34 @@
         <v>22000</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L8">
         <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1208,16 +1196,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>13500000</v>
@@ -1226,7 +1214,7 @@
         <v>1500000</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>9000</v>
@@ -1235,34 +1223,34 @@
         <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L9">
         <v>9000</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1270,13 +1258,13 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1288,7 +1276,7 @@
         <v>10000000</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1297,34 +1285,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1332,13 +1320,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -1350,7 +1338,7 @@
         <v>650000</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>23000</v>
@@ -1359,34 +1347,34 @@
         <v>30000</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L11">
         <v>18000</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1394,13 +1382,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1412,7 +1400,7 @@
         <v>8000000</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1421,34 +1409,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="S12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1456,16 +1444,16 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13">
         <v>39396000</v>
@@ -1474,7 +1462,7 @@
         <v>1407000</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>21000</v>
@@ -1483,34 +1471,34 @@
         <v>25000</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L13">
         <v>28000</v>
       </c>
       <c r="M13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O13">
         <v>40.01421464108032</v>
       </c>
       <c r="P13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1518,16 +1506,16 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>27880000</v>
@@ -1536,7 +1524,7 @@
         <v>1640000</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I14">
         <v>11000</v>
@@ -1545,34 +1533,34 @@
         <v>14000</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L14">
         <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1580,16 +1568,16 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>36850000</v>
@@ -1598,7 +1586,7 @@
         <v>3350000</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I15">
         <v>8000</v>
@@ -1607,34 +1595,34 @@
         <v>9500</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L15">
         <v>11000</v>
       </c>
       <c r="M15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1642,16 +1630,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16">
         <v>29750000</v>
@@ -1660,7 +1648,7 @@
         <v>4250000</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I16">
         <v>5200</v>
@@ -1669,34 +1657,34 @@
         <v>6000</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L16">
         <v>7000</v>
       </c>
       <c r="M16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1704,13 +1692,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -1722,7 +1710,7 @@
         <v>2079000</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I17">
         <v>28500</v>
@@ -1731,34 +1719,34 @@
         <v>34700</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L17">
         <v>34700</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1766,16 +1754,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F18">
         <v>44112000</v>
@@ -1784,7 +1772,7 @@
         <v>1470400</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I18">
         <v>33000</v>
@@ -1793,34 +1781,34 @@
         <v>37000</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L18">
         <v>30000</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O18">
         <v>23.28618063112079</v>
       </c>
       <c r="P18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1828,16 +1816,16 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <v>419224960</v>
@@ -1846,7 +1834,7 @@
         <v>11580800</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I19">
         <v>36200</v>
@@ -1855,34 +1843,34 @@
         <v>44000</v>
       </c>
       <c r="K19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L19">
         <v>36200</v>
       </c>
       <c r="M19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1890,16 +1878,16 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20">
         <v>6384000</v>
@@ -1908,7 +1896,7 @@
         <v>1596000</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I20">
         <v>3200</v>
@@ -1917,34 +1905,34 @@
         <v>3600</v>
       </c>
       <c r="K20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L20">
         <v>4000</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1952,13 +1940,13 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
@@ -1970,7 +1958,7 @@
         <v>1600000</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I21">
         <v>29800</v>
@@ -1979,96 +1967,34 @@
         <v>33500</v>
       </c>
       <c r="K21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L21">
         <v>20000</v>
       </c>
       <c r="M21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22">
-        <v>65908250</v>
-      </c>
-      <c r="G22">
-        <v>2636330</v>
-      </c>
-      <c r="H22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22">
-        <v>19100</v>
-      </c>
-      <c r="J22">
-        <v>21400</v>
-      </c>
-      <c r="K22" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22">
-        <v>25000</v>
-      </c>
-      <c r="M22" t="s">
-        <v>88</v>
-      </c>
-      <c r="N22" t="s">
-        <v>88</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>88</v>
-      </c>
-      <c r="R22" t="s">
-        <v>109</v>
-      </c>
-      <c r="S22" t="s">
-        <v>88</v>
-      </c>
-      <c r="T22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
   <si>
     <t>청약일</t>
   </si>
@@ -118,9 +118,6 @@
     <t>2023-11-06</t>
   </si>
   <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
     <t>DS단석</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>캡스톤파트너스</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
     <t>KB, NH</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>KB</t>
   </si>
   <si>
-    <t>미래, 삼성</t>
-  </si>
-  <si>
     <t>2023-12-19</t>
   </si>
   <si>
@@ -253,9 +244,6 @@
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-11-03</t>
-  </si>
-  <si>
     <t>2023-12-22</t>
   </si>
   <si>
@@ -329,9 +317,6 @@
   </si>
   <si>
     <t>1345.6 : 1</t>
-  </si>
-  <si>
-    <t>169.95 : 1</t>
   </si>
 </sst>
 </file>
@@ -689,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,16 +747,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>122000000</v>
@@ -780,7 +765,7 @@
         <v>1220000</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>79000</v>
@@ -789,34 +774,34 @@
         <v>89000</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L2">
         <v>100000</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O2">
         <v>34.42622950819672</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -824,16 +809,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <v>14000000</v>
@@ -842,7 +827,7 @@
         <v>7000000</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -851,34 +836,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -886,16 +871,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4">
         <v>8000000</v>
@@ -904,7 +889,7 @@
         <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -913,34 +898,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -948,13 +933,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -966,7 +951,7 @@
         <v>14625000</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>4400</v>
@@ -975,34 +960,34 @@
         <v>5500</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L5">
         <v>6000</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O5">
         <v>40</v>
       </c>
       <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" t="s">
-        <v>89</v>
-      </c>
       <c r="S5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1010,13 +995,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1028,7 +1013,7 @@
         <v>1400000</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>15000</v>
@@ -1037,34 +1022,34 @@
         <v>19000</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L6">
         <v>19000</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="S6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1072,16 +1057,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>7000000</v>
@@ -1090,7 +1075,7 @@
         <v>3500000</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1099,34 +1084,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1134,16 +1119,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <v>17250000</v>
@@ -1152,7 +1137,7 @@
         <v>750000</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>19000</v>
@@ -1161,34 +1146,34 @@
         <v>22000</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L8">
         <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1196,16 +1181,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F9">
         <v>13500000</v>
@@ -1214,7 +1199,7 @@
         <v>1500000</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>9000</v>
@@ -1223,34 +1208,34 @@
         <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L9">
         <v>9000</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1258,13 +1243,13 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1276,7 +1261,7 @@
         <v>10000000</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1285,34 +1270,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="S10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1320,13 +1305,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -1338,7 +1323,7 @@
         <v>650000</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>23000</v>
@@ -1347,34 +1332,34 @@
         <v>30000</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L11">
         <v>18000</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1382,13 +1367,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1400,7 +1385,7 @@
         <v>8000000</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1409,34 +1394,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1444,16 +1429,16 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F13">
         <v>39396000</v>
@@ -1462,7 +1447,7 @@
         <v>1407000</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>21000</v>
@@ -1471,34 +1456,34 @@
         <v>25000</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L13">
         <v>28000</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O13">
         <v>40.01421464108032</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1506,16 +1491,16 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F14">
         <v>27880000</v>
@@ -1524,7 +1509,7 @@
         <v>1640000</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I14">
         <v>11000</v>
@@ -1533,34 +1518,34 @@
         <v>14000</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L14">
         <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1568,16 +1553,16 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F15">
         <v>36850000</v>
@@ -1586,7 +1571,7 @@
         <v>3350000</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I15">
         <v>8000</v>
@@ -1595,34 +1580,34 @@
         <v>9500</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L15">
         <v>11000</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1630,16 +1615,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <v>29750000</v>
@@ -1648,7 +1633,7 @@
         <v>4250000</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I16">
         <v>5200</v>
@@ -1657,34 +1642,34 @@
         <v>6000</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L16">
         <v>7000</v>
       </c>
       <c r="M16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1692,13 +1677,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -1710,7 +1695,7 @@
         <v>2079000</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I17">
         <v>28500</v>
@@ -1719,34 +1704,34 @@
         <v>34700</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L17">
         <v>34700</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1754,16 +1739,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F18">
         <v>44112000</v>
@@ -1772,7 +1757,7 @@
         <v>1470400</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I18">
         <v>33000</v>
@@ -1781,34 +1766,34 @@
         <v>37000</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L18">
         <v>30000</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O18">
         <v>23.28618063112079</v>
       </c>
       <c r="P18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1816,16 +1801,16 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F19">
         <v>419224960</v>
@@ -1834,7 +1819,7 @@
         <v>11580800</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I19">
         <v>36200</v>
@@ -1843,34 +1828,34 @@
         <v>44000</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L19">
         <v>36200</v>
       </c>
       <c r="M19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1878,16 +1863,16 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F20">
         <v>6384000</v>
@@ -1896,7 +1881,7 @@
         <v>1596000</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>3200</v>
@@ -1905,96 +1890,34 @@
         <v>3600</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L20">
         <v>4000</v>
       </c>
       <c r="M20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21">
-        <v>32000000</v>
-      </c>
-      <c r="G21">
-        <v>1600000</v>
-      </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21">
-        <v>29800</v>
-      </c>
-      <c r="J21">
-        <v>33500</v>
-      </c>
-      <c r="K21" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21">
-        <v>20000</v>
-      </c>
-      <c r="M21" t="s">
-        <v>85</v>
-      </c>
-      <c r="N21" t="s">
-        <v>85</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R21" t="s">
-        <v>105</v>
-      </c>
-      <c r="S21" t="s">
-        <v>85</v>
-      </c>
-      <c r="T21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="98">
   <si>
     <t>청약일</t>
   </si>
@@ -115,9 +115,6 @@
     <t>2023-11-08</t>
   </si>
   <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
     <t>DS단석</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>에코프로머티</t>
   </si>
   <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
     <t>KB, NH</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
   </si>
   <si>
     <t>70.04 : 1</t>
-  </si>
-  <si>
-    <t>1345.6 : 1</t>
   </si>
 </sst>
 </file>
@@ -674,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>122000000</v>
@@ -765,7 +756,7 @@
         <v>1220000</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>79000</v>
@@ -774,34 +765,34 @@
         <v>89000</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L2">
         <v>100000</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O2">
         <v>34.42622950819672</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -809,16 +800,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>14000000</v>
@@ -827,7 +818,7 @@
         <v>7000000</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -836,34 +827,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" t="s">
-        <v>83</v>
-      </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -871,16 +862,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>8000000</v>
@@ -889,7 +880,7 @@
         <v>4000000</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -898,34 +889,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -933,13 +924,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -951,7 +942,7 @@
         <v>14625000</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>4400</v>
@@ -960,34 +951,34 @@
         <v>5500</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L5">
         <v>6000</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O5">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -995,13 +986,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1013,7 +1004,7 @@
         <v>1400000</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>15000</v>
@@ -1022,34 +1013,34 @@
         <v>19000</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L6">
         <v>19000</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1057,16 +1048,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7">
         <v>7000000</v>
@@ -1075,7 +1066,7 @@
         <v>3500000</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1084,34 +1075,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1119,16 +1110,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>17250000</v>
@@ -1137,7 +1128,7 @@
         <v>750000</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8">
         <v>19000</v>
@@ -1146,34 +1137,34 @@
         <v>22000</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L8">
         <v>23000</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1181,16 +1172,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>13500000</v>
@@ -1199,7 +1190,7 @@
         <v>1500000</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I9">
         <v>9000</v>
@@ -1208,34 +1199,34 @@
         <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L9">
         <v>9000</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1243,13 +1234,13 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1261,7 +1252,7 @@
         <v>10000000</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1270,34 +1261,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1305,13 +1296,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -1323,7 +1314,7 @@
         <v>650000</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I11">
         <v>23000</v>
@@ -1332,34 +1323,34 @@
         <v>30000</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L11">
         <v>18000</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1367,13 +1358,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1385,7 +1376,7 @@
         <v>8000000</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1394,34 +1385,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1429,16 +1420,16 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>39396000</v>
@@ -1447,7 +1438,7 @@
         <v>1407000</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I13">
         <v>21000</v>
@@ -1456,34 +1447,34 @@
         <v>25000</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L13">
         <v>28000</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O13">
         <v>40.01421464108032</v>
       </c>
       <c r="P13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1491,16 +1482,16 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <v>27880000</v>
@@ -1509,7 +1500,7 @@
         <v>1640000</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I14">
         <v>11000</v>
@@ -1518,34 +1509,34 @@
         <v>14000</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L14">
         <v>17000</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1553,16 +1544,16 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15">
         <v>36850000</v>
@@ -1571,7 +1562,7 @@
         <v>3350000</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I15">
         <v>8000</v>
@@ -1580,34 +1571,34 @@
         <v>9500</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L15">
         <v>11000</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1615,16 +1606,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>29750000</v>
@@ -1633,7 +1624,7 @@
         <v>4250000</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I16">
         <v>5200</v>
@@ -1642,34 +1633,34 @@
         <v>6000</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L16">
         <v>7000</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1677,13 +1668,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -1695,7 +1686,7 @@
         <v>2079000</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I17">
         <v>28500</v>
@@ -1704,34 +1695,34 @@
         <v>34700</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L17">
         <v>34700</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1739,16 +1730,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18">
         <v>44112000</v>
@@ -1757,7 +1748,7 @@
         <v>1470400</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I18">
         <v>33000</v>
@@ -1766,34 +1757,34 @@
         <v>37000</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L18">
         <v>30000</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O18">
         <v>23.28618063112079</v>
       </c>
       <c r="P18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1801,16 +1792,16 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19">
         <v>419224960</v>
@@ -1819,7 +1810,7 @@
         <v>11580800</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I19">
         <v>36200</v>
@@ -1828,96 +1819,34 @@
         <v>44000</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L19">
         <v>36200</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20">
-        <v>6384000</v>
-      </c>
-      <c r="G20">
-        <v>1596000</v>
-      </c>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20">
-        <v>3200</v>
-      </c>
-      <c r="J20">
-        <v>3600</v>
-      </c>
-      <c r="K20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20">
-        <v>4000</v>
-      </c>
-      <c r="M20" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>81</v>
-      </c>
-      <c r="R20" t="s">
-        <v>100</v>
-      </c>
-      <c r="S20" t="s">
-        <v>81</v>
-      </c>
-      <c r="T20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="106">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
     <t>2024-02-26</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>2024-01-15</t>
   </si>
   <si>
+    <t>오상헬스케어</t>
+  </si>
+  <si>
     <t>케이엔알시스템</t>
   </si>
   <si>
@@ -166,6 +172,9 @@
     <t>대신밸런스제17호스팩</t>
   </si>
   <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>DB, NH</t>
   </si>
   <si>
@@ -190,9 +199,6 @@
     <t>신한</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>한화</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
     <t>대신</t>
   </si>
   <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
     <t>2024-02-29</t>
   </si>
   <si>
@@ -244,15 +253,12 @@
     <t>2024-01-18</t>
   </si>
   <si>
-    <t>2024-03-07</t>
+    <t>2024-03-13</t>
   </si>
   <si>
     <t>2024-03-05</t>
   </si>
   <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
     <t>2024-02-06</t>
   </si>
   <si>
@@ -266,6 +272,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>2126.13 : 1</t>
   </si>
   <si>
     <t>2266.72 : 1</t>
@@ -680,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,61 +762,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>28404000</v>
+        <v>19800000</v>
       </c>
       <c r="G2">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J2">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L2">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -815,61 +824,61 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>10000000</v>
+        <v>28404000</v>
       </c>
       <c r="G3">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -877,25 +886,25 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="G4">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -904,60 +913,60 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F5">
-        <v>8000000</v>
+        <v>13000000</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -966,34 +975,34 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1001,16 +1010,16 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>8000000</v>
@@ -1019,7 +1028,7 @@
         <v>4000000</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -1028,51 +1037,51 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <v>8000000</v>
@@ -1081,7 +1090,7 @@
         <v>4000000</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1090,34 +1099,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1125,61 +1134,61 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
       <c r="F8">
-        <v>9600000</v>
+        <v>8000000</v>
       </c>
       <c r="G8">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L8">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1187,309 +1196,309 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9">
-        <v>94750000</v>
+        <v>9600000</v>
       </c>
       <c r="G9">
-        <v>379000</v>
+        <v>600000</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I9">
-        <v>147000</v>
+        <v>12000</v>
       </c>
       <c r="J9">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L9">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O9">
-        <v>18.46965699208443</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F10">
-        <v>7000000</v>
+        <v>94750000</v>
       </c>
       <c r="G10">
-        <v>1000000</v>
+        <v>379000</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10">
-        <v>4800</v>
+        <v>147000</v>
       </c>
       <c r="J10">
-        <v>5800</v>
+        <v>200000</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L10">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>18.46965699208443</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>22600000</v>
+        <v>7000000</v>
       </c>
       <c r="G11">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I11">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J11">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L11">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F12">
-        <v>9150000</v>
+        <v>22600000</v>
       </c>
       <c r="G12">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F13">
-        <v>15300000</v>
+        <v>9150000</v>
       </c>
       <c r="G13">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I13">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L13">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1497,123 +1506,123 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14">
-        <v>42000000</v>
+        <v>15300000</v>
       </c>
       <c r="G14">
-        <v>3000000</v>
+        <v>850000</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I14">
-        <v>9200</v>
+        <v>14500</v>
       </c>
       <c r="J14">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L14">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15">
-        <v>8000000</v>
+        <v>42000000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>9200</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1621,123 +1630,123 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16">
-        <v>27000000</v>
+        <v>8000000</v>
       </c>
       <c r="G16">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I16">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L16">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F17">
-        <v>63561100</v>
+        <v>27000000</v>
       </c>
       <c r="G17">
-        <v>8707000</v>
+        <v>1500000</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I17">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J17">
-        <v>6300</v>
+        <v>15000</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17">
-        <v>7300</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O17">
-        <v>40.00229700241185</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1745,123 +1754,123 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F18">
-        <v>22667800</v>
+        <v>63561100</v>
       </c>
       <c r="G18">
-        <v>6667000</v>
+        <v>8707000</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I18">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="J18">
-        <v>2800</v>
+        <v>6300</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L18">
-        <v>3400</v>
+        <v>7300</v>
       </c>
       <c r="M18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>40.00229700241185</v>
       </c>
       <c r="P18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>10918000</v>
+        <v>22667800</v>
       </c>
       <c r="G19">
-        <v>2060000</v>
+        <v>6667000</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I19">
-        <v>4300</v>
+        <v>2400</v>
       </c>
       <c r="J19">
-        <v>4900</v>
+        <v>2800</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L19">
-        <v>5300</v>
+        <v>3400</v>
       </c>
       <c r="M19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1869,61 +1878,123 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F20">
-        <v>11000000</v>
+        <v>10918000</v>
       </c>
       <c r="G20">
-        <v>5500000</v>
+        <v>2060000</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>4900</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L20">
-        <v>2000</v>
+        <v>5300</v>
       </c>
       <c r="M20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T20" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21">
+        <v>11000000</v>
+      </c>
+      <c r="G21">
+        <v>5500000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>2000</v>
+      </c>
+      <c r="J21">
+        <v>2000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21">
+        <v>2000</v>
+      </c>
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" t="s">
+        <v>85</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" t="s">
+        <v>105</v>
+      </c>
+      <c r="S21" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
   <si>
     <t>청약일</t>
   </si>
@@ -109,9 +109,6 @@
     <t>2024-01-16</t>
   </si>
   <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
     <t>오상헬스케어</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>우진엔텍</t>
   </si>
   <si>
-    <t>대신밸런스제17호스팩</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>KB</t>
   </si>
   <si>
-    <t>대신</t>
-  </si>
-  <si>
     <t>2024-03-07</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
     <t>2024-01-19</t>
   </si>
   <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
     <t>2024-03-13</t>
   </si>
   <si>
@@ -329,9 +317,6 @@
   </si>
   <si>
     <t>2707.18 : 1</t>
-  </si>
-  <si>
-    <t>1240.15 : 1</t>
   </si>
 </sst>
 </file>
@@ -689,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,16 +747,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>19800000</v>
@@ -780,7 +765,7 @@
         <v>990000</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>13000</v>
@@ -789,34 +774,34 @@
         <v>15000</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L2">
         <v>20000</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -824,16 +809,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>28404000</v>
@@ -842,7 +827,7 @@
         <v>2104000</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>9000</v>
@@ -851,34 +836,34 @@
         <v>11000</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L3">
         <v>13500</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -886,16 +871,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4">
         <v>10000000</v>
@@ -904,7 +889,7 @@
         <v>5000000</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -913,34 +898,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -948,16 +933,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>13000000</v>
@@ -966,7 +951,7 @@
         <v>6500000</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -975,34 +960,34 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" t="s">
-        <v>89</v>
-      </c>
       <c r="S5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1010,13 +995,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1028,7 +1013,7 @@
         <v>4000000</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -1037,34 +1022,34 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="S6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1072,16 +1057,16 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>8000000</v>
@@ -1090,7 +1075,7 @@
         <v>4000000</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1099,34 +1084,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1134,16 +1119,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>8000000</v>
@@ -1152,7 +1137,7 @@
         <v>4000000</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -1161,34 +1146,34 @@
         <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L8">
         <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1196,16 +1181,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>9600000</v>
@@ -1214,7 +1199,7 @@
         <v>600000</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>12000</v>
@@ -1223,34 +1208,34 @@
         <v>14000</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L9">
         <v>16000</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1258,16 +1243,16 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>94750000</v>
@@ -1276,7 +1261,7 @@
         <v>379000</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>147000</v>
@@ -1285,34 +1270,34 @@
         <v>200000</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L10">
         <v>250000</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O10">
         <v>18.46965699208443</v>
       </c>
       <c r="P10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="S10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1320,13 +1305,13 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -1338,7 +1323,7 @@
         <v>1000000</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>4800</v>
@@ -1347,34 +1332,34 @@
         <v>5800</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L11">
         <v>7000</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1382,16 +1367,16 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>22600000</v>
@@ -1400,7 +1385,7 @@
         <v>1130000</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I12">
         <v>14500</v>
@@ -1409,34 +1394,34 @@
         <v>18500</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L12">
         <v>20000</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1444,16 +1429,16 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>9150000</v>
@@ -1462,7 +1447,7 @@
         <v>4575000</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1471,34 +1456,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1506,16 +1491,16 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <v>15300000</v>
@@ -1524,7 +1509,7 @@
         <v>850000</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I14">
         <v>14500</v>
@@ -1533,34 +1518,34 @@
         <v>16500</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L14">
         <v>18000</v>
       </c>
       <c r="M14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1568,16 +1553,16 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F15">
         <v>42000000</v>
@@ -1586,7 +1571,7 @@
         <v>3000000</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I15">
         <v>9200</v>
@@ -1595,34 +1580,34 @@
         <v>11000</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L15">
         <v>14000</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1630,16 +1615,16 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <v>8000000</v>
@@ -1648,7 +1633,7 @@
         <v>4000000</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I16">
         <v>2000</v>
@@ -1657,34 +1642,34 @@
         <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L16">
         <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1692,16 +1677,16 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F17">
         <v>27000000</v>
@@ -1710,7 +1695,7 @@
         <v>1500000</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I17">
         <v>13000</v>
@@ -1719,34 +1704,34 @@
         <v>15000</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L17">
         <v>18000</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1754,16 +1739,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>63561100</v>
@@ -1772,7 +1757,7 @@
         <v>8707000</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I18">
         <v>5000</v>
@@ -1781,34 +1766,34 @@
         <v>6300</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L18">
         <v>7300</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O18">
         <v>40.00229700241185</v>
       </c>
       <c r="P18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1816,13 +1801,13 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -1834,7 +1819,7 @@
         <v>6667000</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I19">
         <v>2400</v>
@@ -1843,34 +1828,34 @@
         <v>2800</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L19">
         <v>3400</v>
       </c>
       <c r="M19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1878,16 +1863,16 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F20">
         <v>10918000</v>
@@ -1896,7 +1881,7 @@
         <v>2060000</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>4300</v>
@@ -1905,96 +1890,34 @@
         <v>4900</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L20">
         <v>5300</v>
       </c>
       <c r="M20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21">
-        <v>11000000</v>
-      </c>
-      <c r="G21">
-        <v>5500000</v>
-      </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21">
-        <v>2000</v>
-      </c>
-      <c r="J21">
-        <v>2000</v>
-      </c>
-      <c r="K21" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21">
-        <v>2000</v>
-      </c>
-      <c r="M21" t="s">
-        <v>85</v>
-      </c>
-      <c r="N21" t="s">
-        <v>85</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R21" t="s">
-        <v>105</v>
-      </c>
-      <c r="S21" t="s">
-        <v>85</v>
-      </c>
-      <c r="T21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
   <si>
     <t>청약일</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2024-01-17</t>
   </si>
   <si>
-    <t>2024-01-16</t>
-  </si>
-  <si>
     <t>오상헬스케어</t>
   </si>
   <si>
@@ -160,12 +157,6 @@
     <t>현대힘스</t>
   </si>
   <si>
-    <t>HB인베스트먼트</t>
-  </si>
-  <si>
-    <t>우진엔텍</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>미래</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>2024-03-07</t>
   </si>
   <si>
@@ -238,9 +226,6 @@
     <t>2024-01-22</t>
   </si>
   <si>
-    <t>2024-01-19</t>
-  </si>
-  <si>
     <t>2024-03-13</t>
   </si>
   <si>
@@ -256,9 +241,6 @@
     <t>2024-01-29</t>
   </si>
   <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -311,12 +293,6 @@
   </si>
   <si>
     <t>1231.2 : 1</t>
-  </si>
-  <si>
-    <t>892.559 : 1</t>
-  </si>
-  <si>
-    <t>2707.18 : 1</t>
   </si>
 </sst>
 </file>
@@ -674,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>19800000</v>
@@ -765,7 +741,7 @@
         <v>990000</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>13000</v>
@@ -774,34 +750,34 @@
         <v>15000</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L2">
         <v>20000</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -809,16 +785,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>28404000</v>
@@ -827,7 +803,7 @@
         <v>2104000</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>9000</v>
@@ -836,34 +812,34 @@
         <v>11000</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L3">
         <v>13500</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -871,16 +847,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>10000000</v>
@@ -889,7 +865,7 @@
         <v>5000000</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -898,34 +874,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -933,16 +909,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>13000000</v>
@@ -951,7 +927,7 @@
         <v>6500000</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -960,34 +936,34 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -995,13 +971,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1013,7 +989,7 @@
         <v>4000000</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -1022,34 +998,34 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1057,16 +1033,16 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>8000000</v>
@@ -1075,7 +1051,7 @@
         <v>4000000</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1084,34 +1060,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7" t="s">
-        <v>87</v>
-      </c>
       <c r="S7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1119,16 +1095,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>8000000</v>
@@ -1137,7 +1113,7 @@
         <v>4000000</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -1146,34 +1122,34 @@
         <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L8">
         <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1181,16 +1157,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>9600000</v>
@@ -1199,7 +1175,7 @@
         <v>600000</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I9">
         <v>12000</v>
@@ -1208,34 +1184,34 @@
         <v>14000</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L9">
         <v>16000</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1243,16 +1219,16 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>94750000</v>
@@ -1261,7 +1237,7 @@
         <v>379000</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I10">
         <v>147000</v>
@@ -1270,34 +1246,34 @@
         <v>200000</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L10">
         <v>250000</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O10">
         <v>18.46965699208443</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1305,13 +1281,13 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -1323,7 +1299,7 @@
         <v>1000000</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I11">
         <v>4800</v>
@@ -1332,34 +1308,34 @@
         <v>5800</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L11">
         <v>7000</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1367,16 +1343,16 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <v>22600000</v>
@@ -1385,7 +1361,7 @@
         <v>1130000</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I12">
         <v>14500</v>
@@ -1394,34 +1370,34 @@
         <v>18500</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L12">
         <v>20000</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1429,16 +1405,16 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F13">
         <v>9150000</v>
@@ -1447,7 +1423,7 @@
         <v>4575000</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1456,34 +1432,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1491,16 +1467,16 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F14">
         <v>15300000</v>
@@ -1509,7 +1485,7 @@
         <v>850000</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I14">
         <v>14500</v>
@@ -1518,34 +1494,34 @@
         <v>16500</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L14">
         <v>18000</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="S14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1553,16 +1529,16 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F15">
         <v>42000000</v>
@@ -1571,7 +1547,7 @@
         <v>3000000</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <v>9200</v>
@@ -1580,34 +1556,34 @@
         <v>11000</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L15">
         <v>14000</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="S15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1615,16 +1591,16 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <v>8000000</v>
@@ -1633,7 +1609,7 @@
         <v>4000000</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I16">
         <v>2000</v>
@@ -1642,34 +1618,34 @@
         <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L16">
         <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="S16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1677,16 +1653,16 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F17">
         <v>27000000</v>
@@ -1695,7 +1671,7 @@
         <v>1500000</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I17">
         <v>13000</v>
@@ -1704,34 +1680,34 @@
         <v>15000</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L17">
         <v>18000</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="S17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1739,16 +1715,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F18">
         <v>63561100</v>
@@ -1757,7 +1733,7 @@
         <v>8707000</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I18">
         <v>5000</v>
@@ -1766,158 +1742,34 @@
         <v>6300</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L18">
         <v>7300</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O18">
         <v>40.00229700241185</v>
       </c>
       <c r="P18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="S18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19">
-        <v>22667800</v>
-      </c>
-      <c r="G19">
-        <v>6667000</v>
-      </c>
-      <c r="H19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19">
-        <v>2400</v>
-      </c>
-      <c r="J19">
-        <v>2800</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19">
-        <v>3400</v>
-      </c>
-      <c r="M19" t="s">
-        <v>81</v>
-      </c>
-      <c r="N19" t="s">
-        <v>81</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R19" t="s">
-        <v>99</v>
-      </c>
-      <c r="S19" t="s">
-        <v>81</v>
-      </c>
-      <c r="T19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20">
-        <v>10918000</v>
-      </c>
-      <c r="G20">
-        <v>2060000</v>
-      </c>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20">
-        <v>4300</v>
-      </c>
-      <c r="J20">
-        <v>4900</v>
-      </c>
-      <c r="K20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20">
-        <v>5300</v>
-      </c>
-      <c r="M20" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>81</v>
-      </c>
-      <c r="R20" t="s">
-        <v>100</v>
-      </c>
-      <c r="S20" t="s">
-        <v>81</v>
-      </c>
-      <c r="T20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
     <t>2024-03-04</t>
   </si>
   <si>
@@ -103,7 +106,7 @@
     <t>2024-01-23</t>
   </si>
   <si>
-    <t>2024-01-17</t>
+    <t>삼현</t>
   </si>
   <si>
     <t>오상헬스케어</t>
@@ -151,10 +154,7 @@
     <t>IBKS제24호스팩</t>
   </si>
   <si>
-    <t>포스뱅크</t>
-  </si>
-  <si>
-    <t>현대힘스</t>
+    <t>한국</t>
   </si>
   <si>
     <t>NH</t>
@@ -199,7 +199,7 @@
     <t>IBK</t>
   </si>
   <si>
-    <t>미래</t>
+    <t>2024-03-15</t>
   </si>
   <si>
     <t>2024-03-07</t>
@@ -223,7 +223,7 @@
     <t>2024-01-26</t>
   </si>
   <si>
-    <t>2024-01-22</t>
+    <t>2024-03-21</t>
   </si>
   <si>
     <t>2024-03-13</t>
@@ -238,12 +238,12 @@
     <t>2024-02-01</t>
   </si>
   <si>
-    <t>2024-01-29</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>1645.13 : 1</t>
+  </si>
+  <si>
     <t>2126.13 : 1</t>
   </si>
   <si>
@@ -287,12 +287,6 @@
   </si>
   <si>
     <t>940.84 : 1</t>
-  </si>
-  <si>
-    <t>1397.07 : 1</t>
-  </si>
-  <si>
-    <t>1231.2 : 1</t>
   </si>
 </sst>
 </file>
@@ -650,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,58 +720,58 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>19800000</v>
+        <v>60000000</v>
       </c>
       <c r="G2">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J2">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" t="s">
-        <v>76</v>
-      </c>
       <c r="S2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -788,58 +782,58 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>28404000</v>
+        <v>19800000</v>
       </c>
       <c r="G3">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J3">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -850,58 +844,58 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F4">
-        <v>10000000</v>
+        <v>28404000</v>
       </c>
       <c r="G4">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -912,22 +906,22 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="G5">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -936,60 +930,60 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F6">
-        <v>8000000</v>
+        <v>13000000</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -998,34 +992,34 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1036,13 +1030,13 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>8000000</v>
@@ -1051,7 +1045,7 @@
         <v>4000000</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1060,51 +1054,51 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>8000000</v>
@@ -1113,7 +1107,7 @@
         <v>4000000</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -1122,34 +1116,34 @@
         <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8">
         <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1160,58 +1154,58 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9">
-        <v>9600000</v>
+        <v>8000000</v>
       </c>
       <c r="G9">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1222,255 +1216,255 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10">
-        <v>94750000</v>
+        <v>9600000</v>
       </c>
       <c r="G10">
-        <v>379000</v>
+        <v>600000</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10">
-        <v>147000</v>
+        <v>12000</v>
       </c>
       <c r="J10">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O10">
-        <v>18.46965699208443</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F11">
-        <v>7000000</v>
+        <v>94750000</v>
       </c>
       <c r="G11">
-        <v>1000000</v>
+        <v>379000</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11">
-        <v>4800</v>
+        <v>147000</v>
       </c>
       <c r="J11">
-        <v>5800</v>
+        <v>200000</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>18.46965699208443</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>22600000</v>
+        <v>7000000</v>
       </c>
       <c r="G12">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J12">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F13">
-        <v>9150000</v>
+        <v>22600000</v>
       </c>
       <c r="G13">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>67</v>
@@ -1479,49 +1473,49 @@
         <v>72</v>
       </c>
       <c r="F14">
-        <v>15300000</v>
+        <v>9150000</v>
       </c>
       <c r="G14">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1532,69 +1526,69 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15">
-        <v>42000000</v>
+        <v>15300000</v>
       </c>
       <c r="G15">
-        <v>3000000</v>
+        <v>850000</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15">
-        <v>9200</v>
+        <v>14500</v>
       </c>
       <c r="J15">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L15">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
@@ -1603,49 +1597,49 @@
         <v>73</v>
       </c>
       <c r="F16">
-        <v>8000000</v>
+        <v>42000000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>9200</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L16">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1656,120 +1650,58 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17">
-        <v>27000000</v>
+        <v>8000000</v>
       </c>
       <c r="G17">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I17">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L17">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18">
-        <v>63561100</v>
-      </c>
-      <c r="G18">
-        <v>8707000</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18">
-        <v>5000</v>
-      </c>
-      <c r="J18">
-        <v>6300</v>
-      </c>
-      <c r="K18" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18">
-        <v>7300</v>
-      </c>
-      <c r="M18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18">
-        <v>40.00229700241185</v>
-      </c>
-      <c r="P18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>75</v>
-      </c>
-      <c r="R18" t="s">
-        <v>92</v>
-      </c>
-      <c r="S18" t="s">
-        <v>75</v>
-      </c>
-      <c r="T18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="87">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
     <t>2024-03-12</t>
   </si>
   <si>
@@ -103,7 +106,7 @@
     <t>2024-01-25</t>
   </si>
   <si>
-    <t>2024-01-23</t>
+    <t>엔젤로보틱스</t>
   </si>
   <si>
     <t>삼현</t>
@@ -148,18 +151,12 @@
     <t>스튜디오삼익</t>
   </si>
   <si>
-    <t>이닉스</t>
-  </si>
-  <si>
-    <t>IBKS제24호스팩</t>
+    <t>NH</t>
   </si>
   <si>
     <t>한국</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>DB, NH</t>
   </si>
   <si>
@@ -193,10 +190,7 @@
     <t>DB</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>IBK</t>
+    <t>2024-03-19</t>
   </si>
   <si>
     <t>2024-03-15</t>
@@ -220,7 +214,7 @@
     <t>2024-01-30</t>
   </si>
   <si>
-    <t>2024-01-26</t>
+    <t>2024-03-26</t>
   </si>
   <si>
     <t>2024-03-21</t>
@@ -235,12 +229,12 @@
     <t>2024-02-06</t>
   </si>
   <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>2242.016 : 1</t>
+  </si>
+  <si>
     <t>1645.13 : 1</t>
   </si>
   <si>
@@ -281,12 +275,6 @@
   </si>
   <si>
     <t>2650.33 : 1</t>
-  </si>
-  <si>
-    <t>1997.39 : 1</t>
-  </si>
-  <si>
-    <t>940.84 : 1</t>
   </si>
 </sst>
 </file>
@@ -644,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,58 +708,58 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2">
-        <v>60000000</v>
+        <v>32000000</v>
       </c>
       <c r="G2">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I2">
+        <v>11000</v>
+      </c>
+      <c r="J2">
+        <v>15000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2">
         <v>20000</v>
       </c>
-      <c r="J2">
-        <v>25000</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2">
-        <v>30000</v>
-      </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -782,58 +770,58 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>19800000</v>
+        <v>60000000</v>
       </c>
       <c r="G3">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I3">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -844,58 +832,58 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F4">
-        <v>28404000</v>
+        <v>19800000</v>
       </c>
       <c r="G4">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I4">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L4">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" t="s">
-        <v>77</v>
-      </c>
       <c r="S4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -906,58 +894,58 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>10000000</v>
+        <v>28404000</v>
       </c>
       <c r="G5">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -968,22 +956,22 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F6">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="G6">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -992,60 +980,60 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F7">
-        <v>8000000</v>
+        <v>13000000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1054,34 +1042,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1092,13 +1080,13 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>8000000</v>
@@ -1107,7 +1095,7 @@
         <v>4000000</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -1116,51 +1104,51 @@
         <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L8">
         <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>8000000</v>
@@ -1169,7 +1157,7 @@
         <v>4000000</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1178,34 +1166,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1216,58 +1204,58 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F10">
-        <v>9600000</v>
+        <v>8000000</v>
       </c>
       <c r="G10">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I10">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L10">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1278,306 +1266,306 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11">
-        <v>94750000</v>
+        <v>9600000</v>
       </c>
       <c r="G11">
-        <v>379000</v>
+        <v>600000</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I11">
-        <v>147000</v>
+        <v>12000</v>
       </c>
       <c r="J11">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L11">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O11">
-        <v>18.46965699208443</v>
+        <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="F12">
-        <v>7000000</v>
+        <v>94750000</v>
       </c>
       <c r="G12">
-        <v>1000000</v>
+        <v>379000</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I12">
-        <v>4800</v>
+        <v>147000</v>
       </c>
       <c r="J12">
-        <v>5800</v>
+        <v>200000</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L12">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>18.46965699208443</v>
       </c>
       <c r="P12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F13">
-        <v>22600000</v>
+        <v>7000000</v>
       </c>
       <c r="G13">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I13">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J13">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F14">
-        <v>9150000</v>
+        <v>22600000</v>
       </c>
       <c r="G14">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L14">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15">
-        <v>15300000</v>
+        <v>9150000</v>
       </c>
       <c r="G15">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L15">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1588,120 +1576,58 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F16">
-        <v>42000000</v>
+        <v>15300000</v>
       </c>
       <c r="G16">
-        <v>3000000</v>
+        <v>850000</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I16">
-        <v>9200</v>
+        <v>14500</v>
       </c>
       <c r="J16">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L16">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17">
-        <v>8000000</v>
-      </c>
-      <c r="G17">
-        <v>4000000</v>
-      </c>
-      <c r="H17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17">
-        <v>2000</v>
-      </c>
-      <c r="J17">
-        <v>2000</v>
-      </c>
-      <c r="K17" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17">
-        <v>2000</v>
-      </c>
-      <c r="M17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R17" t="s">
-        <v>90</v>
-      </c>
-      <c r="S17" t="s">
-        <v>74</v>
-      </c>
-      <c r="T17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
     <t>2024-03-14</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>2024-01-25</t>
   </si>
   <si>
+    <t>하나32호스팩</t>
+  </si>
+  <si>
     <t>엔젤로보틱스</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
     <t>스튜디오삼익</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -160,9 +169,6 @@
     <t>DB, NH</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t>DB</t>
   </si>
   <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
     <t>2024-03-19</t>
   </si>
   <si>
@@ -214,12 +223,12 @@
     <t>2024-01-30</t>
   </si>
   <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
     <t>2024-03-26</t>
   </si>
   <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
     <t>2024-03-13</t>
   </si>
   <si>
@@ -230,6 +239,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>2389.8 : 1</t>
   </si>
   <si>
     <t>2242.016 : 1</t>
@@ -632,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,61 +717,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>32000000</v>
+        <v>6000000</v>
       </c>
       <c r="G2">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I2">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L2">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -767,61 +779,61 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>60000000</v>
+        <v>32000000</v>
       </c>
       <c r="G3">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I3">
+        <v>11000</v>
+      </c>
+      <c r="J3">
+        <v>15000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3">
         <v>20000</v>
       </c>
-      <c r="J3">
-        <v>25000</v>
-      </c>
-      <c r="K3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3">
-        <v>30000</v>
-      </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -829,61 +841,61 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
       <c r="F4">
-        <v>19800000</v>
+        <v>60000000</v>
       </c>
       <c r="G4">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I4">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J4">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L4">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -891,61 +903,61 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>28404000</v>
+        <v>19800000</v>
       </c>
       <c r="G5">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I5">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L5">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -953,61 +965,61 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F6">
-        <v>10000000</v>
+        <v>28404000</v>
       </c>
       <c r="G6">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1015,25 +1027,25 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F7">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="G7">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1042,60 +1054,60 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F8">
-        <v>8000000</v>
+        <v>13000000</v>
       </c>
       <c r="G8">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -1104,34 +1116,34 @@
         <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L8">
         <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1139,16 +1151,16 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>8000000</v>
@@ -1157,7 +1169,7 @@
         <v>4000000</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1166,51 +1178,51 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>8000000</v>
@@ -1219,7 +1231,7 @@
         <v>4000000</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1228,34 +1240,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1263,61 +1275,61 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
       <c r="F11">
-        <v>9600000</v>
+        <v>8000000</v>
       </c>
       <c r="G11">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L11">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1325,309 +1337,371 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F12">
-        <v>94750000</v>
+        <v>9600000</v>
       </c>
       <c r="G12">
-        <v>379000</v>
+        <v>600000</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I12">
-        <v>147000</v>
+        <v>12000</v>
       </c>
       <c r="J12">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L12">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O12">
-        <v>18.46965699208443</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F13">
-        <v>7000000</v>
+        <v>94750000</v>
       </c>
       <c r="G13">
-        <v>1000000</v>
+        <v>379000</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I13">
-        <v>4800</v>
+        <v>147000</v>
       </c>
       <c r="J13">
-        <v>5800</v>
+        <v>200000</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>18.46965699208443</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>22600000</v>
+        <v>7000000</v>
       </c>
       <c r="G14">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I14">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J14">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L14">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F15">
-        <v>9150000</v>
+        <v>22600000</v>
       </c>
       <c r="G15">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F16">
-        <v>15300000</v>
+        <v>9150000</v>
       </c>
       <c r="G16">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I16">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L16">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17">
+        <v>15300000</v>
+      </c>
+      <c r="G17">
+        <v>850000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17">
+        <v>14500</v>
+      </c>
+      <c r="J17">
+        <v>16500</v>
+      </c>
+      <c r="K17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17">
+        <v>18000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17" t="s">
+        <v>74</v>
+      </c>
+      <c r="T17" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
   <si>
     <t>청약일</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2024-02-14</t>
   </si>
   <si>
-    <t>2024-01-25</t>
-  </si>
-  <si>
     <t>하나32호스팩</t>
   </si>
   <si>
@@ -151,12 +148,6 @@
     <t>이에이트</t>
   </si>
   <si>
-    <t>신영스팩10호</t>
-  </si>
-  <si>
-    <t>스튜디오삼익</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
@@ -190,12 +181,6 @@
     <t>한화</t>
   </si>
   <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
     <t>2024-03-21</t>
   </si>
   <si>
@@ -220,9 +205,6 @@
     <t>2024-02-16</t>
   </si>
   <si>
-    <t>2024-01-30</t>
-  </si>
-  <si>
     <t>2024-03-27</t>
   </si>
   <si>
@@ -235,9 +217,6 @@
     <t>2024-03-05</t>
   </si>
   <si>
-    <t>2024-02-06</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -281,12 +260,6 @@
   </si>
   <si>
     <t>381.16 : 1</t>
-  </si>
-  <si>
-    <t>817.09 : 1</t>
-  </si>
-  <si>
-    <t>2650.33 : 1</t>
   </si>
 </sst>
 </file>
@@ -644,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,16 +690,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>6000000</v>
@@ -735,7 +708,7 @@
         <v>3000000</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -744,34 +717,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -779,16 +752,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>32000000</v>
@@ -797,7 +770,7 @@
         <v>1600000</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I3">
         <v>11000</v>
@@ -806,34 +779,34 @@
         <v>15000</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L3">
         <v>20000</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -841,16 +814,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>60000000</v>
@@ -859,7 +832,7 @@
         <v>2000000</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I4">
         <v>20000</v>
@@ -868,34 +841,34 @@
         <v>25000</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L4">
         <v>30000</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -903,16 +876,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>19800000</v>
@@ -921,7 +894,7 @@
         <v>990000</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I5">
         <v>13000</v>
@@ -930,34 +903,34 @@
         <v>15000</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L5">
         <v>20000</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -965,16 +938,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>28404000</v>
@@ -983,7 +956,7 @@
         <v>2104000</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I6">
         <v>9000</v>
@@ -992,34 +965,34 @@
         <v>11000</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L6">
         <v>13500</v>
       </c>
       <c r="M6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1027,16 +1000,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>10000000</v>
@@ -1045,7 +1018,7 @@
         <v>5000000</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1054,34 +1027,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1089,16 +1062,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>13000000</v>
@@ -1107,7 +1080,7 @@
         <v>6500000</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -1116,34 +1089,34 @@
         <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L8">
         <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" t="s">
-        <v>81</v>
-      </c>
       <c r="S8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1151,13 +1124,13 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1169,7 +1142,7 @@
         <v>4000000</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1178,34 +1151,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1213,16 +1186,16 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>8000000</v>
@@ -1231,7 +1204,7 @@
         <v>4000000</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1240,34 +1213,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1275,16 +1248,16 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F11">
         <v>8000000</v>
@@ -1293,7 +1266,7 @@
         <v>4000000</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1302,34 +1275,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1337,16 +1310,16 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <v>9600000</v>
@@ -1355,7 +1328,7 @@
         <v>600000</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I12">
         <v>12000</v>
@@ -1364,34 +1337,34 @@
         <v>14000</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L12">
         <v>16000</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1399,16 +1372,16 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <v>94750000</v>
@@ -1417,7 +1390,7 @@
         <v>379000</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I13">
         <v>147000</v>
@@ -1426,34 +1399,34 @@
         <v>200000</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L13">
         <v>250000</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O13">
         <v>18.46965699208443</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1461,13 +1434,13 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -1479,7 +1452,7 @@
         <v>1000000</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I14">
         <v>4800</v>
@@ -1488,34 +1461,34 @@
         <v>5800</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L14">
         <v>7000</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1523,16 +1496,16 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F15">
         <v>22600000</v>
@@ -1541,7 +1514,7 @@
         <v>1130000</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I15">
         <v>14500</v>
@@ -1550,158 +1523,34 @@
         <v>18500</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L15">
         <v>20000</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16">
-        <v>9150000</v>
-      </c>
-      <c r="G16">
-        <v>4575000</v>
-      </c>
-      <c r="H16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16">
-        <v>2000</v>
-      </c>
-      <c r="J16">
-        <v>2000</v>
-      </c>
-      <c r="K16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16">
-        <v>2000</v>
-      </c>
-      <c r="M16" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" t="s">
-        <v>89</v>
-      </c>
-      <c r="S16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17">
-        <v>15300000</v>
-      </c>
-      <c r="G17">
-        <v>850000</v>
-      </c>
-      <c r="H17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17">
-        <v>14500</v>
-      </c>
-      <c r="J17">
-        <v>16500</v>
-      </c>
-      <c r="K17" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17">
-        <v>18000</v>
-      </c>
-      <c r="M17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R17" t="s">
-        <v>90</v>
-      </c>
-      <c r="S17" t="s">
-        <v>74</v>
-      </c>
-      <c r="T17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="88">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
     <t>2024-03-18</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>2024-02-14</t>
   </si>
   <si>
+    <t>아이엠비디엑스</t>
+  </si>
+  <si>
     <t>하나32호스팩</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>이에이트</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>하나</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
     <t>한화</t>
   </si>
   <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
     <t>2024-03-21</t>
   </si>
   <si>
@@ -205,6 +217,9 @@
     <t>2024-02-16</t>
   </si>
   <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
     <t>2024-03-27</t>
   </si>
   <si>
@@ -218,6 +233,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>2654.2 : 1</t>
   </si>
   <si>
     <t>2389.8 : 1</t>
@@ -617,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>6000000</v>
+        <v>32500000</v>
       </c>
       <c r="G2">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -752,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>32000000</v>
+        <v>6000000</v>
       </c>
       <c r="G3">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I3">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L3">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -814,61 +832,61 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>60000000</v>
+        <v>32000000</v>
       </c>
       <c r="G4">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I4">
+        <v>11000</v>
+      </c>
+      <c r="J4">
+        <v>15000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4">
         <v>20000</v>
       </c>
-      <c r="J4">
-        <v>25000</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4">
-        <v>30000</v>
-      </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -876,61 +894,61 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F5">
-        <v>19800000</v>
+        <v>60000000</v>
       </c>
       <c r="G5">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J5">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L5">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -938,61 +956,61 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>28404000</v>
+        <v>19800000</v>
       </c>
       <c r="G6">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I6">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L6">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1000,61 +1018,61 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F7">
-        <v>10000000</v>
+        <v>28404000</v>
       </c>
       <c r="G7">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1062,25 +1080,25 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F8">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="G8">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -1089,60 +1107,60 @@
         <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L8">
         <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F9">
-        <v>8000000</v>
+        <v>13000000</v>
       </c>
       <c r="G9">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1151,34 +1169,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1186,16 +1204,16 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>8000000</v>
@@ -1204,7 +1222,7 @@
         <v>4000000</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1213,51 +1231,51 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>8000000</v>
@@ -1266,7 +1284,7 @@
         <v>4000000</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1275,34 +1293,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1310,61 +1328,61 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12">
-        <v>9600000</v>
+        <v>8000000</v>
       </c>
       <c r="G12">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I12">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L12">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1372,185 +1390,247 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F13">
-        <v>94750000</v>
+        <v>9600000</v>
       </c>
       <c r="G13">
-        <v>379000</v>
+        <v>600000</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I13">
-        <v>147000</v>
+        <v>12000</v>
       </c>
       <c r="J13">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L13">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O13">
-        <v>18.46965699208443</v>
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="S13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F14">
-        <v>7000000</v>
+        <v>94750000</v>
       </c>
       <c r="G14">
-        <v>1000000</v>
+        <v>379000</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I14">
-        <v>4800</v>
+        <v>147000</v>
       </c>
       <c r="J14">
-        <v>5800</v>
+        <v>200000</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L14">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>18.46965699208443</v>
       </c>
       <c r="P14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>22600000</v>
+        <v>7000000</v>
       </c>
       <c r="G15">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I15">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J15">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L15">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="S15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>22600000</v>
+      </c>
+      <c r="G16">
+        <v>1130000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16">
+        <v>14500</v>
+      </c>
+      <c r="J16">
+        <v>18500</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16">
+        <v>20000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R16" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="85">
   <si>
     <t>청약일</t>
   </si>
@@ -109,9 +109,6 @@
     <t>2024-02-13</t>
   </si>
   <si>
-    <t>2024-02-14</t>
-  </si>
-  <si>
     <t>신한제12호스팩</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>코셈</t>
   </si>
   <si>
-    <t>에이피알</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
   </si>
   <si>
     <t>2518.4 : 1</t>
-  </si>
-  <si>
-    <t>1113 : 1</t>
   </si>
 </sst>
 </file>
@@ -635,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,16 +699,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>10000000</v>
@@ -726,7 +717,7 @@
         <v>5000000</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -735,34 +726,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -770,16 +761,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>32500000</v>
@@ -788,7 +779,7 @@
         <v>2500000</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3">
         <v>7700</v>
@@ -797,34 +788,34 @@
         <v>9900</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L3">
         <v>13000</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" t="s">
-        <v>75</v>
-      </c>
       <c r="S3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -832,16 +823,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>6000000</v>
@@ -850,7 +841,7 @@
         <v>3000000</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -859,34 +850,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -894,16 +885,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>32000000</v>
@@ -912,7 +903,7 @@
         <v>1600000</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5">
         <v>11000</v>
@@ -921,34 +912,34 @@
         <v>15000</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L5">
         <v>20000</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -956,16 +947,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6">
         <v>60000000</v>
@@ -974,7 +965,7 @@
         <v>2000000</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>20000</v>
@@ -983,34 +974,34 @@
         <v>25000</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L6">
         <v>30000</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1018,16 +1009,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>19800000</v>
@@ -1036,7 +1027,7 @@
         <v>990000</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I7">
         <v>13000</v>
@@ -1045,34 +1036,34 @@
         <v>15000</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L7">
         <v>20000</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1080,16 +1071,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>28404000</v>
@@ -1098,7 +1089,7 @@
         <v>2104000</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I8">
         <v>9000</v>
@@ -1107,34 +1098,34 @@
         <v>11000</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L8">
         <v>13500</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1142,16 +1133,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>10000000</v>
@@ -1160,7 +1151,7 @@
         <v>5000000</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1169,34 +1160,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1204,16 +1195,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10">
         <v>13000000</v>
@@ -1222,7 +1213,7 @@
         <v>6500000</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1231,34 +1222,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1266,13 +1257,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1284,7 +1275,7 @@
         <v>4000000</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1293,34 +1284,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1328,16 +1319,16 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>8000000</v>
@@ -1346,7 +1337,7 @@
         <v>4000000</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1355,34 +1346,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1390,16 +1381,16 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13">
         <v>8000000</v>
@@ -1408,7 +1399,7 @@
         <v>4000000</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1417,34 +1408,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1452,16 +1443,16 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>9600000</v>
@@ -1470,7 +1461,7 @@
         <v>600000</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14">
         <v>12000</v>
@@ -1479,96 +1470,34 @@
         <v>14000</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L14">
         <v>16000</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15">
-        <v>94750000</v>
-      </c>
-      <c r="G15">
-        <v>379000</v>
-      </c>
-      <c r="H15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15">
-        <v>147000</v>
-      </c>
-      <c r="J15">
-        <v>200000</v>
-      </c>
-      <c r="K15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15">
-        <v>250000</v>
-      </c>
-      <c r="M15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15">
-        <v>18.46965699208443</v>
-      </c>
-      <c r="P15" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" t="s">
-        <v>87</v>
-      </c>
-      <c r="S15" t="s">
-        <v>73</v>
-      </c>
-      <c r="T15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
   <si>
     <t>청약일</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2024-02-19</t>
   </si>
   <si>
-    <t>2024-02-13</t>
-  </si>
-  <si>
     <t>신한제12호스팩</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>유진스팩10호</t>
   </si>
   <si>
-    <t>코셈</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>유진</t>
   </si>
   <si>
-    <t>키움</t>
-  </si>
-  <si>
     <t>2024-04-05</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
     <t>2024-02-23</t>
   </si>
   <si>
-    <t>2024-02-16</t>
-  </si>
-  <si>
     <t>2024-04-15</t>
   </si>
   <si>
@@ -266,9 +254,6 @@
   </si>
   <si>
     <t>986.89 : 1</t>
-  </si>
-  <si>
-    <t>2518.4 : 1</t>
   </si>
 </sst>
 </file>
@@ -626,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,16 +684,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>10000000</v>
@@ -717,7 +702,7 @@
         <v>5000000</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -726,34 +711,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -761,16 +746,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>32500000</v>
@@ -779,7 +764,7 @@
         <v>2500000</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I3">
         <v>7700</v>
@@ -788,34 +773,34 @@
         <v>9900</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L3">
         <v>13000</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -823,16 +808,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>6000000</v>
@@ -841,7 +826,7 @@
         <v>3000000</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -850,34 +835,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -885,16 +870,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>32000000</v>
@@ -903,7 +888,7 @@
         <v>1600000</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I5">
         <v>11000</v>
@@ -912,34 +897,34 @@
         <v>15000</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L5">
         <v>20000</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" t="s">
-        <v>75</v>
-      </c>
       <c r="S5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -947,16 +932,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>60000000</v>
@@ -965,7 +950,7 @@
         <v>2000000</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I6">
         <v>20000</v>
@@ -974,34 +959,34 @@
         <v>25000</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L6">
         <v>30000</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1009,16 +994,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>19800000</v>
@@ -1027,7 +1012,7 @@
         <v>990000</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>13000</v>
@@ -1036,34 +1021,34 @@
         <v>15000</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L7">
         <v>20000</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1071,16 +1056,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F8">
         <v>28404000</v>
@@ -1089,7 +1074,7 @@
         <v>2104000</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I8">
         <v>9000</v>
@@ -1098,34 +1083,34 @@
         <v>11000</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L8">
         <v>13500</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1133,16 +1118,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>10000000</v>
@@ -1151,7 +1136,7 @@
         <v>5000000</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1160,34 +1145,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1195,16 +1180,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>13000000</v>
@@ -1213,7 +1198,7 @@
         <v>6500000</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1222,34 +1207,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1257,13 +1242,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1275,7 +1260,7 @@
         <v>4000000</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1284,34 +1269,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1319,16 +1304,16 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>8000000</v>
@@ -1337,7 +1322,7 @@
         <v>4000000</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1346,34 +1331,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1381,16 +1366,16 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>8000000</v>
@@ -1399,7 +1384,7 @@
         <v>4000000</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1408,96 +1393,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14">
-        <v>9600000</v>
-      </c>
-      <c r="G14">
-        <v>600000</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14">
-        <v>12000</v>
-      </c>
-      <c r="J14">
-        <v>14000</v>
-      </c>
-      <c r="K14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14">
-        <v>16000</v>
-      </c>
-      <c r="M14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>71</v>
-      </c>
-      <c r="R14" t="s">
-        <v>84</v>
-      </c>
-      <c r="S14" t="s">
-        <v>71</v>
-      </c>
-      <c r="T14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="77">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
     <t>2024-04-02</t>
   </si>
   <si>
@@ -103,7 +106,7 @@
     <t>2024-02-20</t>
   </si>
   <si>
-    <t>2024-02-19</t>
+    <t>신한제13호스팩</t>
   </si>
   <si>
     <t>신한제12호스팩</t>
@@ -136,12 +139,6 @@
     <t>SK증권제11호스팩</t>
   </si>
   <si>
-    <t>비엔케이제2호스팩</t>
-  </si>
-  <si>
-    <t>유진스팩10호</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -166,10 +163,7 @@
     <t>SK</t>
   </si>
   <si>
-    <t>BNK</t>
-  </si>
-  <si>
-    <t>유진</t>
+    <t>2024-04-15</t>
   </si>
   <si>
     <t>2024-04-05</t>
@@ -199,7 +193,7 @@
     <t>2024-02-23</t>
   </si>
   <si>
-    <t>2024-04-15</t>
+    <t>2024-04-22</t>
   </si>
   <si>
     <t>2024-04-03</t>
@@ -220,6 +214,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>1337.88 : 1</t>
+  </si>
+  <si>
     <t>1698.24 : 1</t>
   </si>
   <si>
@@ -248,12 +245,6 @@
   </si>
   <si>
     <t>1245.3 : 1</t>
-  </si>
-  <si>
-    <t>327.3249 : 1</t>
-  </si>
-  <si>
-    <t>986.89 : 1</t>
   </si>
 </sst>
 </file>
@@ -611,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,22 +678,22 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="G2">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -711,34 +702,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -749,58 +740,58 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>32500000</v>
+        <v>10000000</v>
       </c>
       <c r="G3">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I3">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L3">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" t="s">
-        <v>69</v>
-      </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -811,58 +802,58 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>6000000</v>
+        <v>32500000</v>
       </c>
       <c r="G4">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -873,58 +864,58 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>32000000</v>
+        <v>6000000</v>
       </c>
       <c r="G5">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L5">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -935,58 +926,58 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>60000000</v>
+        <v>32000000</v>
       </c>
       <c r="G6">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6">
+        <v>11000</v>
+      </c>
+      <c r="J6">
+        <v>15000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6">
         <v>20000</v>
       </c>
-      <c r="J6">
-        <v>25000</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6">
-        <v>30000</v>
-      </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1000,55 +991,55 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F7">
-        <v>19800000</v>
+        <v>60000000</v>
       </c>
       <c r="G7">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L7">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1059,58 +1050,58 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F8">
-        <v>28404000</v>
+        <v>19800000</v>
       </c>
       <c r="G8">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I8">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J8">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L8">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1121,58 +1112,58 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F9">
-        <v>10000000</v>
+        <v>28404000</v>
       </c>
       <c r="G9">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1183,22 +1174,22 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F10">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="G10">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1207,60 +1198,60 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F11">
-        <v>8000000</v>
+        <v>13000000</v>
       </c>
       <c r="G11">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1269,34 +1260,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1307,13 +1298,13 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>8000000</v>
@@ -1322,7 +1313,7 @@
         <v>4000000</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1331,96 +1322,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13">
-        <v>8000000</v>
-      </c>
-      <c r="G13">
-        <v>4000000</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13">
-        <v>2000</v>
-      </c>
-      <c r="J13">
-        <v>2000</v>
-      </c>
-      <c r="K13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13">
-        <v>2000</v>
-      </c>
-      <c r="M13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>67</v>
-      </c>
-      <c r="R13" t="s">
-        <v>79</v>
-      </c>
-      <c r="S13" t="s">
-        <v>67</v>
-      </c>
-      <c r="T13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
   <si>
     <t>청약일</t>
   </si>
@@ -103,9 +103,6 @@
     <t>2024-02-22</t>
   </si>
   <si>
-    <t>2024-02-20</t>
-  </si>
-  <si>
     <t>신한제13호스팩</t>
   </si>
   <si>
@@ -133,12 +130,6 @@
     <t>하나31호스팩</t>
   </si>
   <si>
-    <t>유안타제15호스팩</t>
-  </si>
-  <si>
-    <t>SK증권제11호스팩</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -157,12 +148,6 @@
     <t>DB, NH</t>
   </si>
   <si>
-    <t>유안타</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
     <t>2024-04-15</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>2024-02-27</t>
   </si>
   <si>
-    <t>2024-02-23</t>
-  </si>
-  <si>
     <t>2024-04-22</t>
   </si>
   <si>
@@ -239,12 +221,6 @@
   </si>
   <si>
     <t>1896.1033 : 1</t>
-  </si>
-  <si>
-    <t>288 : 1</t>
-  </si>
-  <si>
-    <t>1245.3 : 1</t>
   </si>
 </sst>
 </file>
@@ -602,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,16 +651,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>6000000</v>
@@ -693,7 +669,7 @@
         <v>3000000</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -702,34 +678,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -737,16 +713,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>10000000</v>
@@ -755,7 +731,7 @@
         <v>5000000</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -764,34 +740,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -799,16 +775,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>32500000</v>
@@ -817,7 +793,7 @@
         <v>2500000</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I4">
         <v>7700</v>
@@ -826,34 +802,34 @@
         <v>9900</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L4">
         <v>13000</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -861,16 +837,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>6000000</v>
@@ -879,7 +855,7 @@
         <v>3000000</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -888,34 +864,34 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -923,16 +899,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>32000000</v>
@@ -941,7 +917,7 @@
         <v>1600000</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I6">
         <v>11000</v>
@@ -950,34 +926,34 @@
         <v>15000</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L6">
         <v>20000</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="S6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -985,16 +961,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>60000000</v>
@@ -1003,7 +979,7 @@
         <v>2000000</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I7">
         <v>20000</v>
@@ -1012,34 +988,34 @@
         <v>25000</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L7">
         <v>30000</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" t="s">
-        <v>71</v>
-      </c>
       <c r="S7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1047,16 +1023,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F8">
         <v>19800000</v>
@@ -1065,7 +1041,7 @@
         <v>990000</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I8">
         <v>13000</v>
@@ -1074,34 +1050,34 @@
         <v>15000</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L8">
         <v>20000</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1109,16 +1085,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>28404000</v>
@@ -1127,7 +1103,7 @@
         <v>2104000</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I9">
         <v>9000</v>
@@ -1136,34 +1112,34 @@
         <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L9">
         <v>13500</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1171,16 +1147,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>10000000</v>
@@ -1189,7 +1165,7 @@
         <v>5000000</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1198,158 +1174,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="S10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11">
-        <v>13000000</v>
-      </c>
-      <c r="G11">
-        <v>6500000</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11">
-        <v>2000</v>
-      </c>
-      <c r="J11">
-        <v>2000</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11">
-        <v>2000</v>
-      </c>
-      <c r="M11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11" t="s">
-        <v>75</v>
-      </c>
-      <c r="S11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12">
-        <v>8000000</v>
-      </c>
-      <c r="G12">
-        <v>4000000</v>
-      </c>
-      <c r="H12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12">
-        <v>2000</v>
-      </c>
-      <c r="J12">
-        <v>2000</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12">
-        <v>2000</v>
-      </c>
-      <c r="M12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>65</v>
-      </c>
-      <c r="R12" t="s">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s">
-        <v>65</v>
-      </c>
-      <c r="T12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
     <t>2024-04-11</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>2024-02-22</t>
   </si>
   <si>
+    <t>하나33호스팩</t>
+  </si>
+  <si>
     <t>신한제13호스팩</t>
   </si>
   <si>
@@ -130,15 +136,15 @@
     <t>하나31호스팩</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
     <t>신한</t>
   </si>
   <si>
     <t>미래</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -148,7 +154,7 @@
     <t>DB, NH</t>
   </si>
   <si>
-    <t>2024-04-15</t>
+    <t>2024-04-18</t>
   </si>
   <si>
     <t>2024-04-05</t>
@@ -175,6 +181,9 @@
     <t>2024-02-27</t>
   </si>
   <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
     <t>2024-04-22</t>
   </si>
   <si>
@@ -194,6 +203,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>2248.41 : 1</t>
   </si>
   <si>
     <t>1337.88 : 1</t>
@@ -578,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,25 +663,25 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="G2">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -678,34 +690,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -713,25 +725,25 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="G3">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -740,34 +752,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -775,61 +787,61 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>32500000</v>
+        <v>10000000</v>
       </c>
       <c r="G4">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I4">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L4">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -837,61 +849,61 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F5">
-        <v>6000000</v>
+        <v>32500000</v>
       </c>
       <c r="G5">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -899,61 +911,61 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6">
-        <v>32000000</v>
+        <v>6000000</v>
       </c>
       <c r="G6">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I6">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L6">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="S6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -961,61 +973,61 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>60000000</v>
+        <v>32000000</v>
       </c>
       <c r="G7">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I7">
+        <v>11000</v>
+      </c>
+      <c r="J7">
+        <v>15000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7">
         <v>20000</v>
       </c>
-      <c r="J7">
-        <v>25000</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7">
-        <v>30000</v>
-      </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1023,61 +1035,61 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F8">
-        <v>19800000</v>
+        <v>60000000</v>
       </c>
       <c r="G8">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I8">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J8">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L8">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1085,61 +1097,61 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F9">
-        <v>28404000</v>
+        <v>19800000</v>
       </c>
       <c r="G9">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I9">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J9">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L9">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1147,61 +1159,123 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
       <c r="F10">
-        <v>10000000</v>
+        <v>28404000</v>
       </c>
       <c r="G10">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>10000000</v>
+      </c>
+      <c r="G11">
+        <v>5000000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11">
+        <v>2000</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11">
+        <v>2000</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>청약일</t>
   </si>
@@ -103,9 +103,6 @@
     <t>2024-02-26</t>
   </si>
   <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
     <t>하나33호스팩</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>케이엔알시스템</t>
   </si>
   <si>
-    <t>하나31호스팩</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>2024-02-29</t>
   </si>
   <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
     <t>2024-04-24</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>2024-03-13</t>
   </si>
   <si>
-    <t>2024-03-05</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -230,9 +218,6 @@
   </si>
   <si>
     <t>2266.72 : 1</t>
-  </si>
-  <si>
-    <t>1896.1033 : 1</t>
   </si>
 </sst>
 </file>
@@ -590,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,16 +648,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -681,7 +666,7 @@
         <v>3500000</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -690,34 +675,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -725,16 +710,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>6000000</v>
@@ -743,7 +728,7 @@
         <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -752,34 +737,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -787,13 +772,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -805,7 +790,7 @@
         <v>5000000</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -814,34 +799,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -849,16 +834,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>32500000</v>
@@ -867,7 +852,7 @@
         <v>2500000</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I5">
         <v>7700</v>
@@ -876,34 +861,34 @@
         <v>9900</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L5">
         <v>13000</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" t="s">
-        <v>66</v>
-      </c>
       <c r="S5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -911,16 +896,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>6000000</v>
@@ -929,7 +914,7 @@
         <v>3000000</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -938,34 +923,34 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -973,16 +958,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>32000000</v>
@@ -991,7 +976,7 @@
         <v>1600000</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I7">
         <v>11000</v>
@@ -1000,34 +985,34 @@
         <v>15000</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L7">
         <v>20000</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="S7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1035,16 +1020,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>60000000</v>
@@ -1053,7 +1038,7 @@
         <v>2000000</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I8">
         <v>20000</v>
@@ -1062,34 +1047,34 @@
         <v>25000</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L8">
         <v>30000</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="S8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1097,16 +1082,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <v>19800000</v>
@@ -1115,7 +1100,7 @@
         <v>990000</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I9">
         <v>13000</v>
@@ -1124,34 +1109,34 @@
         <v>15000</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L9">
         <v>20000</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1159,16 +1144,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>28404000</v>
@@ -1177,7 +1162,7 @@
         <v>2104000</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I10">
         <v>9000</v>
@@ -1186,96 +1171,34 @@
         <v>11000</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L10">
         <v>13500</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11">
-        <v>10000000</v>
-      </c>
-      <c r="G11">
-        <v>5000000</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11">
-        <v>2000</v>
-      </c>
-      <c r="J11">
-        <v>2000</v>
-      </c>
-      <c r="K11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11">
-        <v>2000</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>62</v>
-      </c>
-      <c r="R11" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>청약일</t>
   </si>
@@ -100,9 +100,6 @@
     <t>2024-03-04</t>
   </si>
   <si>
-    <t>2024-02-26</t>
-  </si>
-  <si>
     <t>하나33호스팩</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>오상헬스케어</t>
   </si>
   <si>
-    <t>케이엔알시스템</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>DB, NH</t>
-  </si>
-  <si>
     <t>2024-04-18</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>2024-03-07</t>
   </si>
   <si>
-    <t>2024-02-29</t>
-  </si>
-  <si>
     <t>2024-04-24</t>
   </si>
   <si>
@@ -215,9 +203,6 @@
   </si>
   <si>
     <t>2126.13 : 1</t>
-  </si>
-  <si>
-    <t>2266.72 : 1</t>
   </si>
 </sst>
 </file>
@@ -575,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,16 +633,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -666,7 +651,7 @@
         <v>3500000</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -675,34 +660,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -710,16 +695,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>6000000</v>
@@ -728,7 +713,7 @@
         <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -737,34 +722,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -772,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -790,7 +775,7 @@
         <v>5000000</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -799,34 +784,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -834,16 +819,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>32500000</v>
@@ -852,7 +837,7 @@
         <v>2500000</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I5">
         <v>7700</v>
@@ -861,34 +846,34 @@
         <v>9900</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L5">
         <v>13000</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" t="s">
-        <v>62</v>
-      </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -896,16 +881,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>6000000</v>
@@ -914,7 +899,7 @@
         <v>3000000</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -923,34 +908,34 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -958,16 +943,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>32000000</v>
@@ -976,7 +961,7 @@
         <v>1600000</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I7">
         <v>11000</v>
@@ -985,34 +970,34 @@
         <v>15000</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L7">
         <v>20000</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1020,16 +1005,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>60000000</v>
@@ -1038,7 +1023,7 @@
         <v>2000000</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I8">
         <v>20000</v>
@@ -1047,34 +1032,34 @@
         <v>25000</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L8">
         <v>30000</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1082,16 +1067,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>19800000</v>
@@ -1100,7 +1085,7 @@
         <v>990000</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I9">
         <v>13000</v>
@@ -1109,96 +1094,34 @@
         <v>15000</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L9">
         <v>20000</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>28404000</v>
-      </c>
-      <c r="G10">
-        <v>2104000</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10">
-        <v>9000</v>
-      </c>
-      <c r="J10">
-        <v>11000</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10">
-        <v>13500</v>
-      </c>
-      <c r="M10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
     <t>2024-04-15</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>2024-03-04</t>
   </si>
   <si>
+    <t>제일엠앤에스</t>
+  </si>
+  <si>
     <t>하나33호스팩</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t>오상헬스케어</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
     <t>하나</t>
   </si>
   <si>
@@ -139,7 +148,7 @@
     <t>한국</t>
   </si>
   <si>
-    <t>2024-04-18</t>
+    <t>2024-04-23</t>
   </si>
   <si>
     <t>2024-04-05</t>
@@ -160,6 +169,9 @@
     <t>2024-03-07</t>
   </si>
   <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
     <t>2024-04-24</t>
   </si>
   <si>
@@ -179,6 +191,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1438.96 : 1</t>
   </si>
   <si>
     <t>2248.41 : 1</t>
@@ -560,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,61 +648,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>7000000</v>
+        <v>52800000</v>
       </c>
       <c r="G2">
-        <v>3500000</v>
+        <v>2400000</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -695,25 +710,25 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="G3">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -722,34 +737,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -757,25 +772,25 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F4">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="G4">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -784,34 +799,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -819,61 +834,61 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>32500000</v>
+        <v>10000000</v>
       </c>
       <c r="G5">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I5">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L5">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -881,61 +896,61 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F6">
-        <v>6000000</v>
+        <v>32500000</v>
       </c>
       <c r="G6">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -943,61 +958,61 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F7">
-        <v>32000000</v>
+        <v>6000000</v>
       </c>
       <c r="G7">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I7">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L7">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1005,61 +1020,61 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F8">
-        <v>60000000</v>
+        <v>32000000</v>
       </c>
       <c r="G8">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I8">
+        <v>11000</v>
+      </c>
+      <c r="J8">
+        <v>15000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8">
         <v>20000</v>
       </c>
-      <c r="J8">
-        <v>25000</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8">
-        <v>30000</v>
-      </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1067,61 +1082,123 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
       <c r="F9">
-        <v>19800000</v>
+        <v>60000000</v>
       </c>
       <c r="G9">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I9">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J9">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L9">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <v>19800000</v>
+      </c>
+      <c r="G10">
+        <v>990000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>13000</v>
+      </c>
+      <c r="J10">
+        <v>15000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10">
+        <v>20000</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
     <t>2024-04-18</t>
   </si>
   <si>
@@ -103,6 +106,12 @@
     <t>2024-03-04</t>
   </si>
   <si>
+    <t>디앤디파마텍</t>
+  </si>
+  <si>
+    <t>유안타제16호스팩</t>
+  </si>
+  <si>
     <t>제일엠앤에스</t>
   </si>
   <si>
@@ -130,6 +139,12 @@
     <t>오상헬스케어</t>
   </si>
   <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>유안타</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
@@ -145,7 +160,7 @@
     <t>NH</t>
   </si>
   <si>
-    <t>한국</t>
+    <t>2024-04-25</t>
   </si>
   <si>
     <t>2024-04-23</t>
@@ -169,15 +184,15 @@
     <t>2024-03-07</t>
   </si>
   <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
     <t>2024-04-30</t>
   </si>
   <si>
     <t>2024-04-24</t>
   </si>
   <si>
-    <t>2024-04-22</t>
-  </si>
-  <si>
     <t>2024-04-03</t>
   </si>
   <si>
@@ -191,6 +206,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1544 : 1</t>
+  </si>
+  <si>
+    <t>334 : 1</t>
   </si>
   <si>
     <t>1438.96 : 1</t>
@@ -575,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,87 +669,87 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2">
-        <v>52800000</v>
+        <v>36300000</v>
       </c>
       <c r="G2">
-        <v>2400000</v>
+        <v>1100000</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="J2">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L2">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>7000000</v>
+        <v>10300000</v>
       </c>
       <c r="G3">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -737,122 +758,122 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F4">
-        <v>6000000</v>
+        <v>52800000</v>
       </c>
       <c r="G4">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F5">
-        <v>10000000</v>
+        <v>7000000</v>
       </c>
       <c r="G5">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -861,122 +882,122 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>32500000</v>
+        <v>6000000</v>
       </c>
       <c r="G6">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I6">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L6">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
       <c r="G7">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -985,220 +1006,344 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F8">
-        <v>32000000</v>
+        <v>32500000</v>
       </c>
       <c r="G8">
-        <v>1600000</v>
+        <v>2500000</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I8">
-        <v>11000</v>
+        <v>7700</v>
       </c>
       <c r="J8">
-        <v>15000</v>
+        <v>9900</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L8">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F9">
-        <v>60000000</v>
+        <v>6000000</v>
       </c>
       <c r="G9">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I9">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L9">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F10">
-        <v>19800000</v>
+        <v>32000000</v>
       </c>
       <c r="G10">
-        <v>990000</v>
+        <v>1600000</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I10">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="J10">
         <v>15000</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L10">
         <v>20000</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>60000000</v>
+      </c>
+      <c r="G11">
+        <v>2000000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11">
+        <v>20000</v>
+      </c>
+      <c r="J11">
+        <v>25000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11">
+        <v>30000</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S11" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <v>19800000</v>
+      </c>
+      <c r="G12">
+        <v>990000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12">
+        <v>13000</v>
+      </c>
+      <c r="J12">
+        <v>15000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12">
+        <v>20000</v>
+      </c>
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="79">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
     <t>2024-04-22</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>2024-03-04</t>
   </si>
   <si>
+    <t>민테크</t>
+  </si>
+  <si>
     <t>디앤디파마텍</t>
   </si>
   <si>
@@ -139,15 +145,15 @@
     <t>오상헬스케어</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
     <t>한국</t>
   </si>
   <si>
     <t>유안타</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
@@ -160,12 +166,12 @@
     <t>NH</t>
   </si>
   <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
     <t>2024-04-25</t>
   </si>
   <si>
-    <t>2024-04-23</t>
-  </si>
-  <si>
     <t>2024-04-05</t>
   </si>
   <si>
@@ -184,6 +190,9 @@
     <t>2024-03-07</t>
   </si>
   <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
     <t>2024-05-02</t>
   </si>
   <si>
@@ -206,6 +215,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1529.43 : 1</t>
   </si>
   <si>
     <t>1544 : 1</t>
@@ -596,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,123 +681,123 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2">
-        <v>36300000</v>
+        <v>31500000</v>
       </c>
       <c r="G2">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J2">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L2">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>10300000</v>
+        <v>36300000</v>
       </c>
       <c r="G3">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -793,61 +805,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4">
-        <v>52800000</v>
+        <v>10300000</v>
       </c>
       <c r="G4">
-        <v>2400000</v>
+        <v>5150000</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -855,61 +867,61 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>7000000</v>
+        <v>52800000</v>
       </c>
       <c r="G5">
-        <v>3500000</v>
+        <v>2400000</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -917,25 +929,25 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F6">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="G6">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -944,34 +956,34 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -979,25 +991,25 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="G7">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1006,34 +1018,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1041,61 +1053,61 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>32500000</v>
+        <v>10000000</v>
       </c>
       <c r="G8">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L8">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1103,61 +1115,61 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9">
-        <v>6000000</v>
+        <v>32500000</v>
       </c>
       <c r="G9">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1165,61 +1177,61 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10">
-        <v>32000000</v>
+        <v>6000000</v>
       </c>
       <c r="G10">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L10">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1227,61 +1239,61 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F11">
-        <v>60000000</v>
+        <v>32000000</v>
       </c>
       <c r="G11">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I11">
+        <v>11000</v>
+      </c>
+      <c r="J11">
+        <v>15000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11">
         <v>20000</v>
       </c>
-      <c r="J11">
-        <v>25000</v>
-      </c>
-      <c r="K11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11">
-        <v>30000</v>
-      </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1289,61 +1301,123 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F12">
-        <v>19800000</v>
+        <v>60000000</v>
       </c>
       <c r="G12">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I12">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J12">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L12">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T12" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>19800000</v>
+      </c>
+      <c r="G13">
+        <v>990000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13">
+        <v>13000</v>
+      </c>
+      <c r="J13">
+        <v>15000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13">
+        <v>20000</v>
+      </c>
+      <c r="M13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
   <si>
     <t>청약일</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2024-03-12</t>
   </si>
   <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
     <t>민테크</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>삼현</t>
   </si>
   <si>
-    <t>오상헬스케어</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>2024-03-15</t>
   </si>
   <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
     <t>2024-05-03</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>2024-03-26</t>
   </si>
   <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -248,9 +236,6 @@
   </si>
   <si>
     <t>1645.13 : 1</t>
-  </si>
-  <si>
-    <t>2126.13 : 1</t>
   </si>
 </sst>
 </file>
@@ -608,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,16 +666,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>31500000</v>
@@ -699,7 +684,7 @@
         <v>3000000</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>6500</v>
@@ -708,34 +693,34 @@
         <v>8500</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L2">
         <v>10500</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -743,16 +728,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>36300000</v>
@@ -761,7 +746,7 @@
         <v>1100000</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I3">
         <v>22000</v>
@@ -770,34 +755,34 @@
         <v>26000</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L3">
         <v>33000</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -805,16 +790,16 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>10300000</v>
@@ -823,7 +808,7 @@
         <v>5150000</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -832,34 +817,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -867,16 +852,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>52800000</v>
@@ -885,7 +870,7 @@
         <v>2400000</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I5">
         <v>15000</v>
@@ -894,34 +879,34 @@
         <v>18000</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L5">
         <v>22000</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" t="s">
-        <v>70</v>
-      </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -929,16 +914,16 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>7000000</v>
@@ -947,7 +932,7 @@
         <v>3500000</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -956,34 +941,34 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -991,10 +976,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -1009,7 +994,7 @@
         <v>3000000</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1018,34 +1003,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1053,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1071,7 +1056,7 @@
         <v>5000000</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -1080,34 +1065,34 @@
         <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L8">
         <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1115,16 +1100,16 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F9">
         <v>32500000</v>
@@ -1133,7 +1118,7 @@
         <v>2500000</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I9">
         <v>7700</v>
@@ -1142,34 +1127,34 @@
         <v>9900</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L9">
         <v>13000</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1177,16 +1162,16 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>6000000</v>
@@ -1195,7 +1180,7 @@
         <v>3000000</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1204,34 +1189,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1239,16 +1224,16 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F11">
         <v>32000000</v>
@@ -1257,7 +1242,7 @@
         <v>1600000</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I11">
         <v>11000</v>
@@ -1266,34 +1251,34 @@
         <v>15000</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L11">
         <v>20000</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1301,16 +1286,16 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>60000000</v>
@@ -1319,7 +1304,7 @@
         <v>2000000</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>20000</v>
@@ -1328,96 +1313,34 @@
         <v>25000</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L12">
         <v>30000</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13">
-        <v>19800000</v>
-      </c>
-      <c r="G13">
-        <v>990000</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13">
-        <v>13000</v>
-      </c>
-      <c r="J13">
-        <v>15000</v>
-      </c>
-      <c r="K13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13">
-        <v>20000</v>
-      </c>
-      <c r="M13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>66</v>
-      </c>
-      <c r="R13" t="s">
-        <v>78</v>
-      </c>
-      <c r="S13" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="81">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
     <t>2024-04-23</t>
   </si>
   <si>
@@ -106,6 +109,12 @@
     <t>2024-03-12</t>
   </si>
   <si>
+    <t>코칩</t>
+  </si>
+  <si>
+    <t>SK증권제12호스팩</t>
+  </si>
+  <si>
     <t>민테크</t>
   </si>
   <si>
@@ -139,12 +148,15 @@
     <t>삼현</t>
   </si>
   <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t>NH</t>
   </si>
   <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
     <t>2024-04-26</t>
   </si>
   <si>
@@ -181,6 +196,9 @@
     <t>2024-03-15</t>
   </si>
   <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
     <t>2024-05-03</t>
   </si>
   <si>
@@ -190,9 +208,6 @@
     <t>2024-04-30</t>
   </si>
   <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
     <t>2024-04-03</t>
   </si>
   <si>
@@ -203,6 +218,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>734.49 : 1</t>
+  </si>
+  <si>
+    <t>1091.48 : 1</t>
   </si>
   <si>
     <t>1529.43 : 1</t>
@@ -593,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,61 +687,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F2">
-        <v>31500000</v>
+        <v>27000000</v>
       </c>
       <c r="G2">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I2">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="J2">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L2">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -728,61 +749,61 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>36300000</v>
+        <v>6000000</v>
       </c>
       <c r="G3">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I3">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L3">
-        <v>33000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -790,61 +811,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F4">
-        <v>10300000</v>
+        <v>31500000</v>
       </c>
       <c r="G4">
-        <v>5150000</v>
+        <v>3000000</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -852,87 +873,87 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F5">
-        <v>52800000</v>
+        <v>36300000</v>
       </c>
       <c r="G5">
-        <v>2400000</v>
+        <v>1100000</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I5">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="J5">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L5">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>7000000</v>
+        <v>10300000</v>
       </c>
       <c r="G6">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -941,122 +962,122 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F7">
-        <v>6000000</v>
+        <v>52800000</v>
       </c>
       <c r="G7">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>10000000</v>
+        <v>7000000</v>
       </c>
       <c r="G8">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -1065,122 +1086,122 @@
         <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L8">
         <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>32500000</v>
+        <v>6000000</v>
       </c>
       <c r="G9">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I9">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L9">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
       <c r="G10">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1189,158 +1210,282 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F11">
-        <v>32000000</v>
+        <v>32500000</v>
       </c>
       <c r="G11">
-        <v>1600000</v>
+        <v>2500000</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I11">
-        <v>11000</v>
+        <v>7700</v>
       </c>
       <c r="J11">
-        <v>15000</v>
+        <v>9900</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L11">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>60000000</v>
+        <v>6000000</v>
       </c>
       <c r="G12">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I12">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L12">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T12" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13">
+        <v>32000000</v>
+      </c>
+      <c r="G13">
+        <v>1600000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13">
+        <v>11000</v>
+      </c>
+      <c r="J13">
+        <v>15000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13">
+        <v>20000</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14">
+        <v>60000000</v>
+      </c>
+      <c r="G14">
+        <v>2000000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14">
+        <v>20000</v>
+      </c>
+      <c r="J14">
+        <v>25000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14">
+        <v>30000</v>
+      </c>
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
     <t>2024-04-24</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>2024-03-12</t>
   </si>
   <si>
+    <t>HD현대마린솔루션</t>
+  </si>
+  <si>
     <t>코칩</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>삼현</t>
   </si>
   <si>
+    <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
+  </si>
+  <si>
     <t>한국</t>
   </si>
   <si>
@@ -172,15 +181,15 @@
     <t>NH</t>
   </si>
   <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
     <t>2024-04-29</t>
   </si>
   <si>
     <t>2024-04-26</t>
   </si>
   <si>
-    <t>2024-04-25</t>
-  </si>
-  <si>
     <t>2024-04-05</t>
   </si>
   <si>
@@ -196,6 +205,9 @@
     <t>2024-03-15</t>
   </si>
   <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
     <t>2024-05-07</t>
   </si>
   <si>
@@ -205,9 +217,6 @@
     <t>2024-05-02</t>
   </si>
   <si>
-    <t>2024-04-30</t>
-  </si>
-  <si>
     <t>2024-04-03</t>
   </si>
   <si>
@@ -218,6 +227,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>255.37 : 1</t>
   </si>
   <si>
     <t>734.49 : 1</t>
@@ -614,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,61 +699,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F2">
-        <v>27000000</v>
+        <v>742260000</v>
       </c>
       <c r="G2">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>11000</v>
+        <v>73300</v>
       </c>
       <c r="J2">
-        <v>14000</v>
+        <v>83400</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L2">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -749,123 +761,123 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="G3">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F4">
-        <v>31500000</v>
+        <v>6000000</v>
       </c>
       <c r="G4">
         <v>3000000</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -873,123 +885,123 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F5">
-        <v>36300000</v>
+        <v>31500000</v>
       </c>
       <c r="G5">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I5">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J5">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L5">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F6">
-        <v>10300000</v>
+        <v>36300000</v>
       </c>
       <c r="G6">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -997,61 +1009,61 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7">
-        <v>52800000</v>
+        <v>10300000</v>
       </c>
       <c r="G7">
-        <v>2400000</v>
+        <v>5150000</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I7">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L7">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1059,61 +1071,61 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F8">
-        <v>7000000</v>
+        <v>52800000</v>
       </c>
       <c r="G8">
-        <v>3500000</v>
+        <v>2400000</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L8">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1121,25 +1133,25 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="G9">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1148,34 +1160,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1183,25 +1195,25 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="G10">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1210,34 +1222,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1245,61 +1257,61 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>32500000</v>
+        <v>10000000</v>
       </c>
       <c r="G11">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I11">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L11">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1307,61 +1319,61 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12">
-        <v>6000000</v>
+        <v>32500000</v>
       </c>
       <c r="G12">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1369,61 +1381,61 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13">
-        <v>32000000</v>
+        <v>6000000</v>
       </c>
       <c r="G13">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I13">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L13">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1431,61 +1443,123 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F14">
-        <v>60000000</v>
+        <v>32000000</v>
       </c>
       <c r="G14">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I14">
+        <v>11000</v>
+      </c>
+      <c r="J14">
+        <v>15000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14">
         <v>20000</v>
       </c>
-      <c r="J14">
-        <v>25000</v>
-      </c>
-      <c r="K14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14">
-        <v>30000</v>
-      </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T14" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>60000000</v>
+      </c>
+      <c r="G15">
+        <v>2000000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>20000</v>
+      </c>
+      <c r="J15">
+        <v>25000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15">
+        <v>30000</v>
+      </c>
+      <c r="M15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="81">
   <si>
     <t>청약일</t>
   </si>
@@ -109,9 +109,6 @@
     <t>2024-03-14</t>
   </si>
   <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
     <t>HD현대마린솔루션</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>엔젤로보틱스</t>
   </si>
   <si>
-    <t>삼현</t>
-  </si>
-  <si>
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>2024-03-19</t>
   </si>
   <si>
-    <t>2024-03-15</t>
-  </si>
-  <si>
     <t>2024-05-08</t>
   </si>
   <si>
@@ -266,9 +257,6 @@
   </si>
   <si>
     <t>2242.016 : 1</t>
-  </si>
-  <si>
-    <t>1645.13 : 1</t>
   </si>
 </sst>
 </file>
@@ -626,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,16 +687,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>742260000</v>
@@ -717,7 +705,7 @@
         <v>8900000</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <v>73300</v>
@@ -726,34 +714,34 @@
         <v>83400</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L2">
         <v>83400</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O2">
         <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -761,16 +749,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>27000000</v>
@@ -779,7 +767,7 @@
         <v>1500000</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I3">
         <v>11000</v>
@@ -788,34 +776,34 @@
         <v>14000</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L3">
         <v>18000</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -823,16 +811,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4">
         <v>6000000</v>
@@ -841,7 +829,7 @@
         <v>3000000</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -850,34 +838,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" t="s">
-        <v>73</v>
-      </c>
       <c r="S4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -885,16 +873,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>31500000</v>
@@ -903,7 +891,7 @@
         <v>3000000</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I5">
         <v>6500</v>
@@ -912,34 +900,34 @@
         <v>8500</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L5">
         <v>10500</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -947,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>36300000</v>
@@ -965,7 +953,7 @@
         <v>1100000</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I6">
         <v>22000</v>
@@ -974,34 +962,34 @@
         <v>26000</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L6">
         <v>33000</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1009,16 +997,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>10300000</v>
@@ -1027,7 +1015,7 @@
         <v>5150000</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1036,34 +1024,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1071,16 +1059,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>52800000</v>
@@ -1089,7 +1077,7 @@
         <v>2400000</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I8">
         <v>15000</v>
@@ -1098,34 +1086,34 @@
         <v>18000</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L8">
         <v>22000</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1133,10 +1121,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -1151,7 +1139,7 @@
         <v>3500000</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1160,34 +1148,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1195,10 +1183,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1213,7 +1201,7 @@
         <v>3000000</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1222,34 +1210,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1257,13 +1245,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1275,7 +1263,7 @@
         <v>5000000</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1284,34 +1272,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1319,16 +1307,16 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>32500000</v>
@@ -1337,7 +1325,7 @@
         <v>2500000</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I12">
         <v>7700</v>
@@ -1346,34 +1334,34 @@
         <v>9900</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L12">
         <v>13000</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1381,16 +1369,16 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <v>6000000</v>
@@ -1399,7 +1387,7 @@
         <v>3000000</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1408,34 +1396,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1443,16 +1431,16 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>32000000</v>
@@ -1461,7 +1449,7 @@
         <v>1600000</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I14">
         <v>11000</v>
@@ -1470,96 +1458,34 @@
         <v>15000</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L14">
         <v>20000</v>
       </c>
       <c r="M14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15">
-        <v>60000000</v>
-      </c>
-      <c r="G15">
-        <v>2000000</v>
-      </c>
-      <c r="H15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15">
-        <v>20000</v>
-      </c>
-      <c r="J15">
-        <v>25000</v>
-      </c>
-      <c r="K15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15">
-        <v>30000</v>
-      </c>
-      <c r="M15" t="s">
-        <v>70</v>
-      </c>
-      <c r="N15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" t="s">
-        <v>84</v>
-      </c>
-      <c r="S15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="87">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
     <t>2024-04-25</t>
   </si>
   <si>
@@ -109,6 +112,12 @@
     <t>2024-03-14</t>
   </si>
   <si>
+    <t>KB제28호스팩</t>
+  </si>
+  <si>
+    <t>아이씨티케이</t>
+  </si>
+  <si>
     <t>HD현대마린솔루션</t>
   </si>
   <si>
@@ -148,6 +157,12 @@
     <t>엔젤로보틱스</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
   </si>
   <si>
@@ -157,9 +172,6 @@
     <t>SK</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -172,7 +184,7 @@
     <t>미래</t>
   </si>
   <si>
-    <t>NH</t>
+    <t>2024-05-10</t>
   </si>
   <si>
     <t>2024-04-30</t>
@@ -196,12 +208,12 @@
     <t>2024-03-19</t>
   </si>
   <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
     <t>2024-05-08</t>
   </si>
   <si>
-    <t>2024-05-07</t>
-  </si>
-  <si>
     <t>2024-05-03</t>
   </si>
   <si>
@@ -218,6 +230,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>713 : 1</t>
+  </si>
+  <si>
+    <t>1108 : 1</t>
   </si>
   <si>
     <t>255.37 : 1</t>
@@ -614,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,185 +705,185 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>742260000</v>
+        <v>10000000</v>
       </c>
       <c r="G2">
-        <v>8900000</v>
+        <v>5000000</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I2">
-        <v>73300</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L2">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>27000000</v>
+        <v>39400000</v>
       </c>
       <c r="G3">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I3">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J3">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L3">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>6000000</v>
+        <v>742260000</v>
       </c>
       <c r="G4">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>73300</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -873,61 +891,61 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>31500000</v>
+        <v>27000000</v>
       </c>
       <c r="G5">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I5">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="J5">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -935,61 +953,61 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
       <c r="F6">
-        <v>36300000</v>
+        <v>6000000</v>
       </c>
       <c r="G6">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I6">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L6">
-        <v>33000</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -997,61 +1015,61 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7">
-        <v>10300000</v>
+        <v>31500000</v>
       </c>
       <c r="G7">
-        <v>5150000</v>
+        <v>3000000</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1059,87 +1077,87 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F8">
-        <v>52800000</v>
+        <v>36300000</v>
       </c>
       <c r="G8">
-        <v>2400000</v>
+        <v>1100000</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I8">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="J8">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L8">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F9">
-        <v>7000000</v>
+        <v>10300000</v>
       </c>
       <c r="G9">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1148,122 +1166,122 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>6000000</v>
+        <v>52800000</v>
       </c>
       <c r="G10">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>10000000</v>
+        <v>7000000</v>
       </c>
       <c r="G11">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1272,122 +1290,122 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>32500000</v>
+        <v>6000000</v>
       </c>
       <c r="G12">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I12">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L12">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
       <c r="G13">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1396,96 +1414,220 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14">
-        <v>32000000</v>
+        <v>32500000</v>
       </c>
       <c r="G14">
-        <v>1600000</v>
+        <v>2500000</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I14">
-        <v>11000</v>
+        <v>7700</v>
       </c>
       <c r="J14">
-        <v>15000</v>
+        <v>9900</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L14">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15">
+        <v>6000000</v>
+      </c>
+      <c r="G15">
+        <v>3000000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15">
+        <v>2000</v>
+      </c>
+      <c r="J15">
+        <v>2000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15">
+        <v>2000</v>
+      </c>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" t="s">
+        <v>85</v>
+      </c>
+      <c r="S15" t="s">
+        <v>71</v>
+      </c>
+      <c r="T15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>32000000</v>
+      </c>
+      <c r="G16">
+        <v>1600000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16">
+        <v>11000</v>
+      </c>
+      <c r="J16">
+        <v>15000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16">
+        <v>20000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" t="s">
+        <v>86</v>
+      </c>
+      <c r="S16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T16" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
   <si>
     <t>청약일</t>
   </si>
@@ -109,9 +109,6 @@
     <t>2024-03-18</t>
   </si>
   <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
     <t>KB제28호스팩</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>하나32호스팩</t>
   </si>
   <si>
-    <t>엔젤로보틱스</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>2024-03-21</t>
   </si>
   <si>
-    <t>2024-03-19</t>
-  </si>
-  <si>
     <t>2024-05-17</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>2024-03-27</t>
   </si>
   <si>
-    <t>2024-03-26</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -272,9 +260,6 @@
   </si>
   <si>
     <t>2389.8 : 1</t>
-  </si>
-  <si>
-    <t>2242.016 : 1</t>
   </si>
 </sst>
 </file>
@@ -632,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,16 +690,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>10000000</v>
@@ -723,7 +708,7 @@
         <v>5000000</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -732,34 +717,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -767,16 +752,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>39400000</v>
@@ -785,7 +770,7 @@
         <v>1970000</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I3">
         <v>13000</v>
@@ -794,34 +779,34 @@
         <v>16000</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L3">
         <v>20000</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -829,16 +814,16 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>742260000</v>
@@ -847,7 +832,7 @@
         <v>8900000</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I4">
         <v>73300</v>
@@ -856,34 +841,34 @@
         <v>83400</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L4">
         <v>83400</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -891,13 +876,13 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -909,7 +894,7 @@
         <v>1500000</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I5">
         <v>11000</v>
@@ -918,34 +903,34 @@
         <v>14000</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L5">
         <v>18000</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" t="s">
-        <v>75</v>
-      </c>
       <c r="S5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -953,13 +938,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -971,7 +956,7 @@
         <v>3000000</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -980,34 +965,34 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1015,16 +1000,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>31500000</v>
@@ -1033,7 +1018,7 @@
         <v>3000000</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>6500</v>
@@ -1042,34 +1027,34 @@
         <v>8500</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L7">
         <v>10500</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1077,16 +1062,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>36300000</v>
@@ -1095,7 +1080,7 @@
         <v>1100000</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I8">
         <v>22000</v>
@@ -1104,34 +1089,34 @@
         <v>26000</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L8">
         <v>33000</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1139,16 +1124,16 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>10300000</v>
@@ -1157,7 +1142,7 @@
         <v>5150000</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1166,34 +1151,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1201,16 +1186,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>52800000</v>
@@ -1219,7 +1204,7 @@
         <v>2400000</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>15000</v>
@@ -1228,34 +1213,34 @@
         <v>18000</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L10">
         <v>22000</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1263,10 +1248,10 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -1281,7 +1266,7 @@
         <v>3500000</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1290,34 +1275,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1325,10 +1310,10 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1343,7 +1328,7 @@
         <v>3000000</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1352,34 +1337,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1387,13 +1372,13 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -1405,7 +1390,7 @@
         <v>5000000</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1414,34 +1399,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1449,16 +1434,16 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14">
         <v>32500000</v>
@@ -1467,7 +1452,7 @@
         <v>2500000</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I14">
         <v>7700</v>
@@ -1476,34 +1461,34 @@
         <v>9900</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L14">
         <v>13000</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1511,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <v>6000000</v>
@@ -1529,7 +1514,7 @@
         <v>3000000</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -1538,96 +1523,34 @@
         <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L15">
         <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16">
-        <v>32000000</v>
-      </c>
-      <c r="G16">
-        <v>1600000</v>
-      </c>
-      <c r="H16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16">
-        <v>11000</v>
-      </c>
-      <c r="J16">
-        <v>15000</v>
-      </c>
-      <c r="K16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16">
-        <v>20000</v>
-      </c>
-      <c r="M16" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>71</v>
-      </c>
-      <c r="R16" t="s">
-        <v>86</v>
-      </c>
-      <c r="S16" t="s">
-        <v>71</v>
-      </c>
-      <c r="T16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
   <si>
     <t>청약일</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2024-03-25</t>
   </si>
   <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
     <t>KB제28호스팩</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>아이엠비디엑스</t>
   </si>
   <si>
-    <t>하나32호스팩</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>2024-03-28</t>
   </si>
   <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
     <t>2024-05-17</t>
   </si>
   <si>
@@ -214,9 +205,6 @@
     <t>2024-04-03</t>
   </si>
   <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -257,9 +245,6 @@
   </si>
   <si>
     <t>2654.2 : 1</t>
-  </si>
-  <si>
-    <t>2389.8 : 1</t>
   </si>
 </sst>
 </file>
@@ -617,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,16 +675,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>10000000</v>
@@ -708,7 +693,7 @@
         <v>5000000</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -717,34 +702,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -752,16 +737,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>39400000</v>
@@ -770,7 +755,7 @@
         <v>1970000</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>13000</v>
@@ -779,34 +764,34 @@
         <v>16000</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L3">
         <v>20000</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -814,16 +799,16 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>742260000</v>
@@ -832,7 +817,7 @@
         <v>8900000</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I4">
         <v>73300</v>
@@ -841,34 +826,34 @@
         <v>83400</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L4">
         <v>83400</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -876,13 +861,13 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -894,7 +879,7 @@
         <v>1500000</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>11000</v>
@@ -903,34 +888,34 @@
         <v>14000</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <v>18000</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" t="s">
-        <v>71</v>
-      </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -938,13 +923,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -956,7 +941,7 @@
         <v>3000000</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I6">
         <v>2000</v>
@@ -965,34 +950,34 @@
         <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L6">
         <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1000,16 +985,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>31500000</v>
@@ -1018,7 +1003,7 @@
         <v>3000000</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I7">
         <v>6500</v>
@@ -1027,34 +1012,34 @@
         <v>8500</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L7">
         <v>10500</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="S7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1062,16 +1047,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>36300000</v>
@@ -1080,7 +1065,7 @@
         <v>1100000</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I8">
         <v>22000</v>
@@ -1089,34 +1074,34 @@
         <v>26000</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L8">
         <v>33000</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1124,16 +1109,16 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>10300000</v>
@@ -1142,7 +1127,7 @@
         <v>5150000</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1151,34 +1136,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1186,16 +1171,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>52800000</v>
@@ -1204,7 +1189,7 @@
         <v>2400000</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I10">
         <v>15000</v>
@@ -1213,34 +1198,34 @@
         <v>18000</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L10">
         <v>22000</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1248,10 +1233,10 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -1266,7 +1251,7 @@
         <v>3500000</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1275,34 +1260,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1310,10 +1295,10 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1328,7 +1313,7 @@
         <v>3000000</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1337,34 +1322,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1372,13 +1357,13 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -1390,7 +1375,7 @@
         <v>5000000</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1399,34 +1384,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1434,16 +1419,16 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>32500000</v>
@@ -1452,7 +1437,7 @@
         <v>2500000</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I14">
         <v>7700</v>
@@ -1461,96 +1446,34 @@
         <v>9900</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L14">
         <v>13000</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15">
-        <v>6000000</v>
-      </c>
-      <c r="G15">
-        <v>3000000</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15">
-        <v>2000</v>
-      </c>
-      <c r="J15">
-        <v>2000</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15">
-        <v>2000</v>
-      </c>
-      <c r="M15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>67</v>
-      </c>
-      <c r="R15" t="s">
-        <v>81</v>
-      </c>
-      <c r="S15" t="s">
-        <v>67</v>
-      </c>
-      <c r="T15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
     <t>2024-05-07</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>2024-03-25</t>
   </si>
   <si>
+    <t>노브랜드</t>
+  </si>
+  <si>
     <t>KB제28호스팩</t>
   </si>
   <si>
@@ -145,6 +151,9 @@
     <t>아이엠비디엑스</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>미래</t>
   </si>
   <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
     <t>2024-05-10</t>
   </si>
   <si>
@@ -190,7 +202,7 @@
     <t>2024-03-28</t>
   </si>
   <si>
-    <t>2024-05-17</t>
+    <t>2024-05-23</t>
   </si>
   <si>
     <t>2024-05-08</t>
@@ -206,6 +218,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>2071 : 1</t>
   </si>
   <si>
     <t>713 : 1</t>
@@ -602,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,123 +690,123 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F2">
-        <v>10000000</v>
+        <v>16800000</v>
       </c>
       <c r="G2">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>39400000</v>
+        <v>10000000</v>
       </c>
       <c r="G3">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I3">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L3">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -799,61 +814,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F4">
-        <v>742260000</v>
+        <v>39400000</v>
       </c>
       <c r="G4">
-        <v>8900000</v>
+        <v>1970000</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I4">
-        <v>73300</v>
+        <v>13000</v>
       </c>
       <c r="J4">
-        <v>83400</v>
+        <v>16000</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L4">
-        <v>83400</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -861,61 +876,61 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F5">
-        <v>27000000</v>
+        <v>742260000</v>
       </c>
       <c r="G5">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I5">
-        <v>11000</v>
+        <v>73300</v>
       </c>
       <c r="J5">
-        <v>14000</v>
+        <v>83400</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L5">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -923,123 +938,123 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="G6">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>31500000</v>
+        <v>6000000</v>
       </c>
       <c r="G7">
         <v>3000000</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I7">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L7">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1047,123 +1062,123 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F8">
-        <v>36300000</v>
+        <v>31500000</v>
       </c>
       <c r="G8">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I8">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L8">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F9">
-        <v>10300000</v>
+        <v>36300000</v>
       </c>
       <c r="G9">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1171,61 +1186,61 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F10">
-        <v>52800000</v>
+        <v>10300000</v>
       </c>
       <c r="G10">
-        <v>2400000</v>
+        <v>5150000</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I10">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L10">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1233,61 +1248,61 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F11">
-        <v>7000000</v>
+        <v>52800000</v>
       </c>
       <c r="G11">
-        <v>3500000</v>
+        <v>2400000</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1295,25 +1310,25 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="G12">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1322,34 +1337,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1357,25 +1372,25 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="G13">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1384,34 +1399,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1419,61 +1434,123 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>32500000</v>
+        <v>10000000</v>
       </c>
       <c r="G14">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I14">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L14">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T14" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <v>32500000</v>
+      </c>
+      <c r="G15">
+        <v>2500000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15">
+        <v>7700</v>
+      </c>
+      <c r="J15">
+        <v>9900</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15">
+        <v>13000</v>
+      </c>
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="76">
   <si>
     <t>청약일</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2024-04-02</t>
   </si>
   <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
     <t>노브랜드</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>신한제12호스팩</t>
   </si>
   <si>
-    <t>아이엠비디엑스</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>신한</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>2024-05-17</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>2024-04-05</t>
   </si>
   <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
     <t>2024-05-23</t>
   </si>
   <si>
@@ -214,9 +202,6 @@
     <t>2024-05-02</t>
   </si>
   <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -257,9 +242,6 @@
   </si>
   <si>
     <t>1698.24 : 1</t>
-  </si>
-  <si>
-    <t>2654.2 : 1</t>
   </si>
 </sst>
 </file>
@@ -617,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,16 +672,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>16800000</v>
@@ -708,7 +690,7 @@
         <v>1200000</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>8700</v>
@@ -717,34 +699,34 @@
         <v>11000</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L2">
         <v>14000</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -752,16 +734,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>10000000</v>
@@ -770,7 +752,7 @@
         <v>5000000</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -779,34 +761,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -814,16 +796,16 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>39400000</v>
@@ -832,7 +814,7 @@
         <v>1970000</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I4">
         <v>13000</v>
@@ -841,34 +823,34 @@
         <v>16000</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L4">
         <v>20000</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -876,16 +858,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>742260000</v>
@@ -894,7 +876,7 @@
         <v>8900000</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I5">
         <v>73300</v>
@@ -903,34 +885,34 @@
         <v>83400</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L5">
         <v>83400</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O5">
         <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -938,13 +920,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -956,7 +938,7 @@
         <v>1500000</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>11000</v>
@@ -965,34 +947,34 @@
         <v>14000</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L6">
         <v>18000</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" t="s">
-        <v>72</v>
-      </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1000,13 +982,13 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -1018,7 +1000,7 @@
         <v>3000000</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1027,34 +1009,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="S7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1062,16 +1044,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>31500000</v>
@@ -1080,7 +1062,7 @@
         <v>3000000</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I8">
         <v>6500</v>
@@ -1089,34 +1071,34 @@
         <v>8500</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L8">
         <v>10500</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="S8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1124,16 +1106,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>36300000</v>
@@ -1142,7 +1124,7 @@
         <v>1100000</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I9">
         <v>22000</v>
@@ -1151,34 +1133,34 @@
         <v>26000</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L9">
         <v>33000</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1186,16 +1168,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F10">
         <v>10300000</v>
@@ -1204,7 +1186,7 @@
         <v>5150000</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I10">
         <v>2000</v>
@@ -1213,34 +1195,34 @@
         <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L10">
         <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1248,16 +1230,16 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>52800000</v>
@@ -1266,7 +1248,7 @@
         <v>2400000</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I11">
         <v>15000</v>
@@ -1275,34 +1257,34 @@
         <v>18000</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L11">
         <v>22000</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1310,10 +1292,10 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1328,7 +1310,7 @@
         <v>3500000</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1337,34 +1319,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1372,10 +1354,10 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1390,7 +1372,7 @@
         <v>3000000</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1399,34 +1381,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1434,13 +1416,13 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -1452,7 +1434,7 @@
         <v>5000000</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1461,96 +1443,34 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15">
-        <v>32500000</v>
-      </c>
-      <c r="G15">
-        <v>2500000</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15">
-        <v>7700</v>
-      </c>
-      <c r="J15">
-        <v>9900</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15">
-        <v>13000</v>
-      </c>
-      <c r="M15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>67</v>
-      </c>
-      <c r="R15" t="s">
-        <v>81</v>
-      </c>
-      <c r="S15" t="s">
-        <v>67</v>
-      </c>
-      <c r="T15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="81">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
     <t>2024-05-13</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>2024-04-02</t>
   </si>
   <si>
+    <t>미래에셋비전스팩4호</t>
+  </si>
+  <si>
     <t>노브랜드</t>
   </si>
   <si>
@@ -145,6 +151,9 @@
     <t>신한제12호스팩</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>신한</t>
   </si>
   <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
     <t>2024-05-17</t>
   </si>
   <si>
@@ -190,7 +202,7 @@
     <t>2024-04-05</t>
   </si>
   <si>
-    <t>2024-05-23</t>
+    <t>2024-05-29</t>
   </si>
   <si>
     <t>2024-05-08</t>
@@ -203,6 +215,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>687.21 : 1</t>
   </si>
   <si>
     <t>2071 : 1</t>
@@ -599,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,61 +687,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F2">
-        <v>16800000</v>
+        <v>13300000</v>
       </c>
       <c r="G2">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I2">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L2">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -734,123 +749,123 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>10000000</v>
+        <v>16800000</v>
       </c>
       <c r="G3">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F4">
-        <v>39400000</v>
+        <v>10000000</v>
       </c>
       <c r="G4">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I4">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L4">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -858,61 +873,61 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F5">
-        <v>742260000</v>
+        <v>39400000</v>
       </c>
       <c r="G5">
-        <v>8900000</v>
+        <v>1970000</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>73300</v>
+        <v>13000</v>
       </c>
       <c r="J5">
-        <v>83400</v>
+        <v>16000</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L5">
-        <v>83400</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -920,61 +935,61 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F6">
-        <v>27000000</v>
+        <v>742260000</v>
       </c>
       <c r="G6">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I6">
-        <v>11000</v>
+        <v>73300</v>
       </c>
       <c r="J6">
-        <v>14000</v>
+        <v>83400</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L6">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -982,123 +997,123 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="G7">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>31500000</v>
+        <v>6000000</v>
       </c>
       <c r="G8">
         <v>3000000</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I8">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L8">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1106,123 +1121,123 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F9">
-        <v>36300000</v>
+        <v>31500000</v>
       </c>
       <c r="G9">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I9">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L9">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F10">
-        <v>10300000</v>
+        <v>36300000</v>
       </c>
       <c r="G10">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1230,61 +1245,61 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F11">
-        <v>52800000</v>
+        <v>10300000</v>
       </c>
       <c r="G11">
-        <v>2400000</v>
+        <v>5150000</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I11">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L11">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1292,61 +1307,61 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="F12">
-        <v>7000000</v>
+        <v>52800000</v>
       </c>
       <c r="G12">
-        <v>3500000</v>
+        <v>2400000</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1354,25 +1369,25 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="G13">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1381,34 +1396,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1416,25 +1431,25 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="G14">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1443,34 +1458,96 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T14" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>10000000</v>
+      </c>
+      <c r="G15">
+        <v>5000000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15">
+        <v>2000</v>
+      </c>
+      <c r="J15">
+        <v>2000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15">
+        <v>2000</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>66</v>
+      </c>
+      <c r="R15" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
   <si>
     <t>청약일</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2024-04-11</t>
   </si>
   <si>
-    <t>2024-04-02</t>
-  </si>
-  <si>
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>신한제13호스팩</t>
   </si>
   <si>
-    <t>신한제12호스팩</t>
-  </si>
-  <si>
     <t>미래</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>2024-04-26</t>
   </si>
   <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
     <t>2024-05-29</t>
   </si>
   <si>
@@ -254,9 +245,6 @@
   </si>
   <si>
     <t>1337.88 : 1</t>
-  </si>
-  <si>
-    <t>1698.24 : 1</t>
   </si>
 </sst>
 </file>
@@ -614,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,16 +675,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>13300000</v>
@@ -705,7 +693,7 @@
         <v>6650000</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -714,34 +702,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -749,16 +737,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>16800000</v>
@@ -767,7 +755,7 @@
         <v>1200000</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>8700</v>
@@ -776,34 +764,34 @@
         <v>11000</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L3">
         <v>14000</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -811,16 +799,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>10000000</v>
@@ -829,7 +817,7 @@
         <v>5000000</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -838,34 +826,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" t="s">
-        <v>69</v>
-      </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -873,16 +861,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>39400000</v>
@@ -891,7 +879,7 @@
         <v>1970000</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>13000</v>
@@ -900,34 +888,34 @@
         <v>16000</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <v>20000</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -935,16 +923,16 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>742260000</v>
@@ -953,7 +941,7 @@
         <v>8900000</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I6">
         <v>73300</v>
@@ -962,34 +950,34 @@
         <v>83400</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L6">
         <v>83400</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O6">
         <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -997,13 +985,13 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -1015,7 +1003,7 @@
         <v>1500000</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I7">
         <v>11000</v>
@@ -1024,34 +1012,34 @@
         <v>14000</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L7">
         <v>18000</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1059,13 +1047,13 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -1077,7 +1065,7 @@
         <v>3000000</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -1086,34 +1074,34 @@
         <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L8">
         <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1121,16 +1109,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>31500000</v>
@@ -1139,7 +1127,7 @@
         <v>3000000</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I9">
         <v>6500</v>
@@ -1148,34 +1136,34 @@
         <v>8500</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L9">
         <v>10500</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1183,16 +1171,16 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>36300000</v>
@@ -1201,7 +1189,7 @@
         <v>1100000</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I10">
         <v>22000</v>
@@ -1210,34 +1198,34 @@
         <v>26000</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L10">
         <v>33000</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1245,16 +1233,16 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <v>10300000</v>
@@ -1263,7 +1251,7 @@
         <v>5150000</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11">
         <v>2000</v>
@@ -1272,34 +1260,34 @@
         <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L11">
         <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1307,16 +1295,16 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>52800000</v>
@@ -1325,7 +1313,7 @@
         <v>2400000</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I12">
         <v>15000</v>
@@ -1334,34 +1322,34 @@
         <v>18000</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L12">
         <v>22000</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1369,10 +1357,10 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1387,7 +1375,7 @@
         <v>3500000</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I13">
         <v>2000</v>
@@ -1396,34 +1384,34 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L13">
         <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1431,10 +1419,10 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -1449,7 +1437,7 @@
         <v>3000000</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1458,96 +1446,34 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15">
-        <v>10000000</v>
-      </c>
-      <c r="G15">
-        <v>5000000</v>
-      </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15">
-        <v>2000</v>
-      </c>
-      <c r="J15">
-        <v>2000</v>
-      </c>
-      <c r="K15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15">
-        <v>2000</v>
-      </c>
-      <c r="M15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>66</v>
-      </c>
-      <c r="R15" t="s">
-        <v>80</v>
-      </c>
-      <c r="S15" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
     <t>2024-05-20</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>2024-04-11</t>
   </si>
   <si>
+    <t>그리드위즈</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
@@ -145,12 +151,12 @@
     <t>신한제13호스팩</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -175,6 +181,9 @@
     <t>신한</t>
   </si>
   <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
     <t>2024-05-23</t>
   </si>
   <si>
@@ -193,6 +202,9 @@
     <t>2024-04-26</t>
   </si>
   <si>
+    <t>2024-06-14</t>
+  </si>
+  <si>
     <t>2024-05-29</t>
   </si>
   <si>
@@ -206,6 +218,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>569.89 : 1</t>
   </si>
   <si>
     <t>687.21 : 1</t>
@@ -602,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,61 +690,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2">
-        <v>13300000</v>
+        <v>56000000</v>
       </c>
       <c r="G2">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -737,61 +752,61 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>16800000</v>
+        <v>13300000</v>
       </c>
       <c r="G3">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I3">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L3">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -799,123 +814,123 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4">
-        <v>10000000</v>
+        <v>16800000</v>
       </c>
       <c r="G4">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F5">
-        <v>39400000</v>
+        <v>10000000</v>
       </c>
       <c r="G5">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I5">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L5">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -923,61 +938,61 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F6">
-        <v>742260000</v>
+        <v>39400000</v>
       </c>
       <c r="G6">
-        <v>8900000</v>
+        <v>1970000</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I6">
-        <v>73300</v>
+        <v>13000</v>
       </c>
       <c r="J6">
-        <v>83400</v>
+        <v>16000</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L6">
-        <v>83400</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -985,61 +1000,61 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F7">
-        <v>27000000</v>
+        <v>742260000</v>
       </c>
       <c r="G7">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I7">
-        <v>11000</v>
+        <v>73300</v>
       </c>
       <c r="J7">
-        <v>14000</v>
+        <v>83400</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L7">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1047,123 +1062,123 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="G8">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L8">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>31500000</v>
+        <v>6000000</v>
       </c>
       <c r="G9">
         <v>3000000</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I9">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L9">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1171,123 +1186,123 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F10">
-        <v>36300000</v>
+        <v>31500000</v>
       </c>
       <c r="G10">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I10">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L10">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F11">
-        <v>10300000</v>
+        <v>36300000</v>
       </c>
       <c r="G11">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1295,61 +1310,61 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F12">
-        <v>52800000</v>
+        <v>10300000</v>
       </c>
       <c r="G12">
-        <v>2400000</v>
+        <v>5150000</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I12">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L12">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1357,61 +1372,61 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F13">
-        <v>7000000</v>
+        <v>52800000</v>
       </c>
       <c r="G13">
-        <v>3500000</v>
+        <v>2400000</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L13">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1419,25 +1434,25 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="G14">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1446,34 +1461,96 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T14" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>6000000</v>
+      </c>
+      <c r="G15">
+        <v>3000000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15">
+        <v>2000</v>
+      </c>
+      <c r="J15">
+        <v>2000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15">
+        <v>2000</v>
+      </c>
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="78">
   <si>
     <t>청약일</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2024-04-15</t>
   </si>
   <si>
-    <t>2024-04-11</t>
-  </si>
-  <si>
     <t>그리드위즈</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>하나33호스팩</t>
   </si>
   <si>
-    <t>신한제13호스팩</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>하나</t>
   </si>
   <si>
-    <t>신한</t>
-  </si>
-  <si>
     <t>2024-06-07</t>
   </si>
   <si>
@@ -257,9 +248,6 @@
   </si>
   <si>
     <t>2248.41 : 1</t>
-  </si>
-  <si>
-    <t>1337.88 : 1</t>
   </si>
 </sst>
 </file>
@@ -617,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,16 +678,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>56000000</v>
@@ -708,7 +696,7 @@
         <v>1400000</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I2">
         <v>34000</v>
@@ -717,34 +705,34 @@
         <v>40000</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L2">
         <v>40000</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -752,16 +740,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>13300000</v>
@@ -770,7 +758,7 @@
         <v>6650000</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -779,34 +767,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -814,16 +802,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>16800000</v>
@@ -832,7 +820,7 @@
         <v>1200000</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>8700</v>
@@ -841,34 +829,34 @@
         <v>11000</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L4">
         <v>14000</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" t="s">
-        <v>70</v>
-      </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -876,16 +864,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>10000000</v>
@@ -894,7 +882,7 @@
         <v>5000000</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I5">
         <v>2000</v>
@@ -903,34 +891,34 @@
         <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L5">
         <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -938,16 +926,16 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>39400000</v>
@@ -956,7 +944,7 @@
         <v>1970000</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I6">
         <v>13000</v>
@@ -965,34 +953,34 @@
         <v>16000</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L6">
         <v>20000</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1000,16 +988,16 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>742260000</v>
@@ -1018,7 +1006,7 @@
         <v>8900000</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I7">
         <v>73300</v>
@@ -1027,34 +1015,34 @@
         <v>83400</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L7">
         <v>83400</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1062,13 +1050,13 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1080,7 +1068,7 @@
         <v>1500000</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I8">
         <v>11000</v>
@@ -1089,34 +1077,34 @@
         <v>14000</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L8">
         <v>18000</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1124,13 +1112,13 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1142,7 +1130,7 @@
         <v>3000000</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1151,34 +1139,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1186,16 +1174,16 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>31500000</v>
@@ -1204,7 +1192,7 @@
         <v>3000000</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I10">
         <v>6500</v>
@@ -1213,34 +1201,34 @@
         <v>8500</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L10">
         <v>10500</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1248,16 +1236,16 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>36300000</v>
@@ -1266,7 +1254,7 @@
         <v>1100000</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I11">
         <v>22000</v>
@@ -1275,34 +1263,34 @@
         <v>26000</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L11">
         <v>33000</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1310,16 +1298,16 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <v>10300000</v>
@@ -1328,7 +1316,7 @@
         <v>5150000</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I12">
         <v>2000</v>
@@ -1337,34 +1325,34 @@
         <v>2000</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L12">
         <v>2000</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1372,16 +1360,16 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>52800000</v>
@@ -1390,7 +1378,7 @@
         <v>2400000</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I13">
         <v>15000</v>
@@ -1399,34 +1387,34 @@
         <v>18000</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L13">
         <v>22000</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1434,10 +1422,10 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -1452,7 +1440,7 @@
         <v>3500000</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1461,96 +1449,34 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15">
-        <v>6000000</v>
-      </c>
-      <c r="G15">
-        <v>3000000</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15">
-        <v>2000</v>
-      </c>
-      <c r="J15">
-        <v>2000</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15">
-        <v>2000</v>
-      </c>
-      <c r="M15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>67</v>
-      </c>
-      <c r="R15" t="s">
-        <v>81</v>
-      </c>
-      <c r="S15" t="s">
-        <v>67</v>
-      </c>
-      <c r="T15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="80">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
     <t>2024-06-03</t>
   </si>
   <si>
@@ -103,7 +106,7 @@
     <t>2024-04-18</t>
   </si>
   <si>
-    <t>2024-04-15</t>
+    <t>라메디텍</t>
   </si>
   <si>
     <t>그리드위즈</t>
@@ -142,7 +145,7 @@
     <t>제일엠앤에스</t>
   </si>
   <si>
-    <t>하나33호스팩</t>
+    <t>대신</t>
   </si>
   <si>
     <t>삼성</t>
@@ -169,7 +172,7 @@
     <t>유안타</t>
   </si>
   <si>
-    <t>하나</t>
+    <t>2024-06-11</t>
   </si>
   <si>
     <t>2024-06-07</t>
@@ -193,6 +196,9 @@
     <t>2024-04-26</t>
   </si>
   <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
     <t>2024-06-14</t>
   </si>
   <si>
@@ -211,6 +217,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>2140 : 1</t>
+  </si>
+  <si>
     <t>569.89 : 1</t>
   </si>
   <si>
@@ -245,9 +254,6 @@
   </si>
   <si>
     <t>1438.96 : 1</t>
-  </si>
-  <si>
-    <t>2248.41 : 1</t>
   </si>
 </sst>
 </file>
@@ -687,52 +693,52 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2">
-        <v>56000000</v>
+        <v>20768000</v>
       </c>
       <c r="G2">
-        <v>1400000</v>
+        <v>1298000</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2">
-        <v>34000</v>
+        <v>10400</v>
       </c>
       <c r="J2">
-        <v>40000</v>
+        <v>12700</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L2">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -749,52 +755,52 @@
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3">
-        <v>13300000</v>
+        <v>56000000</v>
       </c>
       <c r="G3">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L3">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -805,58 +811,58 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F4">
-        <v>16800000</v>
+        <v>13300000</v>
       </c>
       <c r="G4">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I4">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -867,7 +873,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
@@ -876,54 +882,54 @@
         <v>54</v>
       </c>
       <c r="F5">
-        <v>10000000</v>
+        <v>16800000</v>
       </c>
       <c r="G5">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -932,55 +938,55 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
       <c r="F6">
-        <v>39400000</v>
+        <v>10000000</v>
       </c>
       <c r="G6">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L6">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -997,52 +1003,52 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F7">
-        <v>742260000</v>
+        <v>39400000</v>
       </c>
       <c r="G7">
-        <v>8900000</v>
+        <v>1970000</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7">
-        <v>73300</v>
+        <v>13000</v>
       </c>
       <c r="J7">
-        <v>83400</v>
+        <v>16000</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L7">
-        <v>83400</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1059,52 +1065,52 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F8">
-        <v>27000000</v>
+        <v>742260000</v>
       </c>
       <c r="G8">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I8">
-        <v>11000</v>
+        <v>73300</v>
       </c>
       <c r="J8">
-        <v>14000</v>
+        <v>83400</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L8">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1121,114 +1127,114 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="G9">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L9">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>31500000</v>
+        <v>6000000</v>
       </c>
       <c r="G10">
         <v>3000000</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I10">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1239,120 +1245,120 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11">
-        <v>36300000</v>
+        <v>31500000</v>
       </c>
       <c r="G11">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I11">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L11">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>10300000</v>
+        <v>36300000</v>
       </c>
       <c r="G12">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L12">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1363,58 +1369,58 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F13">
-        <v>52800000</v>
+        <v>10300000</v>
       </c>
       <c r="G13">
-        <v>2400000</v>
+        <v>5150000</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I13">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L13">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1425,58 +1431,58 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F14">
-        <v>7000000</v>
+        <v>52800000</v>
       </c>
       <c r="G14">
-        <v>3500000</v>
+        <v>2400000</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L14">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="M14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
   <si>
     <t>청약일</t>
   </si>
@@ -109,6 +109,9 @@
     <t>라메디텍</t>
   </si>
   <si>
+    <t>디비금융스팩12호</t>
+  </si>
+  <si>
     <t>그리드위즈</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t>대신</t>
   </si>
   <si>
+    <t>DB</t>
+  </si>
+  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t>2024-06-17</t>
   </si>
   <si>
+    <t>2024-06-18</t>
+  </si>
+  <si>
     <t>2024-06-14</t>
   </si>
   <si>
@@ -218,6 +227,9 @@
   </si>
   <si>
     <t>2140 : 1</t>
+  </si>
+  <si>
+    <t>1141.4 : 1</t>
   </si>
   <si>
     <t>569.89 : 1</t>
@@ -611,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,13 +699,13 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>20768000</v>
@@ -702,7 +714,7 @@
         <v>1298000</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>10400</v>
@@ -711,225 +723,225 @@
         <v>12700</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L2">
         <v>16000</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>56000000</v>
+        <v>10000000</v>
       </c>
       <c r="G3">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I3">
-        <v>34000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L3">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4">
-        <v>13300000</v>
+        <v>56000000</v>
       </c>
       <c r="G4">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F5">
-        <v>16800000</v>
+        <v>13300000</v>
       </c>
       <c r="G5">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I5">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L5">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -938,55 +950,55 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
       <c r="F6">
-        <v>10000000</v>
+        <v>16800000</v>
       </c>
       <c r="G6">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -997,244 +1009,244 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F7">
-        <v>39400000</v>
+        <v>10000000</v>
       </c>
       <c r="G7">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I7">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L7">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
       <c r="F8">
-        <v>742260000</v>
+        <v>39400000</v>
       </c>
       <c r="G8">
-        <v>8900000</v>
+        <v>1970000</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I8">
-        <v>73300</v>
+        <v>13000</v>
       </c>
       <c r="J8">
-        <v>83400</v>
+        <v>16000</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L8">
-        <v>83400</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="F9">
-        <v>27000000</v>
+        <v>742260000</v>
       </c>
       <c r="G9">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I9">
-        <v>11000</v>
+        <v>73300</v>
       </c>
       <c r="J9">
-        <v>14000</v>
+        <v>83400</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L9">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="G10">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1245,120 +1257,120 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>31500000</v>
+        <v>6000000</v>
       </c>
       <c r="G11">
         <v>3000000</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I11">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L11">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12">
-        <v>36300000</v>
+        <v>31500000</v>
       </c>
       <c r="G12">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I12">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J12">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L12">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1375,114 +1387,176 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F13">
-        <v>10300000</v>
+        <v>36300000</v>
       </c>
       <c r="G13">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L13">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F14">
-        <v>52800000</v>
+        <v>10300000</v>
       </c>
       <c r="G14">
-        <v>2400000</v>
+        <v>5150000</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I14">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L14">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T14" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>52800000</v>
+      </c>
+      <c r="G15">
+        <v>2400000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15">
+        <v>15000</v>
+      </c>
+      <c r="J15">
+        <v>18000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15">
+        <v>22000</v>
+      </c>
+      <c r="M15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>69</v>
+      </c>
+      <c r="R15" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" t="s">
+        <v>69</v>
+      </c>
+      <c r="T15" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
     <t>2024-06-05</t>
   </si>
   <si>
@@ -106,6 +109,15 @@
     <t>2024-04-18</t>
   </si>
   <si>
+    <t>한국제14호스팩</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩5호</t>
+  </si>
+  <si>
+    <t>씨어스테크놀로지</t>
+  </si>
+  <si>
     <t>라메디텍</t>
   </si>
   <si>
@@ -148,6 +160,12 @@
     <t>제일엠앤에스</t>
   </si>
   <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>대신</t>
   </si>
   <si>
@@ -157,9 +175,6 @@
     <t>삼성</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -169,15 +184,15 @@
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>SK</t>
   </si>
   <si>
     <t>유안타</t>
   </si>
   <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
     <t>2024-06-11</t>
   </si>
   <si>
@@ -202,6 +217,9 @@
     <t>2024-04-26</t>
   </si>
   <si>
+    <t>2024-06-19</t>
+  </si>
+  <si>
     <t>2024-06-17</t>
   </si>
   <si>
@@ -224,6 +242,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>333.67 : 1</t>
+  </si>
+  <si>
+    <t>378 : 1</t>
+  </si>
+  <si>
+    <t>1436.96 : 1</t>
   </si>
   <si>
     <t>2140 : 1</t>
@@ -623,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,61 +723,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>20768000</v>
+        <v>8000000</v>
       </c>
       <c r="G2">
-        <v>1298000</v>
+        <v>4000000</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I2">
-        <v>10400</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>12700</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L2">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -758,25 +785,25 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>10000000</v>
+        <v>9500000</v>
       </c>
       <c r="G3">
-        <v>5000000</v>
+        <v>4750000</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -785,654 +812,654 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F4">
-        <v>56000000</v>
+        <v>22100000</v>
       </c>
       <c r="G4">
-        <v>1400000</v>
+        <v>1300000</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>34000</v>
+        <v>10500</v>
       </c>
       <c r="J4">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L4">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F5">
-        <v>13300000</v>
+        <v>20768000</v>
       </c>
       <c r="G5">
-        <v>6650000</v>
+        <v>1298000</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>10400</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>12700</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F6">
-        <v>16800000</v>
+        <v>10000000</v>
       </c>
       <c r="G6">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I6">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L6">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F7">
-        <v>10000000</v>
+        <v>56000000</v>
       </c>
       <c r="G7">
-        <v>5000000</v>
+        <v>1400000</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F8">
-        <v>39400000</v>
+        <v>13300000</v>
       </c>
       <c r="G8">
-        <v>1970000</v>
+        <v>6650000</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I8">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L8">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F9">
-        <v>742260000</v>
+        <v>16800000</v>
       </c>
       <c r="G9">
-        <v>8900000</v>
+        <v>1200000</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I9">
-        <v>73300</v>
+        <v>8700</v>
       </c>
       <c r="J9">
-        <v>83400</v>
+        <v>11000</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L9">
-        <v>83400</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F10">
-        <v>27000000</v>
+        <v>10000000</v>
       </c>
       <c r="G10">
-        <v>1500000</v>
+        <v>5000000</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I10">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L10">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="S10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F11">
-        <v>6000000</v>
+        <v>39400000</v>
       </c>
       <c r="G11">
-        <v>3000000</v>
+        <v>1970000</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L11">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F12">
-        <v>31500000</v>
+        <v>742260000</v>
       </c>
       <c r="G12">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I12">
-        <v>6500</v>
+        <v>73300</v>
       </c>
       <c r="J12">
-        <v>8500</v>
+        <v>83400</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L12">
-        <v>10500</v>
+        <v>83400</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
       <c r="F13">
-        <v>36300000</v>
+        <v>27000000</v>
       </c>
       <c r="G13">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I13">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="J13">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L13">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="S13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1440,25 +1467,25 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
       <c r="F14">
-        <v>10300000</v>
+        <v>6000000</v>
       </c>
       <c r="G14">
-        <v>5150000</v>
+        <v>3000000</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1467,96 +1494,282 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L14">
         <v>2000</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="S14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F15">
-        <v>52800000</v>
+        <v>31500000</v>
       </c>
       <c r="G15">
-        <v>2400000</v>
+        <v>3000000</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I15">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="J15">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L15">
-        <v>22000</v>
+        <v>10500</v>
       </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="S15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16">
+        <v>36300000</v>
+      </c>
+      <c r="G16">
+        <v>1100000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16">
+        <v>22000</v>
+      </c>
+      <c r="J16">
+        <v>26000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16">
+        <v>33000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>10300000</v>
+      </c>
+      <c r="G17">
+        <v>5150000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <v>2000</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17">
+        <v>2000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <v>52800000</v>
+      </c>
+      <c r="G18">
+        <v>2400000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18">
+        <v>15000</v>
+      </c>
+      <c r="J18">
+        <v>18000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18">
+        <v>22000</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>92</v>
+      </c>
+      <c r="S18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="96">
   <si>
     <t>청약일</t>
   </si>
@@ -76,6 +76,9 @@
     <t>수수료율</t>
   </si>
   <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
     <t>2024-06-10</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>2024-04-18</t>
   </si>
   <si>
+    <t>KB제29호스팩</t>
+  </si>
+  <si>
     <t>한국제14호스팩</t>
   </si>
   <si>
@@ -160,6 +166,9 @@
     <t>제일엠앤에스</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
     <t>한국</t>
   </si>
   <si>
@@ -175,9 +184,6 @@
     <t>삼성</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -190,12 +196,12 @@
     <t>유안타</t>
   </si>
   <si>
+    <t>2024-06-14</t>
+  </si>
+  <si>
     <t>2024-06-13</t>
   </si>
   <si>
-    <t>2024-06-11</t>
-  </si>
-  <si>
     <t>2024-06-07</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
     <t>2024-04-26</t>
   </si>
   <si>
+    <t>2024-06-21</t>
+  </si>
+  <si>
     <t>2024-06-19</t>
   </si>
   <si>
@@ -226,9 +235,6 @@
     <t>2024-06-18</t>
   </si>
   <si>
-    <t>2024-06-14</t>
-  </si>
-  <si>
     <t>2024-05-29</t>
   </si>
   <si>
@@ -242,6 +248,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>408 : 1</t>
   </si>
   <si>
     <t>333.67 : 1</t>
@@ -650,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,25 +732,25 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
       <c r="G2">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -750,60 +759,60 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>9500000</v>
+        <v>8000000</v>
       </c>
       <c r="G3">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -812,96 +821,96 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>22100000</v>
+        <v>9500000</v>
       </c>
       <c r="G4">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L4">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -909,123 +918,123 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F5">
-        <v>20768000</v>
+        <v>22100000</v>
       </c>
       <c r="G5">
-        <v>1298000</v>
+        <v>1300000</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I5">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="J5">
-        <v>12700</v>
+        <v>14000</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L5">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6">
-        <v>10000000</v>
+        <v>20768000</v>
       </c>
       <c r="G6">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>10400</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>12700</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1033,61 +1042,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7">
-        <v>56000000</v>
+        <v>10000000</v>
       </c>
       <c r="G7">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I7">
-        <v>34000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L7">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1095,61 +1104,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F8">
-        <v>13300000</v>
+        <v>56000000</v>
       </c>
       <c r="G8">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L8">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1157,61 +1166,61 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F9">
-        <v>16800000</v>
+        <v>13300000</v>
       </c>
       <c r="G9">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L9">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1219,123 +1228,123 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
       <c r="F10">
-        <v>10000000</v>
+        <v>16800000</v>
       </c>
       <c r="G10">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L10">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11">
-        <v>39400000</v>
+        <v>10000000</v>
       </c>
       <c r="G11">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I11">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L11">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1343,61 +1352,61 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
       <c r="F12">
-        <v>742260000</v>
+        <v>39400000</v>
       </c>
       <c r="G12">
-        <v>8900000</v>
+        <v>1970000</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I12">
-        <v>73300</v>
+        <v>13000</v>
       </c>
       <c r="J12">
-        <v>83400</v>
+        <v>16000</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L12">
-        <v>83400</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1405,61 +1414,61 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F13">
-        <v>27000000</v>
+        <v>742260000</v>
       </c>
       <c r="G13">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I13">
-        <v>11000</v>
+        <v>73300</v>
       </c>
       <c r="J13">
-        <v>14000</v>
+        <v>83400</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L13">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1467,123 +1476,123 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="G14">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L14">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>31500000</v>
+        <v>6000000</v>
       </c>
       <c r="G15">
         <v>3000000</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I15">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L15">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1591,123 +1600,123 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16">
-        <v>36300000</v>
+        <v>31500000</v>
       </c>
       <c r="G16">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I16">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L16">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="M16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17">
-        <v>10300000</v>
+        <v>36300000</v>
       </c>
       <c r="G17">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L17">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="M17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1715,61 +1724,123 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F18">
-        <v>52800000</v>
+        <v>10300000</v>
       </c>
       <c r="G18">
-        <v>2400000</v>
+        <v>5150000</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I18">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L18">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19">
+        <v>52800000</v>
+      </c>
+      <c r="G19">
+        <v>2400000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19">
+        <v>15000</v>
+      </c>
+      <c r="J19">
+        <v>18000</v>
+      </c>
+      <c r="K19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19">
+        <v>22000</v>
+      </c>
+      <c r="M19" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R19" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" t="s">
+        <v>77</v>
+      </c>
+      <c r="T19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form2.xlsx
+++ b/datasets/form2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
   <si>
     <t>청약일</t>
   </si>
@@ -109,9 +109,6 @@
     <t>2024-04-22</t>
   </si>
   <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
     <t>KB제29호스팩</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>유안타제16호스팩</t>
   </si>
   <si>
-    <t>제일엠앤에스</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -299,9 +293,6 @@
   </si>
   <si>
     <t>334 : 1</t>
-  </si>
-  <si>
-    <t>1438.96 : 1</t>
   </si>
 </sst>
 </file>
@@ -659,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>12000000</v>
@@ -750,7 +741,7 @@
         <v>6000000</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -759,34 +750,34 @@
         <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L2">
         <v>2000</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -794,16 +785,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>8000000</v>
@@ -812,7 +803,7 @@
         <v>4000000</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -821,34 +812,34 @@
         <v>2000</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L3">
         <v>2000</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" t="s">
-        <v>77</v>
-      </c>
-      <c r="R3" t="s">
-        <v>79</v>
-      </c>
       <c r="S3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -856,16 +847,16 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>9500000</v>
@@ -874,7 +865,7 @@
         <v>4750000</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -883,34 +874,34 @@
         <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L4">
         <v>2000</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -918,16 +909,16 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>22100000</v>
@@ -936,7 +927,7 @@
         <v>1300000</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5">
         <v>10500</v>
@@ -945,34 +936,34 @@
         <v>14000</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L5">
         <v>17000</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -980,16 +971,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>20768000</v>
@@ -998,7 +989,7 @@
         <v>1298000</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6">
         <v>10400</v>
@@ -1007,34 +998,34 @@
         <v>12700</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L6">
         <v>16000</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1042,16 +1033,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>10000000</v>
@@ -1060,7 +1051,7 @@
         <v>5000000</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I7">
         <v>2000</v>
@@ -1069,34 +1060,34 @@
         <v>2000</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L7">
         <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1104,16 +1095,16 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>56000000</v>
@@ -1122,7 +1113,7 @@
         <v>1400000</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <v>34000</v>
@@ -1131,34 +1122,34 @@
         <v>40000</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L8">
         <v>40000</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1166,16 +1157,16 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>13300000</v>
@@ -1184,7 +1175,7 @@
         <v>6650000</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -1193,34 +1184,34 @@
         <v>2000</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L9">
         <v>2000</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1228,16 +1219,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10">
         <v>16800000</v>
@@ -1246,7 +1237,7 @@
         <v>1200000</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10">
         <v>8700</v>
@@ -1255,34 +1246,34 @@
         <v>11000</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L10">
         <v>14000</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1290,16 +1281,16 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-      